--- a/Tablets Distribution - Berea.xlsx
+++ b/Tablets Distribution - Berea.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" tabRatio="833" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" tabRatio="833" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="All Tablets" sheetId="1" r:id="rId1"/>
@@ -12,10 +12,10 @@
     <sheet name="Makhoroana" sheetId="3" r:id="rId3"/>
     <sheet name="Bela-Bela" sheetId="4" r:id="rId4"/>
     <sheet name="Malimong" sheetId="5" r:id="rId5"/>
-    <sheet name="Teyateyaneng" sheetId="12" r:id="rId6"/>
-    <sheet name="Khafung" sheetId="6" r:id="rId7"/>
-    <sheet name="Tsoana-Makhulo" sheetId="7" r:id="rId8"/>
-    <sheet name="Thupa-Kubu" sheetId="8" r:id="rId9"/>
+    <sheet name="Khafung" sheetId="6" r:id="rId6"/>
+    <sheet name="Tsoana-Makhulo" sheetId="7" r:id="rId7"/>
+    <sheet name="Thupa-Kubu" sheetId="8" r:id="rId8"/>
+    <sheet name="Teyateyaneng" sheetId="12" r:id="rId9"/>
     <sheet name="Berea" sheetId="9" r:id="rId10"/>
     <sheet name="Khubetsoana" sheetId="10" r:id="rId11"/>
     <sheet name="Mabote" sheetId="11" r:id="rId12"/>
@@ -24,11 +24,45 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="7">
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Serial #</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Signature</t>
+  </si>
+  <si>
+    <t>CLICK 7" M7043G</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -43,7 +77,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -51,17 +85,237 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -363,38 +617,2712 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" customWidth="1"/>
+    <col min="5" max="5" width="36.28515625" customWidth="1"/>
+    <col min="6" max="6" width="28.42578125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="6" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="4">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="4">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="4">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="4"/>
+    </row>
+    <row r="35" spans="1:8" ht="18.75">
+      <c r="A35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="4"/>
+    </row>
+    <row r="36" spans="1:8" ht="18.75">
+      <c r="A36" s="4">
+        <v>34</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="4"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="4">
+        <v>35</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="4"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="4">
+        <v>36</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="4"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="4">
+        <v>37</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="4"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="4">
+        <v>38</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="4"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="4">
+        <v>39</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="4"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="4">
+        <v>40</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="4"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="4">
+        <v>41</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="4"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="4">
+        <v>42</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="4"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="4">
+        <v>43</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="4"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="4"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="4"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="4"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="4"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="4"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="4"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="4"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="4"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="4"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="4"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="4"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="4"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="4"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="4"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="4"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="4"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="4"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="4"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="4"/>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="4"/>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="4"/>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="4"/>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="4"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="F1 F35">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="HJF0">
+      <formula>NOT(ISERROR(SEARCH("HJF0",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="HJH0">
+      <formula>NOT(ISERROR(SEARCH("HJH0",F1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" customWidth="1"/>
+    <col min="5" max="5" width="36.28515625" customWidth="1"/>
+    <col min="6" max="6" width="28.42578125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="6" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="4">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="4">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="4">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="4"/>
+    </row>
+    <row r="35" spans="1:8" ht="18.75">
+      <c r="A35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="4"/>
+    </row>
+    <row r="36" spans="1:8" ht="18.75">
+      <c r="A36" s="4">
+        <v>34</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="4"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="4">
+        <v>35</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="4"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="4">
+        <v>36</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="4"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="4">
+        <v>37</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="4"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="4">
+        <v>38</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="4"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="4">
+        <v>39</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="4"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="4">
+        <v>40</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="4"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="4">
+        <v>41</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="4"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="4">
+        <v>42</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="4"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="4">
+        <v>43</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="4"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="4"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="4"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="4"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="4"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="4"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="4"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="4"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="4"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="4"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="4"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="4"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="4"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="4"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="4"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="4"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="4"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="4"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="4"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="4"/>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="4"/>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="4"/>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="4"/>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="4"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="F1 F35">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="HJF0">
+      <formula>NOT(ISERROR(SEARCH("HJF0",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="HJH0">
+      <formula>NOT(ISERROR(SEARCH("HJH0",F1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection sqref="A1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" customWidth="1"/>
+    <col min="5" max="5" width="36.28515625" customWidth="1"/>
+    <col min="6" max="6" width="28.42578125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="6" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="4">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="4">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="4">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="4"/>
+    </row>
+    <row r="35" spans="1:8" ht="18.75">
+      <c r="A35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="4"/>
+    </row>
+    <row r="36" spans="1:8" ht="18.75">
+      <c r="A36" s="4">
+        <v>34</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="4"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="4">
+        <v>35</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="4"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="4">
+        <v>36</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="4"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="4">
+        <v>37</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="4"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="4">
+        <v>38</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="4"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="4">
+        <v>39</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="4"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="4">
+        <v>40</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="4"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="4">
+        <v>41</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="4"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="4">
+        <v>42</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="4"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="4">
+        <v>43</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="4"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="4"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="4"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="4"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="4"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="4"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="4"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="4"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="4"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="4"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="4"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="4"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="4"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="4"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="4"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="4"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="4"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="4"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="4"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="4"/>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="4"/>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="4"/>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="4"/>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="4"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="F1 F35">
+    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="HJF0">
+      <formula>NOT(ISERROR(SEARCH("HJF0",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="HJH0">
+      <formula>NOT(ISERROR(SEARCH("HJH0",F1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -451,9 +3379,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
@@ -487,12 +3413,904 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" customWidth="1"/>
+    <col min="5" max="5" width="36.28515625" customWidth="1"/>
+    <col min="6" max="6" width="28.42578125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="6" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="4">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="4">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="4">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="4"/>
+    </row>
+    <row r="35" spans="1:8" ht="18.75">
+      <c r="A35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="4"/>
+    </row>
+    <row r="36" spans="1:8" ht="18.75">
+      <c r="A36" s="4">
+        <v>34</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="4"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="4">
+        <v>35</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="4"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="4">
+        <v>36</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="4"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="4">
+        <v>37</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="4"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="4">
+        <v>38</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="4"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="4">
+        <v>39</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="4"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="4">
+        <v>40</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="4"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="4">
+        <v>41</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="4"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="4">
+        <v>42</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="4"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="4">
+        <v>43</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="4"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="4"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="4"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="4"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="4"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="4"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="4"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="4"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="4"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="4"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="4"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="4"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="4"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="4"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="4"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="4"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="4"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="4"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="4"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="4"/>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="4"/>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="4"/>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="4"/>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="4"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="F1 F35">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="HJF0">
+      <formula>NOT(ISERROR(SEARCH("HJF0",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="HJH0">
+      <formula>NOT(ISERROR(SEARCH("HJH0",F1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Tablets Distribution - Berea.xlsx
+++ b/Tablets Distribution - Berea.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" tabRatio="833" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" tabRatio="833" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="All Tablets" sheetId="1" r:id="rId1"/>
     <sheet name="Mosalemane" sheetId="2" r:id="rId2"/>
-    <sheet name="Makhoroana" sheetId="3" r:id="rId3"/>
-    <sheet name="Bela-Bela" sheetId="4" r:id="rId4"/>
-    <sheet name="Malimong" sheetId="5" r:id="rId5"/>
-    <sheet name="Khafung" sheetId="6" r:id="rId6"/>
-    <sheet name="Tsoana-Makhulo" sheetId="7" r:id="rId7"/>
-    <sheet name="Thupa-Kubu" sheetId="8" r:id="rId8"/>
+    <sheet name="Thupa-Kubu" sheetId="8" r:id="rId3"/>
+    <sheet name="Malimong" sheetId="5" r:id="rId4"/>
+    <sheet name="Khafung" sheetId="6" r:id="rId5"/>
+    <sheet name="Bela-Bela" sheetId="4" r:id="rId6"/>
+    <sheet name="Makhoroana" sheetId="3" r:id="rId7"/>
+    <sheet name="Tsoana-Makhulo" sheetId="7" r:id="rId8"/>
     <sheet name="Teyateyaneng" sheetId="12" r:id="rId9"/>
     <sheet name="Berea" sheetId="9" r:id="rId10"/>
     <sheet name="Khubetsoana" sheetId="10" r:id="rId11"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="57">
   <si>
     <t>No.</t>
   </si>
@@ -46,6 +46,156 @@
   </si>
   <si>
     <t>CLICK 7" M7043G</t>
+  </si>
+  <si>
+    <t>X-TOUCH P1</t>
+  </si>
+  <si>
+    <t>11V1DP101947</t>
+  </si>
+  <si>
+    <t>11V1DP102162</t>
+  </si>
+  <si>
+    <t>11V1DP102224</t>
+  </si>
+  <si>
+    <t>11V1DP102231</t>
+  </si>
+  <si>
+    <t>11V1DP102233</t>
+  </si>
+  <si>
+    <t>11V1DP102442</t>
+  </si>
+  <si>
+    <t>11V1DP102454</t>
+  </si>
+  <si>
+    <t>11V1DP102562</t>
+  </si>
+  <si>
+    <t>11V1DP102565</t>
+  </si>
+  <si>
+    <t>11V1DP102569</t>
+  </si>
+  <si>
+    <t>11V1DP102570</t>
+  </si>
+  <si>
+    <t>11V1DP102762</t>
+  </si>
+  <si>
+    <t>11V1DP102775</t>
+  </si>
+  <si>
+    <t>11V1DP103042</t>
+  </si>
+  <si>
+    <t>11V1DP103046</t>
+  </si>
+  <si>
+    <t>11V1DP103047</t>
+  </si>
+  <si>
+    <t>11V1DP103048</t>
+  </si>
+  <si>
+    <t>11V1DP103050</t>
+  </si>
+  <si>
+    <t>11V1DP103052</t>
+  </si>
+  <si>
+    <t>11V1DP103053</t>
+  </si>
+  <si>
+    <t>11V1DP103054</t>
+  </si>
+  <si>
+    <t>11V1DP103055</t>
+  </si>
+  <si>
+    <t>11V1DP103056</t>
+  </si>
+  <si>
+    <t>11V1DP103057</t>
+  </si>
+  <si>
+    <t>11V1DP103058</t>
+  </si>
+  <si>
+    <t>11V1DP103059</t>
+  </si>
+  <si>
+    <t>11V1DP103060</t>
+  </si>
+  <si>
+    <t>11V1DP103321</t>
+  </si>
+  <si>
+    <t>11V1DP103322</t>
+  </si>
+  <si>
+    <t>11V1DP103323</t>
+  </si>
+  <si>
+    <t>11V1DP103324</t>
+  </si>
+  <si>
+    <t>11V1DP103326</t>
+  </si>
+  <si>
+    <t>11V1DP103327</t>
+  </si>
+  <si>
+    <t>Date Taken</t>
+  </si>
+  <si>
+    <t>11V1DP103328</t>
+  </si>
+  <si>
+    <t>11V1DP103329</t>
+  </si>
+  <si>
+    <t>11V1DP103330</t>
+  </si>
+  <si>
+    <t>11V1DP103333</t>
+  </si>
+  <si>
+    <t>11V1DP103336</t>
+  </si>
+  <si>
+    <t>11V1DP103337</t>
+  </si>
+  <si>
+    <t>11V1DP103338</t>
+  </si>
+  <si>
+    <t>11V1DP103794</t>
+  </si>
+  <si>
+    <t>11V1DP103803</t>
+  </si>
+  <si>
+    <t>11V1DP103807</t>
+  </si>
+  <si>
+    <t>11V1DP103809</t>
+  </si>
+  <si>
+    <t>11V1DP103813</t>
+  </si>
+  <si>
+    <t>11V1DP103815</t>
+  </si>
+  <si>
+    <t>11V1DP103820</t>
+  </si>
+  <si>
+    <t>11V1DP</t>
   </si>
 </sst>
 </file>
@@ -104,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -118,107 +268,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <font>
         <condense val="0"/>
@@ -1508,10 +1563,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1 F35">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="HJF0">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="HJF0">
       <formula>NOT(ISERROR(SEARCH("HJF0",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="HJH0">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="HJH0">
       <formula>NOT(ISERROR(SEARCH("HJH0",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2412,10 +2467,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1 F35">
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="HJF0">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="HJF0">
       <formula>NOT(ISERROR(SEARCH("HJF0",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="HJH0">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="HJH0">
       <formula>NOT(ISERROR(SEARCH("HJH0",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3316,10 +3371,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1 F35">
-    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="HJF0">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="HJF0">
       <formula>NOT(ISERROR(SEARCH("HJF0",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="HJH0">
+    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="HJH0">
       <formula>NOT(ISERROR(SEARCH("HJH0",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3329,84 +3384,6829 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G37" sqref="G1:G1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="41.85546875" customWidth="1"/>
+    <col min="7" max="8" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4" t="str">
+        <f t="shared" ref="C2:C34" si="0">CONCATENATE(G2,H2)</f>
+        <v>11V1DP103226</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2">
+        <v>103226</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP103237</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3">
+        <v>103237</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP102239</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4">
+        <v>102239</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP102528</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5">
+        <v>102528</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP103221</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6">
+        <v>103221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP102533</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7">
+        <v>102533</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP102530</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8">
+        <v>102530</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP103239</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9">
+        <v>103239</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP102537</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10">
+        <v>102537</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP104109</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11">
+        <v>104109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP103934</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12">
+        <v>103934</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP102529</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13">
+        <v>102529</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP103939</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14">
+        <v>103939</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP103235</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15">
+        <v>103235</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP103225</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16">
+        <v>103225</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP103228</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17">
+        <v>103228</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP103234</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18">
+        <v>103234</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP103231</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19">
+        <v>103231</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP103229</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" t="s">
+        <v>56</v>
+      </c>
+      <c r="H20">
+        <v>103229</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP103230</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21">
+        <v>103230</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP103925</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" t="s">
+        <v>56</v>
+      </c>
+      <c r="H22">
+        <v>103925</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP103285</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" t="s">
+        <v>56</v>
+      </c>
+      <c r="H23">
+        <v>103285</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP103247</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" t="s">
+        <v>56</v>
+      </c>
+      <c r="H24">
+        <v>103247</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP104110</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" t="s">
+        <v>56</v>
+      </c>
+      <c r="H25">
+        <v>104110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP103260</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" t="s">
+        <v>56</v>
+      </c>
+      <c r="H26">
+        <v>103260</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP103223</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" t="s">
+        <v>56</v>
+      </c>
+      <c r="H27">
+        <v>103223</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP103255</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" t="s">
+        <v>56</v>
+      </c>
+      <c r="H28">
+        <v>103255</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP104119</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" t="s">
+        <v>56</v>
+      </c>
+      <c r="H29">
+        <v>104119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP103245</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" t="s">
+        <v>56</v>
+      </c>
+      <c r="H30">
+        <v>103245</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP102170</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" t="s">
+        <v>56</v>
+      </c>
+      <c r="H31">
+        <v>102170</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="4">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP103928</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" t="s">
+        <v>56</v>
+      </c>
+      <c r="H32">
+        <v>103928</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="4">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP103250</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" t="s">
+        <v>56</v>
+      </c>
+      <c r="H33">
+        <v>103250</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="4">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP101655</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" t="s">
+        <v>56</v>
+      </c>
+      <c r="H34">
+        <v>101655</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="18.75">
+      <c r="A35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="4">
+        <v>34</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="4" t="str">
+        <f t="shared" ref="C36:C60" si="1">CONCATENATE(G36,H36)</f>
+        <v>11V1DP103224</v>
+      </c>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" t="s">
+        <v>56</v>
+      </c>
+      <c r="H36">
+        <v>103224</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="4">
+        <v>35</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP101943</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" t="s">
+        <v>56</v>
+      </c>
+      <c r="H37">
+        <v>101943</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="4">
+        <v>36</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP104106</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" t="s">
+        <v>56</v>
+      </c>
+      <c r="H38">
+        <v>104106</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="4">
+        <v>37</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP103236</v>
+      </c>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" t="s">
+        <v>56</v>
+      </c>
+      <c r="H39">
+        <v>103236</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="4">
+        <v>38</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP104115</v>
+      </c>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" t="s">
+        <v>56</v>
+      </c>
+      <c r="H40">
+        <v>104115</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="4">
+        <v>39</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP103251</v>
+      </c>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" t="s">
+        <v>56</v>
+      </c>
+      <c r="H41">
+        <v>103251</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="4">
+        <v>40</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP103246</v>
+      </c>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" t="s">
+        <v>56</v>
+      </c>
+      <c r="H42">
+        <v>103246</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="4">
+        <v>41</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP104107</v>
+      </c>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" t="s">
+        <v>56</v>
+      </c>
+      <c r="H43">
+        <v>104107</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="4">
+        <v>42</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP102522</v>
+      </c>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" t="s">
+        <v>56</v>
+      </c>
+      <c r="H44">
+        <v>102522</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="4">
+        <v>43</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP103244</v>
+      </c>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" t="s">
+        <v>56</v>
+      </c>
+      <c r="H45">
+        <v>103244</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="4">
+        <v>44</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP102030</v>
+      </c>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" t="s">
+        <v>56</v>
+      </c>
+      <c r="H46">
+        <v>102030</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="4">
+        <v>45</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP103257</v>
+      </c>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" t="s">
+        <v>56</v>
+      </c>
+      <c r="H47">
+        <v>103257</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="4">
+        <v>46</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP102037</v>
+      </c>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" t="s">
+        <v>56</v>
+      </c>
+      <c r="H48">
+        <v>102037</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="4">
+        <v>47</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP102024</v>
+      </c>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" t="s">
+        <v>56</v>
+      </c>
+      <c r="H49">
+        <v>102024</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="4">
+        <v>48</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP102033</v>
+      </c>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" t="s">
+        <v>56</v>
+      </c>
+      <c r="H50">
+        <v>102033</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="4">
+        <v>49</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP103256</v>
+      </c>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" t="s">
+        <v>56</v>
+      </c>
+      <c r="H51">
+        <v>103256</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="4">
+        <v>50</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP101940</v>
+      </c>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" t="s">
+        <v>56</v>
+      </c>
+      <c r="H52">
+        <v>101940</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="4">
+        <v>51</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP101660</v>
+      </c>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" t="s">
+        <v>56</v>
+      </c>
+      <c r="H53">
+        <v>101660</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="4">
+        <v>52</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP104112</v>
+      </c>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" t="s">
+        <v>56</v>
+      </c>
+      <c r="H54">
+        <v>104112</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="4">
+        <v>53</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP102237</v>
+      </c>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" t="s">
+        <v>56</v>
+      </c>
+      <c r="H55">
+        <v>102237</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="4">
+        <v>54</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP104111</v>
+      </c>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" t="s">
+        <v>56</v>
+      </c>
+      <c r="H56">
+        <v>104111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="4">
+        <v>55</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP104116</v>
+      </c>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" t="s">
+        <v>56</v>
+      </c>
+      <c r="H57">
+        <v>104116</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="4">
+        <v>56</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP102535</v>
+      </c>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" t="s">
+        <v>56</v>
+      </c>
+      <c r="H58">
+        <v>102535</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="4">
+        <v>57</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP102026</v>
+      </c>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" t="s">
+        <v>56</v>
+      </c>
+      <c r="H59">
+        <v>102026</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="4">
+        <v>58</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP102568</v>
+      </c>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" t="s">
+        <v>56</v>
+      </c>
+      <c r="H60">
+        <v>102568</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" customWidth="1"/>
+    <col min="5" max="5" width="42.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4" t="str">
+        <f t="shared" ref="C2:C34" si="0">CONCATENATE(G2,H2)</f>
+        <v>11V1DP102680</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2">
+        <v>102680</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP103984</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3">
+        <v>103984</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP103998</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4">
+        <v>103998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP102029</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5">
+        <v>102029</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP102179</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6">
+        <v>102179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP104287</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7">
+        <v>104287</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP104282</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8">
+        <v>104282</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP102662</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9">
+        <v>102662</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP102196</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10">
+        <v>102196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP102667</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11">
+        <v>102667</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP102663</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12">
+        <v>102663</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP102686</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13">
+        <v>102686</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP103995</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14">
+        <v>103995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP102676</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15">
+        <v>102676</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP102191</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16">
+        <v>102191</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP102671</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17">
+        <v>102671</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP102190</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18">
+        <v>102190</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP102661</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19">
+        <v>102661</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP102664</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" t="s">
+        <v>56</v>
+      </c>
+      <c r="H20">
+        <v>102664</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP104296</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21">
+        <v>104296</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="4">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="4">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="4">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>11V1DP</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="18.75">
+      <c r="A35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="18.75">
+      <c r="A36" s="4">
+        <v>34</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="4" t="str">
+        <f t="shared" ref="C36:C65" si="1">CONCATENATE(G36,H36)</f>
+        <v>11V1DP</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="4">
+        <v>35</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="4">
+        <v>36</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="4">
+        <v>37</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP</v>
+      </c>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="4">
+        <v>38</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP</v>
+      </c>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="4">
+        <v>39</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP</v>
+      </c>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="4">
+        <v>40</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP</v>
+      </c>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="4">
+        <v>41</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP</v>
+      </c>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="4">
+        <v>42</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP</v>
+      </c>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="4">
+        <v>43</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP</v>
+      </c>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="4">
+        <v>44</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP</v>
+      </c>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="4">
+        <v>45</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP</v>
+      </c>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="4">
+        <v>46</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP</v>
+      </c>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="4">
+        <v>47</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP</v>
+      </c>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="4">
+        <v>48</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP</v>
+      </c>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="4">
+        <v>49</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP</v>
+      </c>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="4">
+        <v>50</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP</v>
+      </c>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="4">
+        <v>51</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP</v>
+      </c>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="4">
+        <v>52</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP</v>
+      </c>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="4">
+        <v>53</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP</v>
+      </c>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="4">
+        <v>54</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP</v>
+      </c>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="4">
+        <v>55</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP</v>
+      </c>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="4">
+        <v>56</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP</v>
+      </c>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="4">
+        <v>57</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP</v>
+      </c>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="4">
+        <v>58</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP</v>
+      </c>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="4">
+        <v>59</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP</v>
+      </c>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="4">
+        <v>60</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP</v>
+      </c>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="4">
+        <v>61</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP</v>
+      </c>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="4">
+        <v>62</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP</v>
+      </c>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="4">
+        <v>63</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>11V1DP</v>
+      </c>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" customWidth="1"/>
+    <col min="5" max="5" width="42.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="4">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="4">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="4">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" spans="1:6" ht="18.75">
+      <c r="A35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="18.75">
+      <c r="A36" s="4">
+        <v>34</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="4">
+        <v>35</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="4">
+        <v>36</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="4">
+        <v>37</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="4">
+        <v>38</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="4">
+        <v>39</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="4">
+        <v>40</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="4">
+        <v>41</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="4">
+        <v>42</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="4">
+        <v>43</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="4">
+        <v>44</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="4">
+        <v>45</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="4">
+        <v>46</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="4">
+        <v>47</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" customWidth="1"/>
+    <col min="5" max="5" width="42.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="4">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="4">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="4">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" spans="1:6" ht="18.75">
+      <c r="A35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="18.75">
+      <c r="A36" s="4">
+        <v>34</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="4">
+        <v>35</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="4">
+        <v>36</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="4">
+        <v>37</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="4">
+        <v>38</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="4">
+        <v>39</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="4">
+        <v>40</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="7"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="4">
+        <v>41</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="7"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="4">
+        <v>42</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="7"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="4">
+        <v>43</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="7"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="4">
+        <v>44</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="7"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="4">
+        <v>45</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="7"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="4">
+        <v>46</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="7"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="4">
+        <v>47</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="7"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" customWidth="1"/>
+    <col min="5" max="5" width="42.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="4">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="4">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="4">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" spans="1:6" ht="18.75">
+      <c r="A35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="18.75">
+      <c r="A36" s="4">
+        <v>34</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="4">
+        <v>35</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="4">
+        <v>36</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="4">
+        <v>37</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="4">
+        <v>38</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="4">
+        <v>39</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="4">
+        <v>40</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="4">
+        <v>41</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="4">
+        <v>42</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="4">
+        <v>43</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="4">
+        <v>44</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="4">
+        <v>45</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="4">
+        <v>46</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="4">
+        <v>47</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" customWidth="1"/>
+    <col min="5" max="5" width="42.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="4">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="4">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="4">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" spans="1:6" ht="18.75">
+      <c r="A35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="18.75">
+      <c r="A36" s="4">
+        <v>34</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="4">
+        <v>35</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="4">
+        <v>36</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="4">
+        <v>37</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="4">
+        <v>38</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="4">
+        <v>39</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="4">
+        <v>40</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="4">
+        <v>41</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="4">
+        <v>42</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="4">
+        <v>43</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="4">
+        <v>44</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="4">
+        <v>45</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="4">
+        <v>46</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="4">
+        <v>47</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" customWidth="1"/>
+    <col min="5" max="5" width="42.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="4">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="4">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="4">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" spans="1:6" ht="18.75">
+      <c r="A35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="18.75">
+      <c r="A36" s="4">
+        <v>34</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="4">
+        <v>35</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="4">
+        <v>36</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="4">
+        <v>37</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="4">
+        <v>38</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="4">
+        <v>39</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="4">
+        <v>40</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="4">
+        <v>41</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="4">
+        <v>42</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="4">
+        <v>43</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="4">
+        <v>44</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="4">
+        <v>45</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="4">
+        <v>46</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="4">
+        <v>47</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3415,7 +10215,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:H1048576"/>
     </sheetView>
   </sheetViews>
@@ -4304,10 +11104,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1 F35">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="HJF0">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="HJF0">
       <formula>NOT(ISERROR(SEARCH("HJF0",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="HJH0">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="HJH0">
       <formula>NOT(ISERROR(SEARCH("HJH0",F1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Tablets Distribution - Berea.xlsx
+++ b/Tablets Distribution - Berea.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" tabRatio="833" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" tabRatio="833" firstSheet="2" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="All Tablets" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,20 @@
     <sheet name="Berea" sheetId="9" r:id="rId10"/>
     <sheet name="Khubetsoana" sheetId="10" r:id="rId11"/>
     <sheet name="Mabote" sheetId="11" r:id="rId12"/>
+    <sheet name="Supervisors" sheetId="13" r:id="rId13"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Khafung!$A$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Malimong!$A$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Mosalemane!$A$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Thupa-Kubu'!$A$1:$H$1</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="108">
   <si>
     <t>No.</t>
   </si>
@@ -196,6 +203,159 @@
   </si>
   <si>
     <t>11V1DP</t>
+  </si>
+  <si>
+    <t>X-TOUCH P2</t>
+  </si>
+  <si>
+    <t>X-TOUCH P3</t>
+  </si>
+  <si>
+    <t>X-TOUCH P4</t>
+  </si>
+  <si>
+    <t>X-TOUCH P5</t>
+  </si>
+  <si>
+    <t>X-TOUCH P6</t>
+  </si>
+  <si>
+    <t>X-TOUCH P7</t>
+  </si>
+  <si>
+    <t>X-TOUCH P8</t>
+  </si>
+  <si>
+    <t>X-TOUCH P9</t>
+  </si>
+  <si>
+    <t>X-TOUCH P10</t>
+  </si>
+  <si>
+    <t>X-TOUCH P11</t>
+  </si>
+  <si>
+    <t>X-TOUCH P12</t>
+  </si>
+  <si>
+    <t>X-TOUCH P13</t>
+  </si>
+  <si>
+    <t>X-TOUCH P14</t>
+  </si>
+  <si>
+    <t>11V1DP10</t>
+  </si>
+  <si>
+    <t>2828</t>
+  </si>
+  <si>
+    <t>2822</t>
+  </si>
+  <si>
+    <t>3180</t>
+  </si>
+  <si>
+    <t>3171</t>
+  </si>
+  <si>
+    <t>3170</t>
+  </si>
+  <si>
+    <t>3169</t>
+  </si>
+  <si>
+    <t>3176</t>
+  </si>
+  <si>
+    <t>3177</t>
+  </si>
+  <si>
+    <t>4497</t>
+  </si>
+  <si>
+    <t>3172</t>
+  </si>
+  <si>
+    <t>3168</t>
+  </si>
+  <si>
+    <t>3179</t>
+  </si>
+  <si>
+    <t>3175</t>
+  </si>
+  <si>
+    <t>3163</t>
+  </si>
+  <si>
+    <t>2834</t>
+  </si>
+  <si>
+    <t>3166</t>
+  </si>
+  <si>
+    <t>2830</t>
+  </si>
+  <si>
+    <t>4284</t>
+  </si>
+  <si>
+    <t>4281</t>
+  </si>
+  <si>
+    <t>4297</t>
+  </si>
+  <si>
+    <t>2188</t>
+  </si>
+  <si>
+    <t>2198</t>
+  </si>
+  <si>
+    <t>4295</t>
+  </si>
+  <si>
+    <t>4293</t>
+  </si>
+  <si>
+    <t>4290</t>
+  </si>
+  <si>
+    <t>4292</t>
+  </si>
+  <si>
+    <t>4481</t>
+  </si>
+  <si>
+    <t>4299</t>
+  </si>
+  <si>
+    <t>4300</t>
+  </si>
+  <si>
+    <t>4298</t>
+  </si>
+  <si>
+    <t>4294</t>
+  </si>
+  <si>
+    <t>4285</t>
+  </si>
+  <si>
+    <t>4286</t>
+  </si>
+  <si>
+    <t>4288</t>
+  </si>
+  <si>
+    <t>2184</t>
+  </si>
+  <si>
+    <t>4289</t>
+  </si>
+  <si>
+    <t>4291</t>
   </si>
 </sst>
 </file>
@@ -1563,10 +1723,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1 F35">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="HJF0">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="HJF0">
       <formula>NOT(ISERROR(SEARCH("HJF0",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="HJH0">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="HJH0">
       <formula>NOT(ISERROR(SEARCH("HJH0",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2467,10 +2627,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1 F35">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="HJF0">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="HJF0">
       <formula>NOT(ISERROR(SEARCH("HJF0",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="HJH0">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="HJH0">
       <formula>NOT(ISERROR(SEARCH("HJH0",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3371,13 +3531,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1 F35">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="HJF0">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="HJF0">
       <formula>NOT(ISERROR(SEARCH("HJF0",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="HJH0">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="HJH0">
       <formula>NOT(ISERROR(SEARCH("HJH0",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3386,8 +3560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G37" sqref="G1:G1048576"/>
+    <sheetView view="pageLayout" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3398,7 +3572,7 @@
     <col min="4" max="4" width="29.42578125" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="41.85546875" customWidth="1"/>
-    <col min="7" max="8" width="9.140625" customWidth="1"/>
+    <col min="7" max="8" width="9.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75">
@@ -3429,8 +3603,8 @@
         <v>7</v>
       </c>
       <c r="C2" s="4" t="str">
-        <f t="shared" ref="C2:C34" si="0">CONCATENATE(G2,H2)</f>
-        <v>11V1DP103226</v>
+        <f>CONCATENATE(G2,H2)</f>
+        <v>11V1DP101655</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -3439,7 +3613,7 @@
         <v>56</v>
       </c>
       <c r="H2">
-        <v>103226</v>
+        <v>101655</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3450,8 +3624,8 @@
         <v>7</v>
       </c>
       <c r="C3" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>11V1DP103237</v>
+        <f>CONCATENATE(G3,H3)</f>
+        <v>11V1DP101660</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -3460,7 +3634,7 @@
         <v>56</v>
       </c>
       <c r="H3">
-        <v>103237</v>
+        <v>101660</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3471,8 +3645,8 @@
         <v>7</v>
       </c>
       <c r="C4" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>11V1DP102239</v>
+        <f>CONCATENATE(G4,H4)</f>
+        <v>11V1DP101940</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -3481,7 +3655,7 @@
         <v>56</v>
       </c>
       <c r="H4">
-        <v>102239</v>
+        <v>101940</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3492,8 +3666,8 @@
         <v>7</v>
       </c>
       <c r="C5" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>11V1DP102528</v>
+        <f>CONCATENATE(G5,H5)</f>
+        <v>11V1DP101943</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -3502,7 +3676,7 @@
         <v>56</v>
       </c>
       <c r="H5">
-        <v>102528</v>
+        <v>101943</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3513,8 +3687,8 @@
         <v>7</v>
       </c>
       <c r="C6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>11V1DP103221</v>
+        <f>CONCATENATE(G6,H6)</f>
+        <v>11V1DP102024</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -3523,7 +3697,7 @@
         <v>56</v>
       </c>
       <c r="H6">
-        <v>103221</v>
+        <v>102024</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3534,8 +3708,8 @@
         <v>7</v>
       </c>
       <c r="C7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>11V1DP102533</v>
+        <f>CONCATENATE(G7,H7)</f>
+        <v>11V1DP102026</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -3544,7 +3718,7 @@
         <v>56</v>
       </c>
       <c r="H7">
-        <v>102533</v>
+        <v>102026</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3555,8 +3729,8 @@
         <v>7</v>
       </c>
       <c r="C8" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>11V1DP102530</v>
+        <f>CONCATENATE(G8,H8)</f>
+        <v>11V1DP102030</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -3565,7 +3739,7 @@
         <v>56</v>
       </c>
       <c r="H8">
-        <v>102530</v>
+        <v>102030</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3576,8 +3750,8 @@
         <v>7</v>
       </c>
       <c r="C9" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>11V1DP103239</v>
+        <f>CONCATENATE(G9,H9)</f>
+        <v>11V1DP102033</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -3586,7 +3760,7 @@
         <v>56</v>
       </c>
       <c r="H9">
-        <v>103239</v>
+        <v>102033</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3597,8 +3771,8 @@
         <v>7</v>
       </c>
       <c r="C10" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>11V1DP102537</v>
+        <f>CONCATENATE(G10,H10)</f>
+        <v>11V1DP102037</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -3607,7 +3781,7 @@
         <v>56</v>
       </c>
       <c r="H10">
-        <v>102537</v>
+        <v>102037</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3618,8 +3792,8 @@
         <v>7</v>
       </c>
       <c r="C11" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>11V1DP104109</v>
+        <f>CONCATENATE(G11,H11)</f>
+        <v>11V1DP102170</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -3628,7 +3802,7 @@
         <v>56</v>
       </c>
       <c r="H11">
-        <v>104109</v>
+        <v>102170</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3639,8 +3813,8 @@
         <v>7</v>
       </c>
       <c r="C12" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>11V1DP103934</v>
+        <f>CONCATENATE(G12,H12)</f>
+        <v>11V1DP102237</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -3649,7 +3823,7 @@
         <v>56</v>
       </c>
       <c r="H12">
-        <v>103934</v>
+        <v>102237</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -3660,8 +3834,8 @@
         <v>7</v>
       </c>
       <c r="C13" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>11V1DP102529</v>
+        <f>CONCATENATE(G13,H13)</f>
+        <v>11V1DP102239</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -3670,7 +3844,7 @@
         <v>56</v>
       </c>
       <c r="H13">
-        <v>102529</v>
+        <v>102239</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -3681,8 +3855,8 @@
         <v>7</v>
       </c>
       <c r="C14" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>11V1DP103939</v>
+        <f>CONCATENATE(G14,H14)</f>
+        <v>11V1DP102522</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -3691,7 +3865,7 @@
         <v>56</v>
       </c>
       <c r="H14">
-        <v>103939</v>
+        <v>102522</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3702,8 +3876,8 @@
         <v>7</v>
       </c>
       <c r="C15" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>11V1DP103235</v>
+        <f>CONCATENATE(G15,H15)</f>
+        <v>11V1DP102528</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -3712,7 +3886,7 @@
         <v>56</v>
       </c>
       <c r="H15">
-        <v>103235</v>
+        <v>102528</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -3723,8 +3897,8 @@
         <v>7</v>
       </c>
       <c r="C16" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>11V1DP103225</v>
+        <f>CONCATENATE(G16,H16)</f>
+        <v>11V1DP102529</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -3733,7 +3907,7 @@
         <v>56</v>
       </c>
       <c r="H16">
-        <v>103225</v>
+        <v>102529</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -3744,8 +3918,8 @@
         <v>7</v>
       </c>
       <c r="C17" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>11V1DP103228</v>
+        <f>CONCATENATE(G17,H17)</f>
+        <v>11V1DP102530</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -3754,7 +3928,7 @@
         <v>56</v>
       </c>
       <c r="H17">
-        <v>103228</v>
+        <v>102530</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -3765,8 +3939,8 @@
         <v>7</v>
       </c>
       <c r="C18" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>11V1DP103234</v>
+        <f>CONCATENATE(G18,H18)</f>
+        <v>11V1DP102533</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -3775,7 +3949,7 @@
         <v>56</v>
       </c>
       <c r="H18">
-        <v>103234</v>
+        <v>102533</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -3786,8 +3960,8 @@
         <v>7</v>
       </c>
       <c r="C19" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>11V1DP103231</v>
+        <f>CONCATENATE(G19,H19)</f>
+        <v>11V1DP102535</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -3796,7 +3970,7 @@
         <v>56</v>
       </c>
       <c r="H19">
-        <v>103231</v>
+        <v>102535</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -3807,8 +3981,8 @@
         <v>7</v>
       </c>
       <c r="C20" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>11V1DP103229</v>
+        <f>CONCATENATE(G20,H20)</f>
+        <v>11V1DP102537</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -3817,7 +3991,7 @@
         <v>56</v>
       </c>
       <c r="H20">
-        <v>103229</v>
+        <v>102537</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -3828,8 +4002,8 @@
         <v>7</v>
       </c>
       <c r="C21" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>11V1DP103230</v>
+        <f>CONCATENATE(G21,H21)</f>
+        <v>11V1DP102568</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -3838,7 +4012,7 @@
         <v>56</v>
       </c>
       <c r="H21">
-        <v>103230</v>
+        <v>102568</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -3849,8 +4023,8 @@
         <v>7</v>
       </c>
       <c r="C22" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>11V1DP103925</v>
+        <f>CONCATENATE(G22,H22)</f>
+        <v>11V1DP103221</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -3859,7 +4033,7 @@
         <v>56</v>
       </c>
       <c r="H22">
-        <v>103925</v>
+        <v>103221</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -3870,8 +4044,8 @@
         <v>7</v>
       </c>
       <c r="C23" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>11V1DP103285</v>
+        <f>CONCATENATE(G23,H23)</f>
+        <v>11V1DP103223</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -3880,7 +4054,7 @@
         <v>56</v>
       </c>
       <c r="H23">
-        <v>103285</v>
+        <v>103223</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -3891,8 +4065,8 @@
         <v>7</v>
       </c>
       <c r="C24" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>11V1DP103247</v>
+        <f>CONCATENATE(G24,H24)</f>
+        <v>11V1DP103224</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -3901,7 +4075,7 @@
         <v>56</v>
       </c>
       <c r="H24">
-        <v>103247</v>
+        <v>103224</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -3912,8 +4086,8 @@
         <v>7</v>
       </c>
       <c r="C25" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>11V1DP104110</v>
+        <f>CONCATENATE(G25,H25)</f>
+        <v>11V1DP103225</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -3922,7 +4096,7 @@
         <v>56</v>
       </c>
       <c r="H25">
-        <v>104110</v>
+        <v>103225</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -3933,8 +4107,8 @@
         <v>7</v>
       </c>
       <c r="C26" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>11V1DP103260</v>
+        <f>CONCATENATE(G26,H26)</f>
+        <v>11V1DP103226</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -3943,7 +4117,7 @@
         <v>56</v>
       </c>
       <c r="H26">
-        <v>103260</v>
+        <v>103226</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -3954,8 +4128,8 @@
         <v>7</v>
       </c>
       <c r="C27" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>11V1DP103223</v>
+        <f>CONCATENATE(G27,H27)</f>
+        <v>11V1DP103228</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -3964,7 +4138,7 @@
         <v>56</v>
       </c>
       <c r="H27">
-        <v>103223</v>
+        <v>103228</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -3975,8 +4149,8 @@
         <v>7</v>
       </c>
       <c r="C28" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>11V1DP103255</v>
+        <f>CONCATENATE(G28,H28)</f>
+        <v>11V1DP103229</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -3985,7 +4159,7 @@
         <v>56</v>
       </c>
       <c r="H28">
-        <v>103255</v>
+        <v>103229</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -3996,8 +4170,8 @@
         <v>7</v>
       </c>
       <c r="C29" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>11V1DP104119</v>
+        <f>CONCATENATE(G29,H29)</f>
+        <v>11V1DP103230</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -4006,7 +4180,7 @@
         <v>56</v>
       </c>
       <c r="H29">
-        <v>104119</v>
+        <v>103230</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -4017,8 +4191,8 @@
         <v>7</v>
       </c>
       <c r="C30" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>11V1DP103245</v>
+        <f>CONCATENATE(G30,H30)</f>
+        <v>11V1DP103231</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -4027,7 +4201,7 @@
         <v>56</v>
       </c>
       <c r="H30">
-        <v>103245</v>
+        <v>103231</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -4038,8 +4212,8 @@
         <v>7</v>
       </c>
       <c r="C31" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>11V1DP102170</v>
+        <f>CONCATENATE(G31,H31)</f>
+        <v>11V1DP103234</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -4048,7 +4222,7 @@
         <v>56</v>
       </c>
       <c r="H31">
-        <v>102170</v>
+        <v>103234</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -4059,8 +4233,8 @@
         <v>7</v>
       </c>
       <c r="C32" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>11V1DP103928</v>
+        <f>CONCATENATE(G32,H32)</f>
+        <v>11V1DP103235</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -4069,7 +4243,7 @@
         <v>56</v>
       </c>
       <c r="H32">
-        <v>103928</v>
+        <v>103235</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -4080,8 +4254,8 @@
         <v>7</v>
       </c>
       <c r="C33" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>11V1DP103250</v>
+        <f>CONCATENATE(G33,H33)</f>
+        <v>11V1DP103236</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -4090,7 +4264,7 @@
         <v>56</v>
       </c>
       <c r="H33">
-        <v>103250</v>
+        <v>103236</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -4101,8 +4275,8 @@
         <v>7</v>
       </c>
       <c r="C34" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>11V1DP101655</v>
+        <f>CONCATENATE(G34,H34)</f>
+        <v>11V1DP103237</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -4111,7 +4285,7 @@
         <v>56</v>
       </c>
       <c r="H34">
-        <v>101655</v>
+        <v>103237</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="18.75">
@@ -4142,8 +4316,8 @@
         <v>7</v>
       </c>
       <c r="C36" s="4" t="str">
-        <f t="shared" ref="C36:C60" si="1">CONCATENATE(G36,H36)</f>
-        <v>11V1DP103224</v>
+        <f>CONCATENATE(G36,H36)</f>
+        <v>11V1DP103239</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -4152,7 +4326,7 @@
         <v>56</v>
       </c>
       <c r="H36">
-        <v>103224</v>
+        <v>103239</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -4163,8 +4337,8 @@
         <v>7</v>
       </c>
       <c r="C37" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>11V1DP101943</v>
+        <f>CONCATENATE(G37,H37)</f>
+        <v>11V1DP103244</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -4173,7 +4347,7 @@
         <v>56</v>
       </c>
       <c r="H37">
-        <v>101943</v>
+        <v>103244</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -4184,8 +4358,8 @@
         <v>7</v>
       </c>
       <c r="C38" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>11V1DP104106</v>
+        <f>CONCATENATE(G38,H38)</f>
+        <v>11V1DP103245</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -4194,7 +4368,7 @@
         <v>56</v>
       </c>
       <c r="H38">
-        <v>104106</v>
+        <v>103245</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -4205,8 +4379,8 @@
         <v>7</v>
       </c>
       <c r="C39" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>11V1DP103236</v>
+        <f>CONCATENATE(G39,H39)</f>
+        <v>11V1DP103246</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -4215,7 +4389,7 @@
         <v>56</v>
       </c>
       <c r="H39">
-        <v>103236</v>
+        <v>103246</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -4226,8 +4400,8 @@
         <v>7</v>
       </c>
       <c r="C40" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>11V1DP104115</v>
+        <f>CONCATENATE(G40,H40)</f>
+        <v>11V1DP103247</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -4236,7 +4410,7 @@
         <v>56</v>
       </c>
       <c r="H40">
-        <v>104115</v>
+        <v>103247</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -4247,8 +4421,8 @@
         <v>7</v>
       </c>
       <c r="C41" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>11V1DP103251</v>
+        <f>CONCATENATE(G41,H41)</f>
+        <v>11V1DP103250</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -4257,7 +4431,7 @@
         <v>56</v>
       </c>
       <c r="H41">
-        <v>103251</v>
+        <v>103250</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -4268,8 +4442,8 @@
         <v>7</v>
       </c>
       <c r="C42" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>11V1DP103246</v>
+        <f>CONCATENATE(G42,H42)</f>
+        <v>11V1DP103251</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
@@ -4278,7 +4452,7 @@
         <v>56</v>
       </c>
       <c r="H42">
-        <v>103246</v>
+        <v>103251</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -4289,8 +4463,8 @@
         <v>7</v>
       </c>
       <c r="C43" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>11V1DP104107</v>
+        <f>CONCATENATE(G43,H43)</f>
+        <v>11V1DP103255</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -4299,7 +4473,7 @@
         <v>56</v>
       </c>
       <c r="H43">
-        <v>104107</v>
+        <v>103255</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -4310,8 +4484,8 @@
         <v>7</v>
       </c>
       <c r="C44" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>11V1DP102522</v>
+        <f>CONCATENATE(G44,H44)</f>
+        <v>11V1DP103256</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -4320,7 +4494,7 @@
         <v>56</v>
       </c>
       <c r="H44">
-        <v>102522</v>
+        <v>103256</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -4331,8 +4505,8 @@
         <v>7</v>
       </c>
       <c r="C45" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>11V1DP103244</v>
+        <f>CONCATENATE(G45,H45)</f>
+        <v>11V1DP103257</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
@@ -4341,7 +4515,7 @@
         <v>56</v>
       </c>
       <c r="H45">
-        <v>103244</v>
+        <v>103257</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -4352,8 +4526,8 @@
         <v>7</v>
       </c>
       <c r="C46" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>11V1DP102030</v>
+        <f>CONCATENATE(G46,H46)</f>
+        <v>11V1DP103260</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
@@ -4362,7 +4536,7 @@
         <v>56</v>
       </c>
       <c r="H46">
-        <v>102030</v>
+        <v>103260</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -4373,8 +4547,8 @@
         <v>7</v>
       </c>
       <c r="C47" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>11V1DP103257</v>
+        <f>CONCATENATE(G47,H47)</f>
+        <v>11V1DP103285</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
@@ -4383,7 +4557,7 @@
         <v>56</v>
       </c>
       <c r="H47">
-        <v>103257</v>
+        <v>103285</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -4394,8 +4568,8 @@
         <v>7</v>
       </c>
       <c r="C48" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>11V1DP102037</v>
+        <f>CONCATENATE(G48,H48)</f>
+        <v>11V1DP103925</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
@@ -4404,7 +4578,7 @@
         <v>56</v>
       </c>
       <c r="H48">
-        <v>102037</v>
+        <v>103925</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -4415,8 +4589,8 @@
         <v>7</v>
       </c>
       <c r="C49" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>11V1DP102024</v>
+        <f>CONCATENATE(G49,H49)</f>
+        <v>11V1DP103928</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
@@ -4425,7 +4599,7 @@
         <v>56</v>
       </c>
       <c r="H49">
-        <v>102024</v>
+        <v>103928</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -4436,8 +4610,8 @@
         <v>7</v>
       </c>
       <c r="C50" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>11V1DP102033</v>
+        <f>CONCATENATE(G50,H50)</f>
+        <v>11V1DP103934</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
@@ -4446,7 +4620,7 @@
         <v>56</v>
       </c>
       <c r="H50">
-        <v>102033</v>
+        <v>103934</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -4457,8 +4631,8 @@
         <v>7</v>
       </c>
       <c r="C51" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>11V1DP103256</v>
+        <f>CONCATENATE(G51,H51)</f>
+        <v>11V1DP103939</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
@@ -4467,7 +4641,7 @@
         <v>56</v>
       </c>
       <c r="H51">
-        <v>103256</v>
+        <v>103939</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -4478,8 +4652,8 @@
         <v>7</v>
       </c>
       <c r="C52" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>11V1DP101940</v>
+        <f>CONCATENATE(G52,H52)</f>
+        <v>11V1DP104106</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
@@ -4488,7 +4662,7 @@
         <v>56</v>
       </c>
       <c r="H52">
-        <v>101940</v>
+        <v>104106</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -4499,8 +4673,8 @@
         <v>7</v>
       </c>
       <c r="C53" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>11V1DP101660</v>
+        <f>CONCATENATE(G53,H53)</f>
+        <v>11V1DP104107</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
@@ -4509,7 +4683,7 @@
         <v>56</v>
       </c>
       <c r="H53">
-        <v>101660</v>
+        <v>104107</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -4520,8 +4694,8 @@
         <v>7</v>
       </c>
       <c r="C54" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>11V1DP104112</v>
+        <f>CONCATENATE(G54,H54)</f>
+        <v>11V1DP104109</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
@@ -4530,7 +4704,7 @@
         <v>56</v>
       </c>
       <c r="H54">
-        <v>104112</v>
+        <v>104109</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -4541,8 +4715,8 @@
         <v>7</v>
       </c>
       <c r="C55" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>11V1DP102237</v>
+        <f>CONCATENATE(G55,H55)</f>
+        <v>11V1DP104110</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
@@ -4551,7 +4725,7 @@
         <v>56</v>
       </c>
       <c r="H55">
-        <v>102237</v>
+        <v>104110</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -4562,7 +4736,7 @@
         <v>7</v>
       </c>
       <c r="C56" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(G56,H56)</f>
         <v>11V1DP104111</v>
       </c>
       <c r="D56" s="4"/>
@@ -4583,8 +4757,8 @@
         <v>7</v>
       </c>
       <c r="C57" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>11V1DP104116</v>
+        <f>CONCATENATE(G57,H57)</f>
+        <v>11V1DP104112</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
@@ -4593,7 +4767,7 @@
         <v>56</v>
       </c>
       <c r="H57">
-        <v>104116</v>
+        <v>104112</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -4604,8 +4778,8 @@
         <v>7</v>
       </c>
       <c r="C58" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>11V1DP102535</v>
+        <f>CONCATENATE(G58,H58)</f>
+        <v>11V1DP104115</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
@@ -4614,7 +4788,7 @@
         <v>56</v>
       </c>
       <c r="H58">
-        <v>102535</v>
+        <v>104115</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -4625,8 +4799,8 @@
         <v>7</v>
       </c>
       <c r="C59" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>11V1DP102026</v>
+        <f>CONCATENATE(G59,H59)</f>
+        <v>11V1DP104116</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
@@ -4635,7 +4809,7 @@
         <v>56</v>
       </c>
       <c r="H59">
-        <v>102026</v>
+        <v>104116</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -4646,8 +4820,8 @@
         <v>7</v>
       </c>
       <c r="C60" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>11V1DP102568</v>
+        <f>CONCATENATE(G60,H60)</f>
+        <v>11V1DP104119</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
@@ -4656,11 +4830,12 @@
         <v>56</v>
       </c>
       <c r="H60">
-        <v>102568</v>
+        <v>104119</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.40625" right="0.47916666666666669" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4668,8 +4843,1421 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView view="pageLayout" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:XFD35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" customWidth="1"/>
+    <col min="5" max="5" width="42.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="7" max="8" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="4.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4" t="str">
+        <f>CONCATENATE(G2,H2)</f>
+        <v>11V1DP102028</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2">
+        <v>102028</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="str">
+        <f>CONCATENATE(G3,H3)</f>
+        <v>11V1DP102029</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3">
+        <v>102029</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="str">
+        <f>CONCATENATE(G4,H4)</f>
+        <v>11V1DP102039</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4">
+        <v>102039</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4" t="str">
+        <f>CONCATENATE(G5,H5)</f>
+        <v>11V1DP102040</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5">
+        <v>102040</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4" t="str">
+        <f>CONCATENATE(G6,H6)</f>
+        <v>11V1DP102166</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6">
+        <v>102166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="4" t="str">
+        <f>CONCATENATE(G7,H7)</f>
+        <v>11V1DP102169</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7">
+        <v>102169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4" t="str">
+        <f>CONCATENATE(G8,H8)</f>
+        <v>11V1DP102178</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8">
+        <v>102178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="str">
+        <f>CONCATENATE(G9,H9)</f>
+        <v>11V1DP102179</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9">
+        <v>102179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="4" t="str">
+        <f>CONCATENATE(G10,H10)</f>
+        <v>11V1DP102190</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10">
+        <v>102190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="4" t="str">
+        <f>CONCATENATE(G11,H11)</f>
+        <v>11V1DP102191</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11">
+        <v>102191</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="4" t="str">
+        <f>CONCATENATE(G12,H12)</f>
+        <v>11V1DP102192</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12">
+        <v>102192</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="4" t="str">
+        <f>CONCATENATE(G13,H13)</f>
+        <v>11V1DP102193</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13">
+        <v>102193</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="4" t="str">
+        <f>CONCATENATE(G14,H14)</f>
+        <v>11V1DP102196</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14">
+        <v>102196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="4" t="str">
+        <f>CONCATENATE(G15,H15)</f>
+        <v>11V1DP102197</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15">
+        <v>102197</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="4" t="str">
+        <f>CONCATENATE(G16,H16)</f>
+        <v>11V1DP102661</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16">
+        <v>102661</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="4" t="str">
+        <f>CONCATENATE(G17,H17)</f>
+        <v>11V1DP102662</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17">
+        <v>102662</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="4" t="str">
+        <f>CONCATENATE(G18,H18)</f>
+        <v>11V1DP102663</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18">
+        <v>102663</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="4" t="str">
+        <f>CONCATENATE(G19,H19)</f>
+        <v>11V1DP102664</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19">
+        <v>102664</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="4" t="str">
+        <f>CONCATENATE(G20,H20)</f>
+        <v>11V1DP102665</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" t="s">
+        <v>56</v>
+      </c>
+      <c r="H20">
+        <v>102665</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="4" t="str">
+        <f>CONCATENATE(G21,H21)</f>
+        <v>11V1DP102667</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21">
+        <v>102667</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="4" t="str">
+        <f>CONCATENATE(G22,H22)</f>
+        <v>11V1DP102670</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" t="s">
+        <v>56</v>
+      </c>
+      <c r="H22">
+        <v>102670</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="4" t="str">
+        <f>CONCATENATE(G23,H23)</f>
+        <v>11V1DP102671</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" t="s">
+        <v>56</v>
+      </c>
+      <c r="H23">
+        <v>102671</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="4" t="str">
+        <f>CONCATENATE(G24,H24)</f>
+        <v>11V1DP102676</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" t="s">
+        <v>56</v>
+      </c>
+      <c r="H24">
+        <v>102676</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="4" t="str">
+        <f>CONCATENATE(G25,H25)</f>
+        <v>11V1DP102679</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" t="s">
+        <v>56</v>
+      </c>
+      <c r="H25">
+        <v>102679</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="4" t="str">
+        <f>CONCATENATE(G26,H26)</f>
+        <v>11V1DP102680</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" t="s">
+        <v>56</v>
+      </c>
+      <c r="H26">
+        <v>102680</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="4" t="str">
+        <f>CONCATENATE(G27,H27)</f>
+        <v>11V1DP102686</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" t="s">
+        <v>56</v>
+      </c>
+      <c r="H27">
+        <v>102686</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="4" t="str">
+        <f>CONCATENATE(G28,H28)</f>
+        <v>11V1DP102698</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" t="s">
+        <v>56</v>
+      </c>
+      <c r="H28">
+        <v>102698</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="4" t="str">
+        <f>CONCATENATE(G29,H29)</f>
+        <v>11V1DP103222</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" t="s">
+        <v>56</v>
+      </c>
+      <c r="H29">
+        <v>103222</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="4" t="str">
+        <f>CONCATENATE(G30,H30)</f>
+        <v>11V1DP103233</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" t="s">
+        <v>56</v>
+      </c>
+      <c r="H30">
+        <v>103233</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="4" t="str">
+        <f>CONCATENATE(G31,H31)</f>
+        <v>11V1DP103240</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" t="s">
+        <v>56</v>
+      </c>
+      <c r="H31">
+        <v>103240</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="4">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="4" t="str">
+        <f>CONCATENATE(G32,H32)</f>
+        <v>11V1DP103254</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" t="s">
+        <v>56</v>
+      </c>
+      <c r="H32">
+        <v>103254</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="4">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="4" t="str">
+        <f>CONCATENATE(G33,H33)</f>
+        <v>11V1DP103258</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" t="s">
+        <v>56</v>
+      </c>
+      <c r="H33">
+        <v>103258</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="18.75">
+      <c r="A34" s="4">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="4" t="str">
+        <f>CONCATENATE(G34,H34)</f>
+        <v>11V1DP103281</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" t="s">
+        <v>56</v>
+      </c>
+      <c r="H34">
+        <v>103281</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="18.75">
+      <c r="A35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="4">
+        <v>34</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="4" t="str">
+        <f>CONCATENATE(G36,H36)</f>
+        <v>11V1DP103282</v>
+      </c>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" t="s">
+        <v>56</v>
+      </c>
+      <c r="H36">
+        <v>103282</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="4">
+        <v>35</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="4" t="str">
+        <f>CONCATENATE(G37,H37)</f>
+        <v>11V1DP103283</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" t="s">
+        <v>56</v>
+      </c>
+      <c r="H37">
+        <v>103283</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="4">
+        <v>36</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="4" t="str">
+        <f>CONCATENATE(G38,H38)</f>
+        <v>11V1DP103284</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" t="s">
+        <v>56</v>
+      </c>
+      <c r="H38">
+        <v>103284</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="4">
+        <v>37</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="4" t="str">
+        <f>CONCATENATE(G39,H39)</f>
+        <v>11V1DP103286</v>
+      </c>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" t="s">
+        <v>56</v>
+      </c>
+      <c r="H39">
+        <v>103286</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="4">
+        <v>38</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="4" t="str">
+        <f>CONCATENATE(G40,H40)</f>
+        <v>11V1DP103287</v>
+      </c>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" t="s">
+        <v>56</v>
+      </c>
+      <c r="H40">
+        <v>103287</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="4">
+        <v>39</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="4" t="str">
+        <f>CONCATENATE(G41,H41)</f>
+        <v>11V1DP103288</v>
+      </c>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" t="s">
+        <v>56</v>
+      </c>
+      <c r="H41">
+        <v>103288</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="4">
+        <v>40</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="4" t="str">
+        <f>CONCATENATE(G42,H42)</f>
+        <v>11V1DP103289</v>
+      </c>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" t="s">
+        <v>56</v>
+      </c>
+      <c r="H42">
+        <v>103289</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="4">
+        <v>41</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="4" t="str">
+        <f>CONCATENATE(G43,H43)</f>
+        <v>11V1DP103291</v>
+      </c>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" t="s">
+        <v>56</v>
+      </c>
+      <c r="H43">
+        <v>103291</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="4">
+        <v>42</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="4" t="str">
+        <f>CONCATENATE(G44,H44)</f>
+        <v>11V1DP103294</v>
+      </c>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" t="s">
+        <v>56</v>
+      </c>
+      <c r="H44">
+        <v>103294</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="4">
+        <v>43</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="4" t="str">
+        <f>CONCATENATE(G45,H45)</f>
+        <v>11V1DP103298</v>
+      </c>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" t="s">
+        <v>56</v>
+      </c>
+      <c r="H45">
+        <v>103298</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="4">
+        <v>44</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="4" t="str">
+        <f>CONCATENATE(G46,H46)</f>
+        <v>11V1DP103299</v>
+      </c>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" t="s">
+        <v>56</v>
+      </c>
+      <c r="H46">
+        <v>103299</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="4">
+        <v>45</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="4" t="str">
+        <f>CONCATENATE(G47,H47)</f>
+        <v>11V1DP103520</v>
+      </c>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" t="s">
+        <v>56</v>
+      </c>
+      <c r="H47">
+        <v>103520</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="4">
+        <v>46</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="4" t="str">
+        <f>CONCATENATE(G48,H48)</f>
+        <v>11V1DP103801</v>
+      </c>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" t="s">
+        <v>56</v>
+      </c>
+      <c r="H48">
+        <v>103801</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="4">
+        <v>47</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="4" t="str">
+        <f>CONCATENATE(G49,H49)</f>
+        <v>11V1DP103802</v>
+      </c>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" t="s">
+        <v>56</v>
+      </c>
+      <c r="H49">
+        <v>103802</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="4">
+        <v>48</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="4" t="str">
+        <f>CONCATENATE(G50,H50)</f>
+        <v>11V1DP103805</v>
+      </c>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" t="s">
+        <v>56</v>
+      </c>
+      <c r="H50">
+        <v>103805</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="4">
+        <v>49</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="4" t="str">
+        <f>CONCATENATE(G51,H51)</f>
+        <v>11V1DP103808</v>
+      </c>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" t="s">
+        <v>56</v>
+      </c>
+      <c r="H51">
+        <v>103808</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="4">
+        <v>50</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="4" t="str">
+        <f>CONCATENATE(G52,H52)</f>
+        <v>11V1DP103811</v>
+      </c>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" t="s">
+        <v>56</v>
+      </c>
+      <c r="H52">
+        <v>103811</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="4">
+        <v>51</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" s="4" t="str">
+        <f>CONCATENATE(G53,H53)</f>
+        <v>11V1DP103812</v>
+      </c>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" t="s">
+        <v>56</v>
+      </c>
+      <c r="H53">
+        <v>103812</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="4">
+        <v>52</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="4" t="str">
+        <f>CONCATENATE(G54,H54)</f>
+        <v>11V1DP103818</v>
+      </c>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" t="s">
+        <v>56</v>
+      </c>
+      <c r="H54">
+        <v>103818</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="4">
+        <v>53</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="4" t="str">
+        <f>CONCATENATE(G55,H55)</f>
+        <v>11V1DP103819</v>
+      </c>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" t="s">
+        <v>56</v>
+      </c>
+      <c r="H55">
+        <v>103819</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="4">
+        <v>54</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" s="4" t="str">
+        <f>CONCATENATE(G56,H56)</f>
+        <v>11V1DP103927</v>
+      </c>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" t="s">
+        <v>56</v>
+      </c>
+      <c r="H56">
+        <v>103927</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="4">
+        <v>55</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="4" t="str">
+        <f>CONCATENATE(G57,H57)</f>
+        <v>11V1DP103936</v>
+      </c>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" t="s">
+        <v>56</v>
+      </c>
+      <c r="H57">
+        <v>103936</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="4">
+        <v>56</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" s="4" t="str">
+        <f>CONCATENATE(G58,H58)</f>
+        <v>11V1DP103984</v>
+      </c>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" t="s">
+        <v>56</v>
+      </c>
+      <c r="H58">
+        <v>103984</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="4">
+        <v>57</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" s="4" t="str">
+        <f>CONCATENATE(G59,H59)</f>
+        <v>11V1DP103995</v>
+      </c>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" t="s">
+        <v>56</v>
+      </c>
+      <c r="H59">
+        <v>103995</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="4">
+        <v>58</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" s="4" t="str">
+        <f>CONCATENATE(G60,H60)</f>
+        <v>11V1DP103998</v>
+      </c>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" t="s">
+        <v>56</v>
+      </c>
+      <c r="H60">
+        <v>103998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="4">
+        <v>59</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" s="4" t="str">
+        <f>CONCATENATE(G61,H61)</f>
+        <v>11V1DP104104</v>
+      </c>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" t="s">
+        <v>56</v>
+      </c>
+      <c r="H61">
+        <v>104104</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="4">
+        <v>60</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" s="4" t="str">
+        <f>CONCATENATE(G62,H62)</f>
+        <v>11V1DP104282</v>
+      </c>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" t="s">
+        <v>56</v>
+      </c>
+      <c r="H62">
+        <v>104282</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="4">
+        <v>61</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" s="4" t="str">
+        <f>CONCATENATE(G63,H63)</f>
+        <v>11V1DP104287</v>
+      </c>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" t="s">
+        <v>56</v>
+      </c>
+      <c r="H63">
+        <v>104287</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="4">
+        <v>62</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" s="4" t="str">
+        <f>CONCATENATE(G64,H64)</f>
+        <v>11V1DP104296</v>
+      </c>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" t="s">
+        <v>56</v>
+      </c>
+      <c r="H64">
+        <v>104296</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="4">
+        <v>63</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" s="4" t="str">
+        <f>CONCATENATE(G65,H65)</f>
+        <v>11V1DP104483</v>
+      </c>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" t="s">
+        <v>56</v>
+      </c>
+      <c r="H65">
+        <v>104483</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.40625" right="0.35416666666666669" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H68"/>
+  <sheetViews>
+    <sheetView view="pageLayout" workbookViewId="0">
+      <selection activeCell="H1" sqref="G1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4680,7 +6268,7 @@
     <col min="4" max="4" width="31.28515625" customWidth="1"/>
     <col min="5" max="5" width="42.28515625" customWidth="1"/>
     <col min="6" max="6" width="16.28515625" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="7" max="8" width="9.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75">
@@ -4711,8 +6299,8 @@
         <v>7</v>
       </c>
       <c r="C2" s="4" t="str">
-        <f t="shared" ref="C2:C34" si="0">CONCATENATE(G2,H2)</f>
-        <v>11V1DP102680</v>
+        <f>CONCATENATE(G2,H2)</f>
+        <v>11V1DP101864</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -4721,7 +6309,7 @@
         <v>56</v>
       </c>
       <c r="H2">
-        <v>102680</v>
+        <v>101864</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -4732,8 +6320,8 @@
         <v>7</v>
       </c>
       <c r="C3" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>11V1DP103984</v>
+        <f>CONCATENATE(G3,H3)</f>
+        <v>11V1DP101871</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -4742,7 +6330,7 @@
         <v>56</v>
       </c>
       <c r="H3">
-        <v>103984</v>
+        <v>101871</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -4753,8 +6341,8 @@
         <v>7</v>
       </c>
       <c r="C4" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>11V1DP103998</v>
+        <f>CONCATENATE(G4,H4)</f>
+        <v>11V1DP101879</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -4763,7 +6351,7 @@
         <v>56</v>
       </c>
       <c r="H4">
-        <v>103998</v>
+        <v>101879</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -4774,8 +6362,8 @@
         <v>7</v>
       </c>
       <c r="C5" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>11V1DP102029</v>
+        <f>CONCATENATE(G5,H5)</f>
+        <v>11V1DP102034</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -4784,7 +6372,7 @@
         <v>56</v>
       </c>
       <c r="H5">
-        <v>102029</v>
+        <v>102034</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4795,8 +6383,8 @@
         <v>7</v>
       </c>
       <c r="C6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>11V1DP102179</v>
+        <f>CONCATENATE(G6,H6)</f>
+        <v>11V1DP102167</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -4805,7 +6393,7 @@
         <v>56</v>
       </c>
       <c r="H6">
-        <v>102179</v>
+        <v>102167</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -4816,8 +6404,8 @@
         <v>7</v>
       </c>
       <c r="C7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>11V1DP104287</v>
+        <f>CONCATENATE(G7,H7)</f>
+        <v>11V1DP102168</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -4826,7 +6414,7 @@
         <v>56</v>
       </c>
       <c r="H7">
-        <v>104287</v>
+        <v>102168</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -4837,8 +6425,8 @@
         <v>7</v>
       </c>
       <c r="C8" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>11V1DP104282</v>
+        <f>CONCATENATE(G8,H8)</f>
+        <v>11V1DP102171</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -4847,7 +6435,7 @@
         <v>56</v>
       </c>
       <c r="H8">
-        <v>104282</v>
+        <v>102171</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -4858,8 +6446,8 @@
         <v>7</v>
       </c>
       <c r="C9" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>11V1DP102662</v>
+        <f>CONCATENATE(G9,H9)</f>
+        <v>11V1DP102172</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -4868,7 +6456,7 @@
         <v>56</v>
       </c>
       <c r="H9">
-        <v>102662</v>
+        <v>102172</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -4879,8 +6467,8 @@
         <v>7</v>
       </c>
       <c r="C10" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>11V1DP102196</v>
+        <f>CONCATENATE(G10,H10)</f>
+        <v>11V1DP102222</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -4889,7 +6477,7 @@
         <v>56</v>
       </c>
       <c r="H10">
-        <v>102196</v>
+        <v>102222</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -4900,8 +6488,8 @@
         <v>7</v>
       </c>
       <c r="C11" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>11V1DP102667</v>
+        <f>CONCATENATE(G11,H11)</f>
+        <v>11V1DP102226</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -4910,7 +6498,7 @@
         <v>56</v>
       </c>
       <c r="H11">
-        <v>102667</v>
+        <v>102226</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -4921,8 +6509,8 @@
         <v>7</v>
       </c>
       <c r="C12" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>11V1DP102663</v>
+        <f>CONCATENATE(G12,H12)</f>
+        <v>11V1DP102227</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -4931,7 +6519,7 @@
         <v>56</v>
       </c>
       <c r="H12">
-        <v>102663</v>
+        <v>102227</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -4942,8 +6530,8 @@
         <v>7</v>
       </c>
       <c r="C13" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>11V1DP102686</v>
+        <f>CONCATENATE(G13,H13)</f>
+        <v>11V1DP102229</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -4952,7 +6540,7 @@
         <v>56</v>
       </c>
       <c r="H13">
-        <v>102686</v>
+        <v>102229</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -4963,8 +6551,8 @@
         <v>7</v>
       </c>
       <c r="C14" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>11V1DP103995</v>
+        <f>CONCATENATE(G14,H14)</f>
+        <v>11V1DP102234</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -4973,7 +6561,7 @@
         <v>56</v>
       </c>
       <c r="H14">
-        <v>103995</v>
+        <v>102234</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -4984,8 +6572,8 @@
         <v>7</v>
       </c>
       <c r="C15" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>11V1DP102676</v>
+        <f>CONCATENATE(G15,H15)</f>
+        <v>11V1DP102236</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -4994,7 +6582,7 @@
         <v>56</v>
       </c>
       <c r="H15">
-        <v>102676</v>
+        <v>102236</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -5005,8 +6593,8 @@
         <v>7</v>
       </c>
       <c r="C16" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>11V1DP102191</v>
+        <f>CONCATENATE(G16,H16)</f>
+        <v>11V1DP102352</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -5015,7 +6603,7 @@
         <v>56</v>
       </c>
       <c r="H16">
-        <v>102191</v>
+        <v>102352</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -5026,8 +6614,8 @@
         <v>7</v>
       </c>
       <c r="C17" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>11V1DP102671</v>
+        <f>CONCATENATE(G17,H17)</f>
+        <v>11V1DP102354</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -5036,7 +6624,7 @@
         <v>56</v>
       </c>
       <c r="H17">
-        <v>102671</v>
+        <v>102354</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -5047,8 +6635,8 @@
         <v>7</v>
       </c>
       <c r="C18" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>11V1DP102190</v>
+        <f>CONCATENATE(G18,H18)</f>
+        <v>11V1DP102357</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -5057,7 +6645,7 @@
         <v>56</v>
       </c>
       <c r="H18">
-        <v>102190</v>
+        <v>102357</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -5068,8 +6656,8 @@
         <v>7</v>
       </c>
       <c r="C19" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>11V1DP102661</v>
+        <f>CONCATENATE(G19,H19)</f>
+        <v>11V1DP102382</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -5078,7 +6666,7 @@
         <v>56</v>
       </c>
       <c r="H19">
-        <v>102661</v>
+        <v>102382</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -5089,8 +6677,8 @@
         <v>7</v>
       </c>
       <c r="C20" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>11V1DP102664</v>
+        <f>CONCATENATE(G20,H20)</f>
+        <v>11V1DP102398</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -5099,7 +6687,7 @@
         <v>56</v>
       </c>
       <c r="H20">
-        <v>102664</v>
+        <v>102398</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -5110,8 +6698,8 @@
         <v>7</v>
       </c>
       <c r="C21" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>11V1DP104296</v>
+        <f>CONCATENATE(G21,H21)</f>
+        <v>11V1DP102447</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -5120,7 +6708,7 @@
         <v>56</v>
       </c>
       <c r="H21">
-        <v>104296</v>
+        <v>102447</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -5131,8 +6719,8 @@
         <v>7</v>
       </c>
       <c r="C22" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>11V1DP</v>
+        <f>CONCATENATE(G22,H22)</f>
+        <v>11V1DP102563</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -5140,6 +6728,9 @@
       <c r="G22" t="s">
         <v>56</v>
       </c>
+      <c r="H22">
+        <v>102563</v>
+      </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="4">
@@ -5149,8 +6740,8 @@
         <v>7</v>
       </c>
       <c r="C23" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>11V1DP</v>
+        <f>CONCATENATE(G23,H23)</f>
+        <v>11V1DP102838</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -5158,6 +6749,9 @@
       <c r="G23" t="s">
         <v>56</v>
       </c>
+      <c r="H23">
+        <v>102838</v>
+      </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="4">
@@ -5167,8 +6761,8 @@
         <v>7</v>
       </c>
       <c r="C24" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>11V1DP</v>
+        <f>CONCATENATE(G24,H24)</f>
+        <v>11V1DP103325</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -5176,6 +6770,9 @@
       <c r="G24" t="s">
         <v>56</v>
       </c>
+      <c r="H24">
+        <v>103325</v>
+      </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="4">
@@ -5185,8 +6782,8 @@
         <v>7</v>
       </c>
       <c r="C25" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>11V1DP</v>
+        <f>CONCATENATE(G25,H25)</f>
+        <v>11V1DP103334</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -5194,6 +6791,9 @@
       <c r="G25" t="s">
         <v>56</v>
       </c>
+      <c r="H25">
+        <v>103334</v>
+      </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="4">
@@ -5203,8 +6803,8 @@
         <v>7</v>
       </c>
       <c r="C26" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>11V1DP</v>
+        <f>CONCATENATE(G26,H26)</f>
+        <v>11V1DP103335</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -5212,6 +6812,9 @@
       <c r="G26" t="s">
         <v>56</v>
       </c>
+      <c r="H26">
+        <v>103335</v>
+      </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="4">
@@ -5221,8 +6824,8 @@
         <v>7</v>
       </c>
       <c r="C27" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>11V1DP</v>
+        <f>CONCATENATE(G27,H27)</f>
+        <v>11V1DP103339</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -5230,6 +6833,9 @@
       <c r="G27" t="s">
         <v>56</v>
       </c>
+      <c r="H27">
+        <v>103339</v>
+      </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="4">
@@ -5239,8 +6845,8 @@
         <v>7</v>
       </c>
       <c r="C28" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>11V1DP</v>
+        <f>CONCATENATE(G28,H28)</f>
+        <v>11V1DP103442</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -5248,6 +6854,9 @@
       <c r="G28" t="s">
         <v>56</v>
       </c>
+      <c r="H28">
+        <v>103442</v>
+      </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="4">
@@ -5257,8 +6866,8 @@
         <v>7</v>
       </c>
       <c r="C29" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>11V1DP</v>
+        <f>CONCATENATE(G29,H29)</f>
+        <v>11V1DP103470</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -5266,6 +6875,9 @@
       <c r="G29" t="s">
         <v>56</v>
       </c>
+      <c r="H29">
+        <v>103470</v>
+      </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="4">
@@ -5275,8 +6887,8 @@
         <v>7</v>
       </c>
       <c r="C30" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>11V1DP</v>
+        <f>CONCATENATE(G30,H30)</f>
+        <v>11V1DP103472</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -5284,6 +6896,9 @@
       <c r="G30" t="s">
         <v>56</v>
       </c>
+      <c r="H30">
+        <v>103472</v>
+      </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="4">
@@ -5293,8 +6908,8 @@
         <v>7</v>
       </c>
       <c r="C31" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>11V1DP</v>
+        <f>CONCATENATE(G31,H31)</f>
+        <v>11V1DP103476</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -5302,6 +6917,9 @@
       <c r="G31" t="s">
         <v>56</v>
       </c>
+      <c r="H31">
+        <v>103476</v>
+      </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="4">
@@ -5311,8 +6929,8 @@
         <v>7</v>
       </c>
       <c r="C32" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>11V1DP</v>
+        <f>CONCATENATE(G32,H32)</f>
+        <v>11V1DP103477</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -5320,8 +6938,11 @@
       <c r="G32" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="H32">
+        <v>103477</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -5329,8 +6950,8 @@
         <v>7</v>
       </c>
       <c r="C33" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>11V1DP</v>
+        <f>CONCATENATE(G33,H33)</f>
+        <v>11V1DP103786</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -5338,8 +6959,11 @@
       <c r="G33" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="H33">
+        <v>103786</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -5347,8 +6971,8 @@
         <v>7</v>
       </c>
       <c r="C34" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>11V1DP</v>
+        <f>CONCATENATE(G34,H34)</f>
+        <v>11V1DP103791</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -5356,8 +6980,11 @@
       <c r="G34" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="18.75">
+      <c r="H34">
+        <v>103791</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="18.75">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
@@ -5374,10 +7001,10 @@
         <v>4</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="18.75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="4">
         <v>34</v>
       </c>
@@ -5385,17 +7012,20 @@
         <v>7</v>
       </c>
       <c r="C36" s="4" t="str">
-        <f t="shared" ref="C36:C65" si="1">CONCATENATE(G36,H36)</f>
-        <v>11V1DP</v>
-      </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
+        <f>CONCATENATE(G36,H36)</f>
+        <v>11V1DP103792</v>
+      </c>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
       <c r="G36" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="H36">
+        <v>103792</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="4">
         <v>35</v>
       </c>
@@ -5403,8 +7033,8 @@
         <v>7</v>
       </c>
       <c r="C37" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>11V1DP</v>
+        <f>CONCATENATE(G37,H37)</f>
+        <v>11V1DP103841</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -5412,8 +7042,11 @@
       <c r="G37" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>103841</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="4">
         <v>36</v>
       </c>
@@ -5421,8 +7054,8 @@
         <v>7</v>
       </c>
       <c r="C38" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>11V1DP</v>
+        <f>CONCATENATE(G38,H38)</f>
+        <v>11V1DP103843</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -5430,8 +7063,11 @@
       <c r="G38" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="H38">
+        <v>103843</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="4">
         <v>37</v>
       </c>
@@ -5439,8 +7075,8 @@
         <v>7</v>
       </c>
       <c r="C39" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>11V1DP</v>
+        <f>CONCATENATE(G39,H39)</f>
+        <v>11V1DP103846</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -5448,8 +7084,11 @@
       <c r="G39" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="H39">
+        <v>103846</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="4">
         <v>38</v>
       </c>
@@ -5457,8 +7096,8 @@
         <v>7</v>
       </c>
       <c r="C40" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>11V1DP</v>
+        <f>CONCATENATE(G40,H40)</f>
+        <v>11V1DP103851</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -5466,8 +7105,11 @@
       <c r="G40" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="H40">
+        <v>103851</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="4">
         <v>39</v>
       </c>
@@ -5475,8 +7117,8 @@
         <v>7</v>
       </c>
       <c r="C41" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>11V1DP</v>
+        <f>CONCATENATE(G41,H41)</f>
+        <v>11V1DP103860</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -5484,8 +7126,11 @@
       <c r="G41" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="H41">
+        <v>103860</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="4">
         <v>40</v>
       </c>
@@ -5493,8 +7138,8 @@
         <v>7</v>
       </c>
       <c r="C42" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>11V1DP</v>
+        <f>CONCATENATE(G42,H42)</f>
+        <v>11V1DP103890</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
@@ -5502,8 +7147,11 @@
       <c r="G42" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>103890</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="4">
         <v>41</v>
       </c>
@@ -5511,8 +7159,8 @@
         <v>7</v>
       </c>
       <c r="C43" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>11V1DP</v>
+        <f>CONCATENATE(G43,H43)</f>
+        <v>11V1DP104261</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -5520,8 +7168,11 @@
       <c r="G43" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="H43">
+        <v>104261</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="4">
         <v>42</v>
       </c>
@@ -5529,8 +7180,8 @@
         <v>7</v>
       </c>
       <c r="C44" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>11V1DP</v>
+        <f>CONCATENATE(G44,H44)</f>
+        <v>11V1DP104263</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -5538,8 +7189,11 @@
       <c r="G44" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="H44">
+        <v>104263</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="4">
         <v>43</v>
       </c>
@@ -5547,8 +7201,8 @@
         <v>7</v>
       </c>
       <c r="C45" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>11V1DP</v>
+        <f>CONCATENATE(G45,H45)</f>
+        <v>11V1DP104268</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
@@ -5556,8 +7210,11 @@
       <c r="G45" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>104268</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="18.75">
       <c r="A46" s="4">
         <v>44</v>
       </c>
@@ -5565,1096 +7222,39 @@
         <v>7</v>
       </c>
       <c r="C46" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>11V1DP</v>
-      </c>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
+        <f>CONCATENATE(G46,H46)</f>
+        <v>11V1DP104280</v>
+      </c>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
       <c r="G46" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="4">
-        <v>45</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>11V1DP</v>
-      </c>
+      <c r="H46">
+        <v>104280</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
-      <c r="G47" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="4">
-        <v>46</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>11V1DP</v>
-      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
-      <c r="G48" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="4">
-        <v>47</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>11V1DP</v>
-      </c>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="4">
-        <v>48</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>11V1DP</v>
-      </c>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="4">
-        <v>49</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C51" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>11V1DP</v>
-      </c>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="4">
-        <v>50</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C52" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>11V1DP</v>
-      </c>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="4">
-        <v>51</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C53" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>11V1DP</v>
-      </c>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="4">
-        <v>52</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C54" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>11V1DP</v>
-      </c>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="4">
-        <v>53</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C55" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>11V1DP</v>
-      </c>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="4">
-        <v>54</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C56" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>11V1DP</v>
-      </c>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-      <c r="G56" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="4">
-        <v>55</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C57" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>11V1DP</v>
-      </c>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="4">
-        <v>56</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C58" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>11V1DP</v>
-      </c>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="4">
-        <v>57</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C59" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>11V1DP</v>
-      </c>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="4">
-        <v>58</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C60" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>11V1DP</v>
-      </c>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="G60" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="4">
-        <v>59</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C61" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>11V1DP</v>
-      </c>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="4">
-        <v>60</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C62" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>11V1DP</v>
-      </c>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-      <c r="G62" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="4">
-        <v>61</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C63" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>11V1DP</v>
-      </c>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-      <c r="G63" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="4">
-        <v>62</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C64" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>11V1DP</v>
-      </c>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
-      <c r="G64" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="4">
-        <v>63</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C65" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>11V1DP</v>
-      </c>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
-      <c r="G65" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68" s="4"/>
-      <c r="B68" s="4"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F68"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" customWidth="1"/>
-    <col min="5" max="5" width="42.28515625" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="18.75">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="4">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="4">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="4">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="4">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="4">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="4">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="4">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="4">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="4">
-        <v>16</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="4">
-        <v>17</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="4">
-        <v>18</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="4">
-        <v>19</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="4">
-        <v>20</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="4">
-        <v>21</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="4">
-        <v>22</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="4">
-        <v>23</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="4">
-        <v>24</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="4">
-        <v>25</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="4">
-        <v>26</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="4">
-        <v>27</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="4">
-        <v>28</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="4">
-        <v>29</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="4">
-        <v>30</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="4">
-        <v>31</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="4">
-        <v>32</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="4">
-        <v>33</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-    </row>
-    <row r="35" spans="1:6" ht="18.75">
-      <c r="A35" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="18.75">
-      <c r="A36" s="4">
-        <v>34</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="4">
-        <v>35</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="4">
-        <v>36</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="4">
-        <v>37</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="4">
-        <v>38</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="4">
-        <v>39</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="4">
-        <v>40</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="4">
-        <v>41</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="4">
-        <v>42</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="4">
-        <v>43</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="4">
-        <v>44</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="4">
-        <v>45</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="4">
-        <v>46</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="4">
-        <v>47</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>55</v>
-      </c>
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
@@ -6812,29 +7412,32 @@
       <c r="F68" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.41666666666666669" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F68"/>
+  <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
     <col min="4" max="4" width="31.28515625" customWidth="1"/>
-    <col min="5" max="5" width="42.28515625" customWidth="1"/>
+    <col min="5" max="5" width="43.7109375" customWidth="1"/>
     <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75">
+    <row r="1" spans="1:8" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6854,409 +7457,708 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7"/>
+      <c r="C2" s="4" t="str">
+        <f>CONCATENATE(G2,H2)</f>
+        <v>11V1DP102182</v>
+      </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="6">
+        <v>102182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="4">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="7"/>
+        <v>67</v>
+      </c>
+      <c r="C3" s="4" t="str">
+        <f>CONCATENATE(G3,H3)</f>
+        <v>11V1DP102184</v>
+      </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="7"/>
+      <c r="C4" s="4" t="str">
+        <f>CONCATENATE(G4,H4)</f>
+        <v>11V1DP102187</v>
+      </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="6">
+        <v>102187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="4">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="7"/>
+      <c r="C5" s="4" t="str">
+        <f>CONCATENATE(G5,H5)</f>
+        <v>11V1DP102188</v>
+      </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="4">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="7"/>
+      <c r="C6" s="4" t="str">
+        <f>CONCATENATE(G6,H6)</f>
+        <v>11V1DP102198</v>
+      </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="4">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="7"/>
+      <c r="C7" s="4" t="str">
+        <f>CONCATENATE(G7,H7)</f>
+        <v>11V1DP102381</v>
+      </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="6">
+        <v>102381</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="7"/>
+      <c r="C8" s="4" t="str">
+        <f>CONCATENATE(G8,H8)</f>
+        <v>11V1DP102383</v>
+      </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="6">
+        <v>102383</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="7"/>
+      <c r="C9" s="4" t="str">
+        <f>CONCATENATE(G9,H9)</f>
+        <v>11V1DP102397</v>
+      </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="6">
+        <v>102397</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="4">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="7"/>
+      <c r="C10" s="4" t="str">
+        <f>CONCATENATE(G10,H10)</f>
+        <v>11V1DP102400</v>
+      </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="6">
+        <v>102400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="7"/>
+      <c r="C11" s="4" t="str">
+        <f>CONCATENATE(G11,H11)</f>
+        <v>11V1DP102674</v>
+      </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="6">
+        <v>102674</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="4">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="7"/>
+      <c r="C12" s="4" t="str">
+        <f>CONCATENATE(G12,H12)</f>
+        <v>11V1DP102822</v>
+      </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="4">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="7"/>
+      <c r="C13" s="4" t="str">
+        <f>CONCATENATE(G13,H13)</f>
+        <v>11V1DP102823</v>
+      </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="6">
+        <v>102823</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="4">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="7"/>
+      <c r="C14" s="4" t="str">
+        <f>CONCATENATE(G14,H14)</f>
+        <v>11V1DP102827</v>
+      </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" s="6">
+        <v>102827</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="4">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="7"/>
+      <c r="C15" s="4" t="str">
+        <f>CONCATENATE(G15,H15)</f>
+        <v>11V1DP102828</v>
+      </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" t="s">
+        <v>70</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="4">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="7"/>
+      <c r="C16" s="4" t="str">
+        <f>CONCATENATE(G16,H16)</f>
+        <v>11V1DP102830</v>
+      </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="4">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="7"/>
+      <c r="C17" s="4" t="str">
+        <f>CONCATENATE(G17,H17)</f>
+        <v>11V1DP102834</v>
+      </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" t="s">
+        <v>70</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="4">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="7"/>
+      <c r="C18" s="4" t="str">
+        <f>CONCATENATE(G18,H18)</f>
+        <v>11V1DP102840</v>
+      </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" s="6">
+        <v>102840</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="18.75">
       <c r="A19" s="4">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="C19" s="4" t="str">
+        <f>CONCATENATE(G19,H19)</f>
+        <v>11V1DP103163</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" t="s">
+        <v>70</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="4">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="7"/>
+      <c r="C20" s="4" t="str">
+        <f>CONCATENATE(G20,H20)</f>
+        <v>11V1DP103166</v>
+      </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20" t="s">
+        <v>70</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="4">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="7"/>
+      <c r="C21" s="4" t="str">
+        <f>CONCATENATE(G21,H21)</f>
+        <v>11V1DP103168</v>
+      </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21" t="s">
+        <v>70</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="4">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="7"/>
+      <c r="C22" s="4" t="str">
+        <f>CONCATENATE(G22,H22)</f>
+        <v>11V1DP103169</v>
+      </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22" t="s">
+        <v>70</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="4">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="7"/>
+      <c r="C23" s="4" t="str">
+        <f>CONCATENATE(G23,H23)</f>
+        <v>11V1DP103170</v>
+      </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23" t="s">
+        <v>70</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="7"/>
+      <c r="C24" s="4" t="str">
+        <f>CONCATENATE(G24,H24)</f>
+        <v>11V1DP103171</v>
+      </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24" t="s">
+        <v>70</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="4">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="7"/>
+      <c r="C25" s="4" t="str">
+        <f>CONCATENATE(G25,H25)</f>
+        <v>11V1DP103172</v>
+      </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25" t="s">
+        <v>70</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="4">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="7"/>
+      <c r="C26" s="4" t="str">
+        <f>CONCATENATE(G26,H26)</f>
+        <v>11V1DP103175</v>
+      </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G26" t="s">
+        <v>70</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="7"/>
+      <c r="C27" s="4" t="str">
+        <f>CONCATENATE(G27,H27)</f>
+        <v>11V1DP103176</v>
+      </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27" t="s">
+        <v>70</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="7"/>
+      <c r="C28" s="4" t="str">
+        <f>CONCATENATE(G28,H28)</f>
+        <v>11V1DP103177</v>
+      </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="G28" t="s">
+        <v>70</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="4">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="7"/>
+      <c r="C29" s="4" t="str">
+        <f>CONCATENATE(G29,H29)</f>
+        <v>11V1DP103179</v>
+      </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="G29" t="s">
+        <v>70</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="4">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="7"/>
+      <c r="C30" s="4" t="str">
+        <f>CONCATENATE(G30,H30)</f>
+        <v>11V1DP103180</v>
+      </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="G30" t="s">
+        <v>70</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="4">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="7"/>
+      <c r="C31" s="4" t="str">
+        <f>CONCATENATE(G31,H31)</f>
+        <v>11V1DP103443</v>
+      </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="G31" t="s">
+        <v>56</v>
+      </c>
+      <c r="H31" s="6">
+        <v>103443</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="4">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="7"/>
+      <c r="C32" s="4" t="str">
+        <f>CONCATENATE(G32,H32)</f>
+        <v>11V1DP103450</v>
+      </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="G32" t="s">
+        <v>56</v>
+      </c>
+      <c r="H32" s="6">
+        <v>103450</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="4">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="7"/>
+      <c r="C33" s="4" t="str">
+        <f>CONCATENATE(G33,H33)</f>
+        <v>11V1DP103453</v>
+      </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="G33" t="s">
+        <v>56</v>
+      </c>
+      <c r="H33" s="6">
+        <v>103453</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="4">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="7"/>
+      <c r="C34" s="4" t="str">
+        <f>CONCATENATE(G34,H34)</f>
+        <v>11V1DP103456</v>
+      </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
-    </row>
-    <row r="35" spans="1:6" ht="18.75">
+      <c r="G34" t="s">
+        <v>56</v>
+      </c>
+      <c r="H34" s="6">
+        <v>103456</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="18.75">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="1"/>
+      <c r="C35" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D35" s="1" t="s">
         <v>3</v>
       </c>
@@ -7264,258 +8166,514 @@
         <v>4</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="18.75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="4">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="C36" s="4" t="str">
+        <f>CONCATENATE(G36,H36)</f>
+        <v>11V1DP103804</v>
+      </c>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" t="s">
+        <v>56</v>
+      </c>
+      <c r="H36" s="6">
+        <v>103804</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="4">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="7"/>
+      <c r="C37" s="4" t="str">
+        <f>CONCATENATE(G37,H37)</f>
+        <v>11V1DP103881</v>
+      </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37" t="s">
+        <v>56</v>
+      </c>
+      <c r="H37" s="6">
+        <v>103881</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="4">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="7"/>
+      <c r="C38" s="4" t="str">
+        <f>CONCATENATE(G38,H38)</f>
+        <v>11V1DP103898</v>
+      </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="G38" t="s">
+        <v>56</v>
+      </c>
+      <c r="H38" s="6">
+        <v>103898</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="4">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="7"/>
+      <c r="C39" s="4" t="str">
+        <f>CONCATENATE(G39,H39)</f>
+        <v>11V1DP103899</v>
+      </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="G39" t="s">
+        <v>56</v>
+      </c>
+      <c r="H39" s="6">
+        <v>103899</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="4">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="7"/>
+      <c r="C40" s="4" t="str">
+        <f>CONCATENATE(G40,H40)</f>
+        <v>11V1DP104255</v>
+      </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="G40" t="s">
+        <v>56</v>
+      </c>
+      <c r="H40" s="6">
+        <v>104255</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="4">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="7"/>
+      <c r="C41" s="4" t="str">
+        <f>CONCATENATE(G41,H41)</f>
+        <v>11V1DP104258</v>
+      </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="G41" t="s">
+        <v>56</v>
+      </c>
+      <c r="H41" s="6">
+        <v>104258</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="4">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C42" s="7"/>
+      <c r="C42" s="4" t="str">
+        <f>CONCATENATE(G42,H42)</f>
+        <v>11V1DP104281</v>
+      </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="4">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C43" s="7"/>
+      <c r="C43" s="4" t="str">
+        <f>CONCATENATE(G43,H43)</f>
+        <v>11V1DP104284</v>
+      </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="G43" t="s">
+        <v>70</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="4">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" s="7"/>
+        <v>64</v>
+      </c>
+      <c r="C44" s="4" t="str">
+        <f>CONCATENATE(G44,H44)</f>
+        <v>11V1DP104285</v>
+      </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="G44" t="s">
+        <v>70</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="4">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" s="7"/>
+        <v>65</v>
+      </c>
+      <c r="C45" s="4" t="str">
+        <f>CONCATENATE(G45,H45)</f>
+        <v>11V1DP104286</v>
+      </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45" t="s">
+        <v>70</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="4">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" s="7"/>
+        <v>66</v>
+      </c>
+      <c r="C46" s="4" t="str">
+        <f>CONCATENATE(G46,H46)</f>
+        <v>11V1DP104288</v>
+      </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="G46" t="s">
+        <v>70</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="4">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47" s="7"/>
+        <v>68</v>
+      </c>
+      <c r="C47" s="4" t="str">
+        <f>CONCATENATE(G47,H47)</f>
+        <v>11V1DP104289</v>
+      </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="G47" t="s">
+        <v>70</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="4">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" s="7"/>
+        <v>57</v>
+      </c>
+      <c r="C48" s="4" t="str">
+        <f>CONCATENATE(G48,H48)</f>
+        <v>11V1DP104290</v>
+      </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
-    </row>
-    <row r="49" spans="1:6">
+      <c r="G48" t="s">
+        <v>70</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="4">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" s="7"/>
+        <v>69</v>
+      </c>
+      <c r="C49" s="4" t="str">
+        <f>CONCATENATE(G49,H49)</f>
+        <v>11V1DP104291</v>
+      </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
+      <c r="G49" t="s">
+        <v>70</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="4">
+        <v>46</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50" s="4" t="str">
+        <f>CONCATENATE(G50,H50)</f>
+        <v>11V1DP104292</v>
+      </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
+      <c r="G50" t="s">
+        <v>70</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="4">
+        <v>44</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="4" t="str">
+        <f>CONCATENATE(G51,H51)</f>
+        <v>11V1DP104293</v>
+      </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
+      <c r="G51" t="s">
+        <v>70</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="4">
+        <v>51</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C52" s="4" t="str">
+        <f>CONCATENATE(G52,H52)</f>
+        <v>11V1DP104294</v>
+      </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
+      <c r="G52" t="s">
+        <v>70</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="4">
+        <v>43</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" s="4" t="str">
+        <f>CONCATENATE(G53,H53)</f>
+        <v>11V1DP104295</v>
+      </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
+      <c r="G53" t="s">
+        <v>70</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="4">
+        <v>40</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="4" t="str">
+        <f>CONCATENATE(G54,H54)</f>
+        <v>11V1DP104297</v>
+      </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
+      <c r="G54" t="s">
+        <v>70</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="4">
+        <v>50</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C55" s="4" t="str">
+        <f>CONCATENATE(G55,H55)</f>
+        <v>11V1DP104298</v>
+      </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
+      <c r="G55" t="s">
+        <v>70</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="4">
+        <v>48</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56" s="4" t="str">
+        <f>CONCATENATE(G56,H56)</f>
+        <v>11V1DP104299</v>
+      </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
+      <c r="G56" t="s">
+        <v>70</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="4">
+        <v>49</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C57" s="4" t="str">
+        <f>CONCATENATE(G57,H57)</f>
+        <v>11V1DP104300</v>
+      </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
+      <c r="G57" t="s">
+        <v>70</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="4">
+        <v>47</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58" s="4" t="str">
+        <f>CONCATENATE(G58,H58)</f>
+        <v>11V1DP104481</v>
+      </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
+      <c r="G58" t="s">
+        <v>70</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="4">
+        <v>29</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" s="4" t="str">
+        <f>CONCATENATE(G59,H59)</f>
+        <v>11V1DP104497</v>
+      </c>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
-    </row>
-    <row r="60" spans="1:6">
+      <c r="G59" t="s">
+        <v>70</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -7523,7 +8681,7 @@
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:8">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -7531,7 +8689,7 @@
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:8">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -7539,7 +8697,7 @@
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:8">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -7547,7 +8705,7 @@
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:8">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -7588,7 +8746,13 @@
       <c r="F68" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <autoFilter ref="A1:H1">
+    <sortState ref="A2:H59">
+      <sortCondition ref="C1"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.41666666666666669" right="0.46875" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11104,10 +12268,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1 F35">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="HJF0">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="HJF0">
       <formula>NOT(ISERROR(SEARCH("HJF0",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="HJH0">
+    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="HJH0">
       <formula>NOT(ISERROR(SEARCH("HJH0",F1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Tablets Distribution - Berea.xlsx
+++ b/Tablets Distribution - Berea.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1570" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1579" uniqueCount="382">
   <si>
     <t>No.</t>
   </si>
@@ -1153,6 +1153,33 @@
   </si>
   <si>
     <t>D048</t>
+  </si>
+  <si>
+    <t>TH6D</t>
+  </si>
+  <si>
+    <t>DAGB</t>
+  </si>
+  <si>
+    <t>THD0</t>
+  </si>
+  <si>
+    <t>TH79</t>
+  </si>
+  <si>
+    <t>D096</t>
+  </si>
+  <si>
+    <t>THGY</t>
+  </si>
+  <si>
+    <t>TH27</t>
+  </si>
+  <si>
+    <t>THP0</t>
+  </si>
+  <si>
+    <t>THFA</t>
   </si>
 </sst>
 </file>
@@ -13690,8 +13717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14387,13 +14414,16 @@
       </c>
       <c r="C35" s="4" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>TH6D</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="4"/>
+      <c r="J35" s="6" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="36" spans="1:10" ht="18.75">
       <c r="A36" s="4"/>
@@ -14402,13 +14432,16 @@
       </c>
       <c r="C36" s="4" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>DAGB</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="4"/>
       <c r="G36" s="5"/>
       <c r="H36" s="4"/>
+      <c r="J36" s="6" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="4"/>
@@ -14417,13 +14450,16 @@
       </c>
       <c r="C37" s="4" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>THD0</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="5"/>
       <c r="H37" s="4"/>
+      <c r="J37" s="6" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="4"/>
@@ -14432,13 +14468,16 @@
       </c>
       <c r="C38" s="4" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>TH79</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="5"/>
       <c r="H38" s="4"/>
+      <c r="J38" s="6" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="4"/>
@@ -14447,13 +14486,16 @@
       </c>
       <c r="C39" s="4" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>D096</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="5"/>
       <c r="H39" s="4"/>
+      <c r="J39" s="6" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="4"/>
@@ -14462,13 +14504,16 @@
       </c>
       <c r="C40" s="4" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>THGY</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="5"/>
       <c r="H40" s="4"/>
+      <c r="J40" s="6" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="4"/>
@@ -14477,13 +14522,16 @@
       </c>
       <c r="C41" s="4" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>TH27</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
       <c r="G41" s="5"/>
       <c r="H41" s="4"/>
+      <c r="J41" s="6" t="s">
+        <v>379</v>
+      </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="4"/>
@@ -14492,13 +14540,16 @@
       </c>
       <c r="C42" s="4" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>THP0</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="5"/>
       <c r="H42" s="4"/>
+      <c r="J42" s="6" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="4"/>
@@ -14507,13 +14558,16 @@
       </c>
       <c r="C43" s="4" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>THFA</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="5"/>
       <c r="H43" s="4"/>
+      <c r="J43" s="6" t="s">
+        <v>381</v>
+      </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="4"/>

--- a/Tablets Distribution - Berea.xlsx
+++ b/Tablets Distribution - Berea.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" tabRatio="833" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" tabRatio="833" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="All Tablets" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2101" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2113" uniqueCount="545">
   <si>
     <t>No.</t>
   </si>
@@ -1761,7 +1761,103 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="20">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -2261,7 +2357,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="4" t="str">
-        <f>CONCATENATE(G2,H2)</f>
+        <f t="shared" ref="C2:C34" si="0">CONCATENATE(G2,H2)</f>
         <v>11V1DP100021</v>
       </c>
       <c r="E2" s="4"/>
@@ -2281,7 +2377,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="4" t="str">
-        <f>CONCATENATE(G3,H3)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP100024</v>
       </c>
       <c r="D3" s="4"/>
@@ -2302,7 +2398,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="4" t="str">
-        <f>CONCATENATE(G4,H4)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP100025</v>
       </c>
       <c r="D4" s="4"/>
@@ -2323,7 +2419,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="4" t="str">
-        <f>CONCATENATE(G5,H5)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP100030</v>
       </c>
       <c r="D5" s="4"/>
@@ -2344,7 +2440,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="4" t="str">
-        <f>CONCATENATE(G6,H6)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP100037</v>
       </c>
       <c r="D6" s="4"/>
@@ -2365,7 +2461,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="4" t="str">
-        <f>CONCATENATE(G7,H7)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP100039</v>
       </c>
       <c r="D7" s="4"/>
@@ -2386,7 +2482,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="4" t="str">
-        <f>CONCATENATE(G8,H8)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP100191</v>
       </c>
       <c r="D8" s="4"/>
@@ -2407,7 +2503,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="4" t="str">
-        <f>CONCATENATE(G9,H9)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP100443</v>
       </c>
       <c r="D9" s="4"/>
@@ -2428,7 +2524,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="4" t="str">
-        <f>CONCATENATE(G10,H10)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP100446</v>
       </c>
       <c r="D10" s="4"/>
@@ -2449,7 +2545,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="4" t="str">
-        <f>CONCATENATE(G11,H11)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP100455</v>
       </c>
       <c r="D11" s="4"/>
@@ -2470,7 +2566,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="4" t="str">
-        <f>CONCATENATE(G12,H12)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP101906</v>
       </c>
       <c r="D12" s="4"/>
@@ -2491,7 +2587,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="4" t="str">
-        <f>CONCATENATE(G13,H13)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP101989</v>
       </c>
       <c r="D13" s="4"/>
@@ -2512,7 +2608,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="4" t="str">
-        <f>CONCATENATE(G14,H14)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP101992</v>
       </c>
       <c r="D14" s="4"/>
@@ -2533,7 +2629,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="4" t="str">
-        <f>CONCATENATE(G15,H15)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102000</v>
       </c>
       <c r="D15" s="4"/>
@@ -2554,7 +2650,7 @@
         <v>7</v>
       </c>
       <c r="C16" s="4" t="str">
-        <f>CONCATENATE(G16,H16)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102306</v>
       </c>
       <c r="D16" s="4"/>
@@ -2575,7 +2671,7 @@
         <v>7</v>
       </c>
       <c r="C17" s="4" t="str">
-        <f>CONCATENATE(G17,H17)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102317</v>
       </c>
       <c r="D17" s="4"/>
@@ -2596,7 +2692,7 @@
         <v>7</v>
       </c>
       <c r="C18" s="4" t="str">
-        <f>CONCATENATE(G18,H18)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102429</v>
       </c>
       <c r="D18" s="4"/>
@@ -2617,7 +2713,7 @@
         <v>7</v>
       </c>
       <c r="C19" s="4" t="str">
-        <f>CONCATENATE(G19,H19)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102462</v>
       </c>
       <c r="D19" s="4"/>
@@ -2638,7 +2734,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="4" t="str">
-        <f>CONCATENATE(G20,H20)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102762</v>
       </c>
       <c r="D20" s="4"/>
@@ -2659,7 +2755,7 @@
         <v>7</v>
       </c>
       <c r="C21" s="4" t="str">
-        <f>CONCATENATE(G21,H21)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102880</v>
       </c>
       <c r="D21" s="4"/>
@@ -2680,7 +2776,7 @@
         <v>7</v>
       </c>
       <c r="C22" s="4" t="str">
-        <f>CONCATENATE(G22,H22)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP103001</v>
       </c>
       <c r="D22" s="4"/>
@@ -2701,7 +2797,7 @@
         <v>7</v>
       </c>
       <c r="C23" s="4" t="str">
-        <f>CONCATENATE(G23,H23)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP103003</v>
       </c>
       <c r="D23" s="4"/>
@@ -2722,7 +2818,7 @@
         <v>7</v>
       </c>
       <c r="C24" s="4" t="str">
-        <f>CONCATENATE(G24,H24)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP103009</v>
       </c>
       <c r="D24" s="4"/>
@@ -2743,7 +2839,7 @@
         <v>7</v>
       </c>
       <c r="C25" s="4" t="str">
-        <f>CONCATENATE(G25,H25)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP103010</v>
       </c>
       <c r="D25" s="4"/>
@@ -2764,7 +2860,7 @@
         <v>7</v>
       </c>
       <c r="C26" s="4" t="str">
-        <f>CONCATENATE(G26,H26)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP103012</v>
       </c>
       <c r="D26" s="4"/>
@@ -2785,7 +2881,7 @@
         <v>7</v>
       </c>
       <c r="C27" s="4" t="str">
-        <f>CONCATENATE(G27,H27)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP103014</v>
       </c>
       <c r="D27" s="4"/>
@@ -2806,7 +2902,7 @@
         <v>7</v>
       </c>
       <c r="C28" s="4" t="str">
-        <f>CONCATENATE(G28,H28)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP103015</v>
       </c>
       <c r="D28" s="4"/>
@@ -2827,7 +2923,7 @@
         <v>7</v>
       </c>
       <c r="C29" s="4" t="str">
-        <f>CONCATENATE(G29,H29)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP103019</v>
       </c>
       <c r="D29" s="4"/>
@@ -2848,7 +2944,7 @@
         <v>7</v>
       </c>
       <c r="C30" s="4" t="str">
-        <f>CONCATENATE(G30,H30)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP103020</v>
       </c>
       <c r="D30" s="4"/>
@@ -2869,7 +2965,7 @@
         <v>7</v>
       </c>
       <c r="C31" s="4" t="str">
-        <f>CONCATENATE(G31,H31)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP103142</v>
       </c>
       <c r="D31" s="4"/>
@@ -2890,7 +2986,7 @@
         <v>7</v>
       </c>
       <c r="C32" s="4" t="str">
-        <f>CONCATENATE(G32,H32)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP103143</v>
       </c>
       <c r="D32" s="4"/>
@@ -2911,7 +3007,7 @@
         <v>7</v>
       </c>
       <c r="C33" s="4" t="str">
-        <f>CONCATENATE(G33,H33)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP103144</v>
       </c>
       <c r="D33" s="4"/>
@@ -2932,7 +3028,7 @@
         <v>7</v>
       </c>
       <c r="C34" s="4" t="str">
-        <f>CONCATENATE(G34,H34)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP103151</v>
       </c>
       <c r="D34" s="4"/>
@@ -2973,7 +3069,7 @@
         <v>7</v>
       </c>
       <c r="C36" s="4" t="str">
-        <f>CONCATENATE(G36,H36)</f>
+        <f t="shared" ref="C36:C59" si="1">CONCATENATE(G36,H36)</f>
         <v>11V1DP103154</v>
       </c>
       <c r="D36" s="4"/>
@@ -2994,7 +3090,7 @@
         <v>7</v>
       </c>
       <c r="C37" s="4" t="str">
-        <f>CONCATENATE(G37,H37)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP103155</v>
       </c>
       <c r="D37" s="4"/>
@@ -3015,7 +3111,7 @@
         <v>7</v>
       </c>
       <c r="C38" s="4" t="str">
-        <f>CONCATENATE(G38,H38)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP103158</v>
       </c>
       <c r="D38" s="4"/>
@@ -3036,7 +3132,7 @@
         <v>7</v>
       </c>
       <c r="C39" s="4" t="str">
-        <f>CONCATENATE(G39,H39)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP103159</v>
       </c>
       <c r="D39" s="4"/>
@@ -3057,7 +3153,7 @@
         <v>7</v>
       </c>
       <c r="C40" s="4" t="str">
-        <f>CONCATENATE(G40,H40)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP103343</v>
       </c>
       <c r="D40" s="4"/>
@@ -3078,7 +3174,7 @@
         <v>7</v>
       </c>
       <c r="C41" s="4" t="str">
-        <f>CONCATENATE(G41,H41)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP103347</v>
       </c>
       <c r="D41" s="4"/>
@@ -3099,7 +3195,7 @@
         <v>7</v>
       </c>
       <c r="C42" s="4" t="str">
-        <f>CONCATENATE(G42,H42)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP103348</v>
       </c>
       <c r="D42" s="4"/>
@@ -3120,7 +3216,7 @@
         <v>7</v>
       </c>
       <c r="C43" s="4" t="str">
-        <f>CONCATENATE(G43,H43)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP103354</v>
       </c>
       <c r="D43" s="4"/>
@@ -3141,7 +3237,7 @@
         <v>7</v>
       </c>
       <c r="C44" s="4" t="str">
-        <f>CONCATENATE(G44,H44)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP103681</v>
       </c>
       <c r="D44" s="4"/>
@@ -3162,7 +3258,7 @@
         <v>7</v>
       </c>
       <c r="C45" s="4" t="str">
-        <f>CONCATENATE(G45,H45)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP103682</v>
       </c>
       <c r="D45" s="4"/>
@@ -3183,7 +3279,7 @@
         <v>7</v>
       </c>
       <c r="C46" s="4" t="str">
-        <f>CONCATENATE(G46,H46)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP103687</v>
       </c>
       <c r="D46" s="4"/>
@@ -3204,7 +3300,7 @@
         <v>7</v>
       </c>
       <c r="C47" s="4" t="str">
-        <f>CONCATENATE(G47,H47)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP103692</v>
       </c>
       <c r="D47" s="4"/>
@@ -3225,7 +3321,7 @@
         <v>7</v>
       </c>
       <c r="C48" s="4" t="str">
-        <f>CONCATENATE(G48,H48)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP103696</v>
       </c>
       <c r="D48" s="4"/>
@@ -3246,7 +3342,7 @@
         <v>7</v>
       </c>
       <c r="C49" s="4" t="str">
-        <f>CONCATENATE(G49,H49)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP103697</v>
       </c>
       <c r="D49" s="4"/>
@@ -3267,7 +3363,7 @@
         <v>7</v>
       </c>
       <c r="C50" s="4" t="str">
-        <f>CONCATENATE(G50,H50)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP103719</v>
       </c>
       <c r="D50" s="1"/>
@@ -3288,7 +3384,7 @@
         <v>7</v>
       </c>
       <c r="C51" s="4" t="str">
-        <f>CONCATENATE(G51,H51)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP104155</v>
       </c>
       <c r="D51" s="4"/>
@@ -3309,7 +3405,7 @@
         <v>7</v>
       </c>
       <c r="C52" s="4" t="str">
-        <f>CONCATENATE(G52,H52)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP104157</v>
       </c>
       <c r="D52" s="4"/>
@@ -3330,7 +3426,7 @@
         <v>7</v>
       </c>
       <c r="C53" s="4" t="str">
-        <f>CONCATENATE(G53,H53)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP104201</v>
       </c>
       <c r="D53" s="4"/>
@@ -3351,7 +3447,7 @@
         <v>7</v>
       </c>
       <c r="C54" s="4" t="str">
-        <f>CONCATENATE(G54,H54)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP104209</v>
       </c>
       <c r="D54" s="4"/>
@@ -3372,7 +3468,7 @@
         <v>7</v>
       </c>
       <c r="C55" s="4" t="str">
-        <f>CONCATENATE(G55,H55)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP104211</v>
       </c>
       <c r="D55" s="4"/>
@@ -3393,7 +3489,7 @@
         <v>7</v>
       </c>
       <c r="C56" s="4" t="str">
-        <f>CONCATENATE(G56,H56)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP104215</v>
       </c>
       <c r="D56" s="4"/>
@@ -3414,7 +3510,7 @@
         <v>7</v>
       </c>
       <c r="C57" s="4" t="str">
-        <f>CONCATENATE(G57,H57)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP104383</v>
       </c>
       <c r="D57" s="4"/>
@@ -3435,7 +3531,7 @@
         <v>7</v>
       </c>
       <c r="C58" s="4" t="str">
-        <f>CONCATENATE(G58,H58)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP104400</v>
       </c>
       <c r="D58" s="4"/>
@@ -3456,7 +3552,7 @@
         <v>7</v>
       </c>
       <c r="C59" s="4" t="str">
-        <f>CONCATENATE(G59,H59)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP107862</v>
       </c>
       <c r="D59" s="4"/>
@@ -3599,7 +3695,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="4" t="str">
-        <f>CONCATENATE(G2,H2)</f>
+        <f t="shared" ref="C2:C34" si="0">CONCATENATE(G2,H2)</f>
         <v>11V1DP101784</v>
       </c>
       <c r="E2" s="4"/>
@@ -3619,7 +3715,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="4" t="str">
-        <f>CONCATENATE(G3,H3)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP101786</v>
       </c>
       <c r="D3" s="4"/>
@@ -3640,7 +3736,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="4" t="str">
-        <f>CONCATENATE(G4,H4)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP101787</v>
       </c>
       <c r="D4" s="4"/>
@@ -3661,7 +3757,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="4" t="str">
-        <f>CONCATENATE(G5,H5)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102051</v>
       </c>
       <c r="D5" s="4"/>
@@ -3682,7 +3778,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="4" t="str">
-        <f>CONCATENATE(G6,H6)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102057</v>
       </c>
       <c r="D6" s="4"/>
@@ -3703,7 +3799,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="4" t="str">
-        <f>CONCATENATE(G7,H7)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102320</v>
       </c>
       <c r="D7" s="4"/>
@@ -3724,7 +3820,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="4" t="str">
-        <f>CONCATENATE(G8,H8)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102465</v>
       </c>
       <c r="D8" s="4"/>
@@ -3745,7 +3841,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="4" t="str">
-        <f>CONCATENATE(G9,H9)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102477</v>
       </c>
       <c r="D9" s="4"/>
@@ -3766,7 +3862,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="4" t="str">
-        <f>CONCATENATE(G10,H10)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102502</v>
       </c>
       <c r="D10" s="1"/>
@@ -3787,7 +3883,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="4" t="str">
-        <f>CONCATENATE(G11,H11)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102503</v>
       </c>
       <c r="D11" s="4"/>
@@ -3808,7 +3904,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="4" t="str">
-        <f>CONCATENATE(G12,H12)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102505</v>
       </c>
       <c r="D12" s="4"/>
@@ -3829,7 +3925,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="4" t="str">
-        <f>CONCATENATE(G13,H13)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102507</v>
       </c>
       <c r="D13" s="4"/>
@@ -3850,7 +3946,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="4" t="str">
-        <f>CONCATENATE(G14,H14)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102509</v>
       </c>
       <c r="D14" s="4"/>
@@ -3871,7 +3967,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="4" t="str">
-        <f>CONCATENATE(G15,H15)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102510</v>
       </c>
       <c r="D15" s="4"/>
@@ -3892,7 +3988,7 @@
         <v>7</v>
       </c>
       <c r="C16" s="4" t="str">
-        <f>CONCATENATE(G16,H16)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102511</v>
       </c>
       <c r="D16" s="4"/>
@@ -3913,7 +4009,7 @@
         <v>7</v>
       </c>
       <c r="C17" s="4" t="str">
-        <f>CONCATENATE(G17,H17)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102516</v>
       </c>
       <c r="D17" s="4"/>
@@ -3934,7 +4030,7 @@
         <v>7</v>
       </c>
       <c r="C18" s="4" t="str">
-        <f>CONCATENATE(G18,H18)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102518</v>
       </c>
       <c r="D18" s="4"/>
@@ -3955,7 +4051,7 @@
         <v>7</v>
       </c>
       <c r="C19" s="4" t="str">
-        <f>CONCATENATE(G19,H19)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102519</v>
       </c>
       <c r="D19" s="4"/>
@@ -3976,7 +4072,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="4" t="str">
-        <f>CONCATENATE(G20,H20)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102873</v>
       </c>
       <c r="D20" s="4"/>
@@ -3997,7 +4093,7 @@
         <v>7</v>
       </c>
       <c r="C21" s="4" t="str">
-        <f>CONCATENATE(G21,H21)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP103022</v>
       </c>
       <c r="D21" s="4"/>
@@ -4018,7 +4114,7 @@
         <v>7</v>
       </c>
       <c r="C22" s="4" t="str">
-        <f>CONCATENATE(G22,H22)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP103026</v>
       </c>
       <c r="D22" s="4"/>
@@ -4039,7 +4135,7 @@
         <v>7</v>
       </c>
       <c r="C23" s="4" t="str">
-        <f>CONCATENATE(G23,H23)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP103031</v>
       </c>
       <c r="D23" s="4"/>
@@ -4060,7 +4156,7 @@
         <v>7</v>
       </c>
       <c r="C24" s="4" t="str">
-        <f>CONCATENATE(G24,H24)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP103035</v>
       </c>
       <c r="D24" s="4"/>
@@ -4081,7 +4177,7 @@
         <v>7</v>
       </c>
       <c r="C25" s="4" t="str">
-        <f>CONCATENATE(G25,H25)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP103038</v>
       </c>
       <c r="D25" s="4"/>
@@ -4102,7 +4198,7 @@
         <v>7</v>
       </c>
       <c r="C26" s="4" t="str">
-        <f>CONCATENATE(G26,H26)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP103040</v>
       </c>
       <c r="D26" s="4"/>
@@ -4123,7 +4219,7 @@
         <v>7</v>
       </c>
       <c r="C27" s="4" t="str">
-        <f>CONCATENATE(G27,H27)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP103146</v>
       </c>
       <c r="D27" s="4"/>
@@ -4144,7 +4240,7 @@
         <v>7</v>
       </c>
       <c r="C28" s="4" t="str">
-        <f>CONCATENATE(G28,H28)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP103183</v>
       </c>
       <c r="D28" s="4"/>
@@ -4165,7 +4261,7 @@
         <v>7</v>
       </c>
       <c r="C29" s="4" t="str">
-        <f>CONCATENATE(G29,H29)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP103184</v>
       </c>
       <c r="D29" s="4"/>
@@ -4186,7 +4282,7 @@
         <v>7</v>
       </c>
       <c r="C30" s="4" t="str">
-        <f>CONCATENATE(G30,H30)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP103188</v>
       </c>
       <c r="D30" s="4"/>
@@ -4207,7 +4303,7 @@
         <v>7</v>
       </c>
       <c r="C31" s="4" t="str">
-        <f>CONCATENATE(G31,H31)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP103194</v>
       </c>
       <c r="D31" s="4"/>
@@ -4228,7 +4324,7 @@
         <v>7</v>
       </c>
       <c r="C32" s="4" t="str">
-        <f>CONCATENATE(G32,H32)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP103198</v>
       </c>
       <c r="D32" s="4"/>
@@ -4249,7 +4345,7 @@
         <v>7</v>
       </c>
       <c r="C33" s="4" t="str">
-        <f>CONCATENATE(G33,H33)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP103199</v>
       </c>
       <c r="D33" s="4"/>
@@ -4270,7 +4366,7 @@
         <v>7</v>
       </c>
       <c r="C34" s="4" t="str">
-        <f>CONCATENATE(G34,H34)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP103202</v>
       </c>
       <c r="D34" s="4"/>
@@ -4311,7 +4407,7 @@
         <v>7</v>
       </c>
       <c r="C36" s="4" t="str">
-        <f>CONCATENATE(G36,H36)</f>
+        <f t="shared" ref="C36:C55" si="1">CONCATENATE(G36,H36)</f>
         <v>11V1DP103204</v>
       </c>
       <c r="D36" s="4"/>
@@ -4332,7 +4428,7 @@
         <v>7</v>
       </c>
       <c r="C37" s="4" t="str">
-        <f>CONCATENATE(G37,H37)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP103207</v>
       </c>
       <c r="D37" s="4"/>
@@ -4353,7 +4449,7 @@
         <v>7</v>
       </c>
       <c r="C38" s="4" t="str">
-        <f>CONCATENATE(G38,H38)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP103211</v>
       </c>
       <c r="D38" s="4"/>
@@ -4374,7 +4470,7 @@
         <v>7</v>
       </c>
       <c r="C39" s="4" t="str">
-        <f>CONCATENATE(G39,H39)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP103341</v>
       </c>
       <c r="D39" s="4"/>
@@ -4395,7 +4491,7 @@
         <v>7</v>
       </c>
       <c r="C40" s="4" t="str">
-        <f>CONCATENATE(G40,H40)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP103342</v>
       </c>
       <c r="D40" s="4"/>
@@ -4416,7 +4512,7 @@
         <v>7</v>
       </c>
       <c r="C41" s="4" t="str">
-        <f>CONCATENATE(G41,H41)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP103349</v>
       </c>
       <c r="D41" s="4"/>
@@ -4437,7 +4533,7 @@
         <v>7</v>
       </c>
       <c r="C42" s="4" t="str">
-        <f>CONCATENATE(G42,H42)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP103360</v>
       </c>
       <c r="D42" s="4"/>
@@ -4458,7 +4554,7 @@
         <v>7</v>
       </c>
       <c r="C43" s="4" t="str">
-        <f>CONCATENATE(G43,H43)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP103416</v>
       </c>
       <c r="D43" s="4"/>
@@ -4479,7 +4575,7 @@
         <v>7</v>
       </c>
       <c r="C44" s="4" t="str">
-        <f>CONCATENATE(G44,H44)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP103495</v>
       </c>
       <c r="D44" s="4"/>
@@ -4500,7 +4596,7 @@
         <v>7</v>
       </c>
       <c r="C45" s="4" t="str">
-        <f>CONCATENATE(G45,H45)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP103545</v>
       </c>
       <c r="D45" s="4"/>
@@ -4521,7 +4617,7 @@
         <v>7</v>
       </c>
       <c r="C46" s="4" t="str">
-        <f>CONCATENATE(G46,H46)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP103546</v>
       </c>
       <c r="D46" s="4"/>
@@ -4542,7 +4638,7 @@
         <v>7</v>
       </c>
       <c r="C47" s="4" t="str">
-        <f>CONCATENATE(G47,H47)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP103551</v>
       </c>
       <c r="D47" s="4"/>
@@ -4563,7 +4659,7 @@
         <v>7</v>
       </c>
       <c r="C48" s="4" t="str">
-        <f>CONCATENATE(G48,H48)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP103553</v>
       </c>
       <c r="D48" s="4"/>
@@ -4584,7 +4680,7 @@
         <v>7</v>
       </c>
       <c r="C49" s="4" t="str">
-        <f>CONCATENATE(G49,H49)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP103554</v>
       </c>
       <c r="D49" s="4"/>
@@ -4605,7 +4701,7 @@
         <v>7</v>
       </c>
       <c r="C50" s="4" t="str">
-        <f>CONCATENATE(G50,H50)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP103557</v>
       </c>
       <c r="D50" s="4"/>
@@ -4626,7 +4722,7 @@
         <v>7</v>
       </c>
       <c r="C51" s="4" t="str">
-        <f>CONCATENATE(G51,H51)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP103560</v>
       </c>
       <c r="D51" s="4"/>
@@ -4647,7 +4743,7 @@
         <v>7</v>
       </c>
       <c r="C52" s="4" t="str">
-        <f>CONCATENATE(G52,H52)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP104153</v>
       </c>
       <c r="D52" s="4"/>
@@ -4668,7 +4764,7 @@
         <v>7</v>
       </c>
       <c r="C53" s="4" t="str">
-        <f>CONCATENATE(G53,H53)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP104464</v>
       </c>
       <c r="D53" s="4"/>
@@ -4689,7 +4785,7 @@
         <v>7</v>
       </c>
       <c r="C54" s="4" t="str">
-        <f>CONCATENATE(G54,H54)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP104467</v>
       </c>
       <c r="D54" s="4"/>
@@ -4710,7 +4806,7 @@
         <v>7</v>
       </c>
       <c r="C55" s="4" t="str">
-        <f>CONCATENATE(G55,H55)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP104479</v>
       </c>
       <c r="D55" s="4"/>
@@ -4839,10 +4935,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q68"/>
+  <dimension ref="A1:H68"/>
   <sheetViews>
     <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:F68"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4885,7 +4981,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="4" t="str">
-        <f>CONCATENATE(G2,H2)</f>
+        <f t="shared" ref="C2:C34" si="0">CONCATENATE(G2,H2)</f>
         <v>11V1DP100023</v>
       </c>
       <c r="E2" s="4"/>
@@ -4905,7 +5001,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="4" t="str">
-        <f>CONCATENATE(G3,H3)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP100038</v>
       </c>
       <c r="D3" s="4"/>
@@ -4926,7 +5022,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="4" t="str">
-        <f>CONCATENATE(G4,H4)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP100927</v>
       </c>
       <c r="D4" s="4"/>
@@ -4947,7 +5043,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="4" t="str">
-        <f>CONCATENATE(G5,H5)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP101902</v>
       </c>
       <c r="D5" s="4"/>
@@ -4968,7 +5064,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="4" t="str">
-        <f>CONCATENATE(G6,H6)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP101903</v>
       </c>
       <c r="D6" s="4"/>
@@ -4989,7 +5085,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="4" t="str">
-        <f>CONCATENATE(G7,H7)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP101904</v>
       </c>
       <c r="D7" s="4"/>
@@ -5010,7 +5106,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="4" t="str">
-        <f>CONCATENATE(G8,H8)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP101905</v>
       </c>
       <c r="D8" s="4"/>
@@ -5031,7 +5127,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="4" t="str">
-        <f>CONCATENATE(G9,H9)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP101907</v>
       </c>
       <c r="D9" s="4"/>
@@ -5052,7 +5148,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="4" t="str">
-        <f>CONCATENATE(G10,H10)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP101908</v>
       </c>
       <c r="D10" s="4"/>
@@ -5073,7 +5169,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="4" t="str">
-        <f>CONCATENATE(G11,H11)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP101909</v>
       </c>
       <c r="D11" s="4"/>
@@ -5094,7 +5190,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="4" t="str">
-        <f>CONCATENATE(G12,H12)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP101911</v>
       </c>
       <c r="D12" s="1"/>
@@ -5115,7 +5211,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="4" t="str">
-        <f>CONCATENATE(G13,H13)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP101914</v>
       </c>
       <c r="D13" s="4"/>
@@ -5136,7 +5232,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="4" t="str">
-        <f>CONCATENATE(G14,H14)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP101915</v>
       </c>
       <c r="D14" s="4"/>
@@ -5157,7 +5253,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="4" t="str">
-        <f>CONCATENATE(G15,H15)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP101916</v>
       </c>
       <c r="D15" s="4"/>
@@ -5178,7 +5274,7 @@
         <v>7</v>
       </c>
       <c r="C16" s="4" t="str">
-        <f>CONCATENATE(G16,H16)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP101917</v>
       </c>
       <c r="D16" s="4"/>
@@ -5199,7 +5295,7 @@
         <v>7</v>
       </c>
       <c r="C17" s="4" t="str">
-        <f>CONCATENATE(G17,H17)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP101991</v>
       </c>
       <c r="D17" s="4"/>
@@ -5220,7 +5316,7 @@
         <v>7</v>
       </c>
       <c r="C18" s="4" t="str">
-        <f>CONCATENATE(G18,H18)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102305</v>
       </c>
       <c r="D18" s="4"/>
@@ -5241,7 +5337,7 @@
         <v>7</v>
       </c>
       <c r="C19" s="4" t="str">
-        <f>CONCATENATE(G19,H19)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102309</v>
       </c>
       <c r="D19" s="4"/>
@@ -5262,7 +5358,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="4" t="str">
-        <f>CONCATENATE(G20,H20)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102312</v>
       </c>
       <c r="D20" s="4"/>
@@ -5283,7 +5379,7 @@
         <v>7</v>
       </c>
       <c r="C21" s="4" t="str">
-        <f>CONCATENATE(G21,H21)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102316</v>
       </c>
       <c r="D21" s="4"/>
@@ -5304,7 +5400,7 @@
         <v>7</v>
       </c>
       <c r="C22" s="4" t="str">
-        <f>CONCATENATE(G22,H22)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102469</v>
       </c>
       <c r="D22" s="4"/>
@@ -5325,7 +5421,7 @@
         <v>7</v>
       </c>
       <c r="C23" s="4" t="str">
-        <f>CONCATENATE(G23,H23)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102474</v>
       </c>
       <c r="D23" s="4"/>
@@ -5346,7 +5442,7 @@
         <v>7</v>
       </c>
       <c r="C24" s="4" t="str">
-        <f>CONCATENATE(G24,H24)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102504</v>
       </c>
       <c r="D24" s="4"/>
@@ -5367,7 +5463,7 @@
         <v>7</v>
       </c>
       <c r="C25" s="4" t="str">
-        <f>CONCATENATE(G25,H25)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102513</v>
       </c>
       <c r="D25" s="4"/>
@@ -5388,7 +5484,7 @@
         <v>7</v>
       </c>
       <c r="C26" s="4" t="str">
-        <f>CONCATENATE(G26,H26)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102520</v>
       </c>
       <c r="D26" s="4"/>
@@ -5409,7 +5505,7 @@
         <v>7</v>
       </c>
       <c r="C27" s="4" t="str">
-        <f>CONCATENATE(G27,H27)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102864</v>
       </c>
       <c r="D27" s="4"/>
@@ -5430,7 +5526,7 @@
         <v>7</v>
       </c>
       <c r="C28" s="4" t="str">
-        <f>CONCATENATE(G28,H28)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102868</v>
       </c>
       <c r="D28" s="4"/>
@@ -5451,7 +5547,7 @@
         <v>7</v>
       </c>
       <c r="C29" s="4" t="str">
-        <f>CONCATENATE(G29,H29)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102871</v>
       </c>
       <c r="D29" s="4"/>
@@ -5472,7 +5568,7 @@
         <v>7</v>
       </c>
       <c r="C30" s="4" t="str">
-        <f>CONCATENATE(G30,H30)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102872</v>
       </c>
       <c r="D30" s="4"/>
@@ -5493,7 +5589,7 @@
         <v>7</v>
       </c>
       <c r="C31" s="4" t="str">
-        <f>CONCATENATE(G31,H31)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP103684</v>
       </c>
       <c r="D31" s="4"/>
@@ -5514,7 +5610,7 @@
         <v>7</v>
       </c>
       <c r="C32" s="4" t="str">
-        <f>CONCATENATE(G32,H32)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP103685</v>
       </c>
       <c r="D32" s="4"/>
@@ -5535,7 +5631,7 @@
         <v>7</v>
       </c>
       <c r="C33" s="4" t="str">
-        <f>CONCATENATE(G33,H33)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP103690</v>
       </c>
       <c r="D33" s="4"/>
@@ -5556,7 +5652,7 @@
         <v>7</v>
       </c>
       <c r="C34" s="4" t="str">
-        <f>CONCATENATE(G34,H34)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP103694</v>
       </c>
       <c r="D34" s="4"/>
@@ -5597,7 +5693,7 @@
         <v>7</v>
       </c>
       <c r="C36" s="4" t="str">
-        <f>CONCATENATE(G36,H36)</f>
+        <f t="shared" ref="C36:C46" si="1">CONCATENATE(G36,H36)</f>
         <v>11V1DP103695</v>
       </c>
       <c r="D36" s="4"/>
@@ -5618,7 +5714,7 @@
         <v>7</v>
       </c>
       <c r="C37" s="4" t="str">
-        <f>CONCATENATE(G37,H37)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP104005</v>
       </c>
       <c r="D37" s="4"/>
@@ -5639,7 +5735,7 @@
         <v>7</v>
       </c>
       <c r="C38" s="4" t="str">
-        <f>CONCATENATE(G38,H38)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP104013</v>
       </c>
       <c r="D38" s="4"/>
@@ -5660,7 +5756,7 @@
         <v>7</v>
       </c>
       <c r="C39" s="4" t="str">
-        <f>CONCATENATE(G39,H39)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP104015</v>
       </c>
       <c r="D39" s="4"/>
@@ -5681,7 +5777,7 @@
         <v>7</v>
       </c>
       <c r="C40" s="4" t="str">
-        <f>CONCATENATE(G40,H40)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP104018</v>
       </c>
       <c r="D40" s="4"/>
@@ -5702,7 +5798,7 @@
         <v>7</v>
       </c>
       <c r="C41" s="4" t="str">
-        <f>CONCATENATE(G41,H41)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP104035</v>
       </c>
       <c r="D41" s="4"/>
@@ -5723,7 +5819,7 @@
         <v>7</v>
       </c>
       <c r="C42" s="4" t="str">
-        <f>CONCATENATE(G42,H42)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP104035</v>
       </c>
       <c r="D42" s="4"/>
@@ -5744,7 +5840,7 @@
         <v>7</v>
       </c>
       <c r="C43" s="4" t="str">
-        <f>CONCATENATE(G43,H43)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP104040</v>
       </c>
       <c r="D43" s="4"/>
@@ -5765,7 +5861,7 @@
         <v>7</v>
       </c>
       <c r="C44" s="4" t="str">
-        <f>CONCATENATE(G44,H44)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP104201</v>
       </c>
       <c r="D44" s="4"/>
@@ -5786,7 +5882,7 @@
         <v>7</v>
       </c>
       <c r="C45" s="4" t="str">
-        <f>CONCATENATE(G45,H45)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP104217</v>
       </c>
       <c r="D45" s="4"/>
@@ -5807,7 +5903,7 @@
         <v>7</v>
       </c>
       <c r="C46" s="4" t="str">
-        <f>CONCATENATE(G46,H46)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP108775</v>
       </c>
       <c r="D46" s="4"/>
@@ -6029,7 +6125,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -6072,7 +6168,7 @@
         <v>218</v>
       </c>
       <c r="C2" s="4" t="str">
-        <f>CONCATENATE(G2,H2)</f>
+        <f t="shared" ref="C2:C34" si="0">CONCATENATE(G2,H2)</f>
         <v>HA0J9MZQ</v>
       </c>
       <c r="D2" s="4"/>
@@ -6093,7 +6189,7 @@
         <v>218</v>
       </c>
       <c r="C3" s="4" t="str">
-        <f>CONCATENATE(G3,H3)</f>
+        <f t="shared" si="0"/>
         <v>HA0JB4N5</v>
       </c>
       <c r="D3" s="4"/>
@@ -6114,7 +6210,7 @@
         <v>218</v>
       </c>
       <c r="C4" s="4" t="str">
-        <f>CONCATENATE(G4,H4)</f>
+        <f t="shared" si="0"/>
         <v>HA0JGAQY</v>
       </c>
       <c r="D4" s="4"/>
@@ -6135,7 +6231,7 @@
         <v>218</v>
       </c>
       <c r="C5" s="4" t="str">
-        <f>CONCATENATE(G5,H5)</f>
+        <f t="shared" si="0"/>
         <v>HA0JGEZH</v>
       </c>
       <c r="D5" s="4"/>
@@ -6156,7 +6252,7 @@
         <v>218</v>
       </c>
       <c r="C6" s="4" t="str">
-        <f>CONCATENATE(G6,H6)</f>
+        <f t="shared" si="0"/>
         <v>HA0JGUUX</v>
       </c>
       <c r="D6" s="4"/>
@@ -6177,7 +6273,7 @@
         <v>218</v>
       </c>
       <c r="C7" s="4" t="str">
-        <f>CONCATENATE(G7,H7)</f>
+        <f t="shared" si="0"/>
         <v>HA0JH36X</v>
       </c>
       <c r="D7" s="4"/>
@@ -6198,7 +6294,7 @@
         <v>218</v>
       </c>
       <c r="C8" s="4" t="str">
-        <f>CONCATENATE(G8,H8)</f>
+        <f t="shared" si="0"/>
         <v>HA0JH5T0</v>
       </c>
       <c r="D8" s="4"/>
@@ -6219,7 +6315,7 @@
         <v>218</v>
       </c>
       <c r="C9" s="4" t="str">
-        <f>CONCATENATE(G9,H9)</f>
+        <f t="shared" si="0"/>
         <v>HA0JH5TE</v>
       </c>
       <c r="D9" s="4"/>
@@ -6240,7 +6336,7 @@
         <v>218</v>
       </c>
       <c r="C10" s="4" t="str">
-        <f>CONCATENATE(G10,H10)</f>
+        <f t="shared" si="0"/>
         <v>HA0JH63C</v>
       </c>
       <c r="D10" s="4"/>
@@ -6261,7 +6357,7 @@
         <v>218</v>
       </c>
       <c r="C11" s="4" t="str">
-        <f>CONCATENATE(G11,H11)</f>
+        <f t="shared" si="0"/>
         <v>HA0JH8U2</v>
       </c>
       <c r="D11" s="4"/>
@@ -6282,7 +6378,7 @@
         <v>218</v>
       </c>
       <c r="C12" s="4" t="str">
-        <f>CONCATENATE(G12,H12)</f>
+        <f t="shared" si="0"/>
         <v>HA0JH9GV</v>
       </c>
       <c r="D12" s="4"/>
@@ -6303,7 +6399,7 @@
         <v>218</v>
       </c>
       <c r="C13" s="4" t="str">
-        <f>CONCATENATE(G13,H13)</f>
+        <f t="shared" si="0"/>
         <v>HA0JHDGH</v>
       </c>
       <c r="D13" s="4"/>
@@ -6324,7 +6420,7 @@
         <v>218</v>
       </c>
       <c r="C14" s="4" t="str">
-        <f>CONCATENATE(G14,H14)</f>
+        <f t="shared" si="0"/>
         <v>HA0JHEBF</v>
       </c>
       <c r="D14" s="4"/>
@@ -6345,7 +6441,7 @@
         <v>218</v>
       </c>
       <c r="C15" s="4" t="str">
-        <f>CONCATENATE(G15,H15)</f>
+        <f t="shared" si="0"/>
         <v>HA0JHEC0</v>
       </c>
       <c r="D15" s="4"/>
@@ -6366,7 +6462,7 @@
         <v>218</v>
       </c>
       <c r="C16" s="4" t="str">
-        <f>CONCATENATE(G16,H16)</f>
+        <f t="shared" si="0"/>
         <v>HA0JHEXZ</v>
       </c>
       <c r="D16" s="4"/>
@@ -6387,7 +6483,7 @@
         <v>218</v>
       </c>
       <c r="C17" s="4" t="str">
-        <f>CONCATENATE(G17,H17)</f>
+        <f t="shared" si="0"/>
         <v>HA0JHF02</v>
       </c>
       <c r="D17" s="4"/>
@@ -6408,7 +6504,7 @@
         <v>218</v>
       </c>
       <c r="C18" s="4" t="str">
-        <f>CONCATENATE(G18,H18)</f>
+        <f t="shared" si="0"/>
         <v>HA0JHH37</v>
       </c>
       <c r="D18" s="4"/>
@@ -6429,7 +6525,7 @@
         <v>218</v>
       </c>
       <c r="C19" s="4" t="str">
-        <f>CONCATENATE(G19,H19)</f>
+        <f t="shared" si="0"/>
         <v>HA0JHHWV</v>
       </c>
       <c r="D19" s="4"/>
@@ -6450,7 +6546,7 @@
         <v>218</v>
       </c>
       <c r="C20" s="4" t="str">
-        <f>CONCATENATE(G20,H20)</f>
+        <f t="shared" si="0"/>
         <v>HA0JHJ3C</v>
       </c>
       <c r="D20" s="4"/>
@@ -6471,7 +6567,7 @@
         <v>218</v>
       </c>
       <c r="C21" s="4" t="str">
-        <f>CONCATENATE(G21,H21)</f>
+        <f t="shared" si="0"/>
         <v>HA0JHPR2</v>
       </c>
       <c r="D21" s="4"/>
@@ -6492,7 +6588,7 @@
         <v>218</v>
       </c>
       <c r="C22" s="4" t="str">
-        <f>CONCATENATE(G22,H22)</f>
+        <f t="shared" si="0"/>
         <v>HA0JHQY8</v>
       </c>
       <c r="D22" s="4"/>
@@ -6513,7 +6609,7 @@
         <v>218</v>
       </c>
       <c r="C23" s="4" t="str">
-        <f>CONCATENATE(G23,H23)</f>
+        <f t="shared" si="0"/>
         <v>HA0JHR31</v>
       </c>
       <c r="D23" s="4"/>
@@ -6534,7 +6630,7 @@
         <v>218</v>
       </c>
       <c r="C24" s="4" t="str">
-        <f>CONCATENATE(G24,H24)</f>
+        <f t="shared" si="0"/>
         <v>HA0JHU0C</v>
       </c>
       <c r="D24" s="4"/>
@@ -6555,7 +6651,7 @@
         <v>218</v>
       </c>
       <c r="C25" s="4" t="str">
-        <f>CONCATENATE(G25,H25)</f>
+        <f t="shared" si="0"/>
         <v>HA0JHU54</v>
       </c>
       <c r="D25" s="4"/>
@@ -6576,7 +6672,7 @@
         <v>218</v>
       </c>
       <c r="C26" s="4" t="str">
-        <f>CONCATENATE(G26,H26)</f>
+        <f t="shared" si="0"/>
         <v>HA0JHU60</v>
       </c>
       <c r="D26" s="4"/>
@@ -6597,7 +6693,7 @@
         <v>218</v>
       </c>
       <c r="C27" s="4" t="str">
-        <f>CONCATENATE(G27,H27)</f>
+        <f t="shared" si="0"/>
         <v>HA0JJ0PV</v>
       </c>
       <c r="D27" s="4"/>
@@ -6618,7 +6714,7 @@
         <v>218</v>
       </c>
       <c r="C28" s="4" t="str">
-        <f>CONCATENATE(G28,H28)</f>
+        <f t="shared" si="0"/>
         <v>HA0JJ0XA</v>
       </c>
       <c r="D28" s="4"/>
@@ -6639,7 +6735,7 @@
         <v>218</v>
       </c>
       <c r="C29" s="4" t="str">
-        <f>CONCATENATE(G29,H29)</f>
+        <f t="shared" si="0"/>
         <v>HA0JJ1B1</v>
       </c>
       <c r="D29" s="4"/>
@@ -6660,7 +6756,7 @@
         <v>218</v>
       </c>
       <c r="C30" s="4" t="str">
-        <f>CONCATENATE(G30,H30)</f>
+        <f t="shared" si="0"/>
         <v>HA0JJ2HC</v>
       </c>
       <c r="D30" s="4"/>
@@ -6681,7 +6777,7 @@
         <v>218</v>
       </c>
       <c r="C31" s="4" t="str">
-        <f>CONCATENATE(G31,H31)</f>
+        <f t="shared" si="0"/>
         <v>HA0JJ2YP</v>
       </c>
       <c r="D31" s="4"/>
@@ -6702,7 +6798,7 @@
         <v>218</v>
       </c>
       <c r="C32" s="4" t="str">
-        <f>CONCATENATE(G32,H32)</f>
+        <f t="shared" si="0"/>
         <v>HA0JJA8P</v>
       </c>
       <c r="D32" s="4"/>
@@ -6723,7 +6819,7 @@
         <v>218</v>
       </c>
       <c r="C33" s="4" t="str">
-        <f>CONCATENATE(G33,H33)</f>
+        <f t="shared" si="0"/>
         <v>HA0JJAB3</v>
       </c>
       <c r="D33" s="4"/>
@@ -6744,7 +6840,7 @@
         <v>218</v>
       </c>
       <c r="C34" s="4" t="str">
-        <f>CONCATENATE(G34,H34)</f>
+        <f t="shared" si="0"/>
         <v>HA0JJBQ7</v>
       </c>
       <c r="D34" s="4"/>
@@ -6785,7 +6881,7 @@
         <v>218</v>
       </c>
       <c r="C36" s="4" t="str">
-        <f>CONCATENATE(G36,H36)</f>
+        <f t="shared" ref="C36:C60" si="1">CONCATENATE(G36,H36)</f>
         <v>HA0JJDRA</v>
       </c>
       <c r="D36" s="4"/>
@@ -6806,7 +6902,7 @@
         <v>218</v>
       </c>
       <c r="C37" s="4" t="str">
-        <f>CONCATENATE(G37,H37)</f>
+        <f t="shared" si="1"/>
         <v>HA0JJE8G</v>
       </c>
       <c r="D37" s="4"/>
@@ -6827,7 +6923,7 @@
         <v>218</v>
       </c>
       <c r="C38" s="4" t="str">
-        <f>CONCATENATE(G38,H38)</f>
+        <f t="shared" si="1"/>
         <v>HA0JMX5B</v>
       </c>
       <c r="D38" s="4"/>
@@ -6848,7 +6944,7 @@
         <v>218</v>
       </c>
       <c r="C39" s="4" t="str">
-        <f>CONCATENATE(G39,H39)</f>
+        <f t="shared" si="1"/>
         <v>HA0JNAND</v>
       </c>
       <c r="D39" s="4"/>
@@ -6869,7 +6965,7 @@
         <v>218</v>
       </c>
       <c r="C40" s="4" t="str">
-        <f>CONCATENATE(G40,H40)</f>
+        <f t="shared" si="1"/>
         <v>HA0JNJ3B</v>
       </c>
       <c r="D40" s="4"/>
@@ -6890,7 +6986,7 @@
         <v>218</v>
       </c>
       <c r="C41" s="4" t="str">
-        <f>CONCATENATE(G41,H41)</f>
+        <f t="shared" si="1"/>
         <v>HA0JNV8Z</v>
       </c>
       <c r="D41" s="4"/>
@@ -6911,7 +7007,7 @@
         <v>218</v>
       </c>
       <c r="C42" s="4" t="str">
-        <f>CONCATENATE(G42,H42)</f>
+        <f t="shared" si="1"/>
         <v>HA0JNWAJ</v>
       </c>
       <c r="D42" s="4"/>
@@ -6932,7 +7028,7 @@
         <v>218</v>
       </c>
       <c r="C43" s="4" t="str">
-        <f>CONCATENATE(G43,H43)</f>
+        <f t="shared" si="1"/>
         <v>HA0JNWCE</v>
       </c>
       <c r="D43" s="4"/>
@@ -6953,7 +7049,7 @@
         <v>218</v>
       </c>
       <c r="C44" s="4" t="str">
-        <f>CONCATENATE(G44,H44)</f>
+        <f t="shared" si="1"/>
         <v>HA0JNYK9</v>
       </c>
       <c r="D44" s="4"/>
@@ -6974,7 +7070,7 @@
         <v>218</v>
       </c>
       <c r="C45" s="4" t="str">
-        <f>CONCATENATE(G45,H45)</f>
+        <f t="shared" si="1"/>
         <v>HA0JP088</v>
       </c>
       <c r="D45" s="4"/>
@@ -6995,7 +7091,7 @@
         <v>218</v>
       </c>
       <c r="C46" s="4" t="str">
-        <f>CONCATENATE(G46,H46)</f>
+        <f t="shared" si="1"/>
         <v>HA0JP0BB</v>
       </c>
       <c r="D46" s="4"/>
@@ -7016,7 +7112,7 @@
         <v>218</v>
       </c>
       <c r="C47" s="4" t="str">
-        <f>CONCATENATE(G47,H47)</f>
+        <f t="shared" si="1"/>
         <v>HA0JP22E</v>
       </c>
       <c r="D47" s="4"/>
@@ -7037,7 +7133,7 @@
         <v>218</v>
       </c>
       <c r="C48" s="4" t="str">
-        <f>CONCATENATE(G48,H48)</f>
+        <f t="shared" si="1"/>
         <v>HA0JP2J9</v>
       </c>
       <c r="D48" s="4"/>
@@ -7058,7 +7154,7 @@
         <v>218</v>
       </c>
       <c r="C49" s="4" t="str">
-        <f>CONCATENATE(G49,H49)</f>
+        <f t="shared" si="1"/>
         <v>HA0JP3F7</v>
       </c>
       <c r="D49" s="4"/>
@@ -7079,7 +7175,7 @@
         <v>218</v>
       </c>
       <c r="C50" s="4" t="str">
-        <f>CONCATENATE(G50,H50)</f>
+        <f t="shared" si="1"/>
         <v>HA0JP9JM</v>
       </c>
       <c r="D50" s="4"/>
@@ -7100,7 +7196,7 @@
         <v>218</v>
       </c>
       <c r="C51" s="4" t="str">
-        <f>CONCATENATE(G51,H51)</f>
+        <f t="shared" si="1"/>
         <v>HA0JPARP</v>
       </c>
       <c r="D51" s="4"/>
@@ -7121,7 +7217,7 @@
         <v>218</v>
       </c>
       <c r="C52" s="4" t="str">
-        <f>CONCATENATE(G52,H52)</f>
+        <f t="shared" si="1"/>
         <v>HA0JPAS5</v>
       </c>
       <c r="D52" s="4"/>
@@ -7142,7 +7238,7 @@
         <v>218</v>
       </c>
       <c r="C53" s="4" t="str">
-        <f>CONCATENATE(G53,H53)</f>
+        <f t="shared" si="1"/>
         <v>HA0JPFCA</v>
       </c>
       <c r="D53" s="4"/>
@@ -7163,7 +7259,7 @@
         <v>218</v>
       </c>
       <c r="C54" s="4" t="str">
-        <f>CONCATENATE(G54,H54)</f>
+        <f t="shared" si="1"/>
         <v>HA0JPM7Y</v>
       </c>
       <c r="D54" s="4"/>
@@ -7184,7 +7280,7 @@
         <v>218</v>
       </c>
       <c r="C55" s="4" t="str">
-        <f>CONCATENATE(G55,H55)</f>
+        <f t="shared" si="1"/>
         <v>HA0JPNLR</v>
       </c>
       <c r="D55" s="4"/>
@@ -7205,7 +7301,7 @@
         <v>218</v>
       </c>
       <c r="C56" s="4" t="str">
-        <f>CONCATENATE(G56,H56)</f>
+        <f t="shared" si="1"/>
         <v>HA0JPUK0</v>
       </c>
       <c r="D56" s="4"/>
@@ -7226,7 +7322,7 @@
         <v>218</v>
       </c>
       <c r="C57" s="4" t="str">
-        <f>CONCATENATE(G57,H57)</f>
+        <f t="shared" si="1"/>
         <v>HA0JPWKE</v>
       </c>
       <c r="D57" s="4"/>
@@ -7247,7 +7343,7 @@
         <v>218</v>
       </c>
       <c r="C58" s="4" t="str">
-        <f>CONCATENATE(G58,H58)</f>
+        <f t="shared" si="1"/>
         <v>HA0JPYPM</v>
       </c>
       <c r="D58" s="4"/>
@@ -7268,7 +7364,7 @@
         <v>218</v>
       </c>
       <c r="C59" s="4" t="str">
-        <f>CONCATENATE(G59,H59)</f>
+        <f t="shared" si="1"/>
         <v>HA0JQ0T1</v>
       </c>
       <c r="D59" s="4"/>
@@ -7289,7 +7385,7 @@
         <v>218</v>
       </c>
       <c r="C60" s="4" t="str">
-        <f>CONCATENATE(G60,H60)</f>
+        <f t="shared" si="1"/>
         <v>HA0JQ6P5</v>
       </c>
       <c r="D60" s="4"/>
@@ -7316,14 +7412,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:XFD35"/>
+    <sheetView view="pageLayout" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" customWidth="1"/>
     <col min="4" max="4" width="34.28515625" customWidth="1"/>
     <col min="5" max="5" width="44.140625" customWidth="1"/>
@@ -8720,7 +8816,7 @@
       <c r="F68" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.40625" right="0.35416666666666669" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.32291666666666669" right="0.35416666666666669" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;A&amp;CTABLETS ALLOCATION FORM</oddHeader>
@@ -9902,7 +9998,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A32" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A32" workbookViewId="0">
       <selection activeCell="B36" sqref="B36:B59"/>
     </sheetView>
   </sheetViews>
@@ -11238,17 +11334,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O89"/>
+  <dimension ref="A1:H91"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView view="pageLayout" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
     <col min="4" max="4" width="31.28515625" customWidth="1"/>
     <col min="5" max="5" width="38" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
@@ -11286,7 +11382,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="4" t="str">
-        <f>CONCATENATE(G2,H2)</f>
+        <f t="shared" ref="C2:C33" si="0">CONCATENATE(G2,H2)</f>
         <v>M7043GVCJDG2707201500171</v>
       </c>
       <c r="D2" s="4"/>
@@ -11307,7 +11403,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="4" t="str">
-        <f>CONCATENATE(G3,H3)</f>
+        <f t="shared" si="0"/>
         <v>M7043GVCJDG2707201500176</v>
       </c>
       <c r="D3" s="4"/>
@@ -11328,7 +11424,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="4" t="str">
-        <f>CONCATENATE(G4,H4)</f>
+        <f t="shared" si="0"/>
         <v>M7043GVCJDG2707201504864</v>
       </c>
       <c r="D4" s="4"/>
@@ -11349,7 +11445,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="4" t="str">
-        <f>CONCATENATE(G5,H5)</f>
+        <f t="shared" si="0"/>
         <v>M7043GVCJDG2707201504870</v>
       </c>
       <c r="D5" s="4"/>
@@ -11370,7 +11466,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="4" t="str">
-        <f>CONCATENATE(G6,H6)</f>
+        <f t="shared" si="0"/>
         <v>M7043GVCJDG2707201505269</v>
       </c>
       <c r="D6" s="4"/>
@@ -11391,7 +11487,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="4" t="str">
-        <f>CONCATENATE(G7,H7)</f>
+        <f t="shared" si="0"/>
         <v>M7043GVCJDG2707201505325</v>
       </c>
       <c r="D7" s="4"/>
@@ -11412,7 +11508,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="4" t="str">
-        <f>CONCATENATE(G8,H8)</f>
+        <f t="shared" si="0"/>
         <v>M7043GVCJDG2707201505442</v>
       </c>
       <c r="D8" s="4"/>
@@ -11433,7 +11529,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4" t="str">
-        <f>CONCATENATE(G9,H9)</f>
+        <f t="shared" si="0"/>
         <v>M7043GVCJDG2707201505511</v>
       </c>
       <c r="D9" s="4"/>
@@ -11454,7 +11550,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="4" t="str">
-        <f>CONCATENATE(G10,H10)</f>
+        <f t="shared" si="0"/>
         <v>M7043GVCJDG2707201505512</v>
       </c>
       <c r="D10" s="4"/>
@@ -11475,7 +11571,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="4" t="str">
-        <f>CONCATENATE(G11,H11)</f>
+        <f t="shared" si="0"/>
         <v>M7043GVCJDG2707201505600</v>
       </c>
       <c r="D11" s="4"/>
@@ -11496,7 +11592,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="4" t="str">
-        <f>CONCATENATE(G12,H12)</f>
+        <f t="shared" si="0"/>
         <v>M7043GVCJDG2707201505646</v>
       </c>
       <c r="D12" s="4"/>
@@ -11517,7 +11613,7 @@
         <v>6</v>
       </c>
       <c r="C13" s="4" t="str">
-        <f>CONCATENATE(G13,H13)</f>
+        <f t="shared" si="0"/>
         <v>M7043GVCJDG2707201506131</v>
       </c>
       <c r="D13" s="4"/>
@@ -11538,7 +11634,7 @@
         <v>6</v>
       </c>
       <c r="C14" s="4" t="str">
-        <f>CONCATENATE(G14,H14)</f>
+        <f t="shared" si="0"/>
         <v>M7043GVCJDG2707201506137</v>
       </c>
       <c r="D14" s="4"/>
@@ -11559,7 +11655,7 @@
         <v>6</v>
       </c>
       <c r="C15" s="4" t="str">
-        <f>CONCATENATE(G15,H15)</f>
+        <f t="shared" si="0"/>
         <v>M7043GVCJDG2707201506162</v>
       </c>
       <c r="D15" s="4"/>
@@ -11580,7 +11676,7 @@
         <v>6</v>
       </c>
       <c r="C16" s="4" t="str">
-        <f>CONCATENATE(G16,H16)</f>
+        <f t="shared" si="0"/>
         <v>M7043GVCJDG2707201506255</v>
       </c>
       <c r="D16" s="4"/>
@@ -11601,7 +11697,7 @@
         <v>6</v>
       </c>
       <c r="C17" s="4" t="str">
-        <f>CONCATENATE(G17,H17)</f>
+        <f t="shared" si="0"/>
         <v>M7043GVCJDG2707201506471</v>
       </c>
       <c r="D17" s="4"/>
@@ -11622,7 +11718,7 @@
         <v>6</v>
       </c>
       <c r="C18" s="4" t="str">
-        <f>CONCATENATE(G18,H18)</f>
+        <f t="shared" si="0"/>
         <v>M7043GVCJDG2707201506472</v>
       </c>
       <c r="D18" s="4"/>
@@ -11643,7 +11739,7 @@
         <v>6</v>
       </c>
       <c r="C19" s="4" t="str">
-        <f>CONCATENATE(G19,H19)</f>
+        <f t="shared" si="0"/>
         <v>M7043GVCJDG2707201506474</v>
       </c>
       <c r="D19" s="4"/>
@@ -11664,7 +11760,7 @@
         <v>6</v>
       </c>
       <c r="C20" s="4" t="str">
-        <f>CONCATENATE(G20,H20)</f>
+        <f t="shared" si="0"/>
         <v>M7043GVCJDG2707201506478</v>
       </c>
       <c r="D20" s="4"/>
@@ -11685,7 +11781,7 @@
         <v>6</v>
       </c>
       <c r="C21" s="4" t="str">
-        <f>CONCATENATE(G21,H21)</f>
+        <f t="shared" si="0"/>
         <v>M7043GVCJDG2707201506618</v>
       </c>
       <c r="D21" s="4"/>
@@ -11706,7 +11802,7 @@
         <v>6</v>
       </c>
       <c r="C22" s="4" t="str">
-        <f>CONCATENATE(G22,H22)</f>
+        <f t="shared" si="0"/>
         <v>M7043GVCJDG2707201506620</v>
       </c>
       <c r="D22" s="4"/>
@@ -11727,7 +11823,7 @@
         <v>6</v>
       </c>
       <c r="C23" s="4" t="str">
-        <f>CONCATENATE(G23,H23)</f>
+        <f t="shared" si="0"/>
         <v>M7043GVCJDG2707201506748</v>
       </c>
       <c r="D23" s="4"/>
@@ -11748,7 +11844,7 @@
         <v>6</v>
       </c>
       <c r="C24" s="4" t="str">
-        <f>CONCATENATE(G24,H24)</f>
+        <f t="shared" si="0"/>
         <v>M7043GVCJDG2707201506853</v>
       </c>
       <c r="D24" s="4"/>
@@ -11769,7 +11865,7 @@
         <v>6</v>
       </c>
       <c r="C25" s="4" t="str">
-        <f>CONCATENATE(G25,H25)</f>
+        <f t="shared" si="0"/>
         <v>M7043GVCJDG2707201507114</v>
       </c>
       <c r="D25" s="4"/>
@@ -11790,7 +11886,7 @@
         <v>6</v>
       </c>
       <c r="C26" s="4" t="str">
-        <f>CONCATENATE(G26,H26)</f>
+        <f t="shared" si="0"/>
         <v>M7043GVCJDG2707201507115</v>
       </c>
       <c r="D26" s="4"/>
@@ -11811,7 +11907,7 @@
         <v>6</v>
       </c>
       <c r="C27" s="4" t="str">
-        <f>CONCATENATE(G27,H27)</f>
+        <f t="shared" si="0"/>
         <v>M7043GVCJDG2707201507243</v>
       </c>
       <c r="D27" s="4"/>
@@ -11832,7 +11928,7 @@
         <v>6</v>
       </c>
       <c r="C28" s="4" t="str">
-        <f>CONCATENATE(G28,H28)</f>
+        <f t="shared" si="0"/>
         <v>M7043GVCJDG2707201507244</v>
       </c>
       <c r="D28" s="4"/>
@@ -11853,7 +11949,7 @@
         <v>6</v>
       </c>
       <c r="C29" s="4" t="str">
-        <f>CONCATENATE(G29,H29)</f>
+        <f t="shared" si="0"/>
         <v>M7043GVCJDG2707201507357</v>
       </c>
       <c r="D29" s="4"/>
@@ -11874,7 +11970,7 @@
         <v>6</v>
       </c>
       <c r="C30" s="4" t="str">
-        <f>CONCATENATE(G30,H30)</f>
+        <f t="shared" si="0"/>
         <v>M7043GVCJDG2707201507360</v>
       </c>
       <c r="D30" s="4"/>
@@ -11895,7 +11991,7 @@
         <v>6</v>
       </c>
       <c r="C31" s="4" t="str">
-        <f>CONCATENATE(G31,H31)</f>
+        <f t="shared" si="0"/>
         <v>M7043GVCJDG2707201507689</v>
       </c>
       <c r="D31" s="4"/>
@@ -11916,7 +12012,7 @@
         <v>6</v>
       </c>
       <c r="C32" s="4" t="str">
-        <f>CONCATENATE(G32,H32)</f>
+        <f t="shared" si="0"/>
         <v>M7043GVCJDG2707201507694</v>
       </c>
       <c r="D32" s="4"/>
@@ -11937,7 +12033,7 @@
         <v>6</v>
       </c>
       <c r="C33" s="4" t="str">
-        <f>CONCATENATE(G33,H33)</f>
+        <f t="shared" si="0"/>
         <v>M7043GVCJDG2707201507695</v>
       </c>
       <c r="D33" s="4"/>
@@ -11958,7 +12054,7 @@
         <v>6</v>
       </c>
       <c r="C34" s="4" t="str">
-        <f>CONCATENATE(G34,H34)</f>
+        <f t="shared" ref="C34:C66" si="1">CONCATENATE(G34,H34)</f>
         <v>M7043GVCJDG2707201507709</v>
       </c>
       <c r="D34" s="4"/>
@@ -11971,37 +12067,38 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="4">
-        <v>34</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="4" t="str">
-        <f>CONCATENATE(G35,H35)</f>
-        <v>M7043GVCJDG2707201507877</v>
-      </c>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>84</v>
-      </c>
+    <row r="35" spans="1:8" ht="18.75">
+      <c r="A35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="4">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C36" s="4" t="str">
-        <f>CONCATENATE(G36,H36)</f>
-        <v>M7043GVCJDG2707201507921</v>
+        <f t="shared" si="1"/>
+        <v>M7043GVCJDG2707201507877</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -12010,19 +12107,19 @@
         <v>47</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>121</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="4">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C37" s="4" t="str">
-        <f>CONCATENATE(G37,H37)</f>
-        <v>M7043GVCJDG2707201507929</v>
+        <f t="shared" si="1"/>
+        <v>M7043GVCJDG2707201507921</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -12031,19 +12128,19 @@
         <v>47</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="4">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C38" s="4" t="str">
-        <f>CONCATENATE(G38,H38)</f>
-        <v>M7043GVCJDG2707201508268</v>
+        <f t="shared" si="1"/>
+        <v>M7043GVCJDG2707201507929</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -12052,19 +12149,19 @@
         <v>47</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>125</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="4">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C39" s="4" t="str">
-        <f>CONCATENATE(G39,H39)</f>
-        <v>M7043GVCJDG2707201508374</v>
+        <f t="shared" si="1"/>
+        <v>M7043GVCJDG2707201508268</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -12073,19 +12170,19 @@
         <v>47</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="4">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C40" s="4" t="str">
-        <f>CONCATENATE(G40,H40)</f>
-        <v>M7043GVCJDG2707201508386</v>
+        <f t="shared" si="1"/>
+        <v>M7043GVCJDG2707201508374</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -12094,19 +12191,19 @@
         <v>47</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="4">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C41" s="4" t="str">
-        <f>CONCATENATE(G41,H41)</f>
-        <v>M7043GVCJDG2707201508410</v>
+        <f t="shared" si="1"/>
+        <v>M7043GVCJDG2707201508386</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -12115,19 +12212,19 @@
         <v>47</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>109</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="4">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C42" s="4" t="str">
-        <f>CONCATENATE(G42,H42)</f>
-        <v>M7043GVCJDG2707201508502</v>
+        <f t="shared" si="1"/>
+        <v>M7043GVCJDG2707201508410</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
@@ -12136,19 +12233,19 @@
         <v>47</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="4">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C43" s="4" t="str">
-        <f>CONCATENATE(G43,H43)</f>
-        <v>M7043GVCJDG2707201508690</v>
+        <f t="shared" si="1"/>
+        <v>M7043GVCJDG2707201508502</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -12157,19 +12254,19 @@
         <v>47</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>73</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="4">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C44" s="4" t="str">
-        <f>CONCATENATE(G44,H44)</f>
-        <v>M7043GVCJDG2707201508922</v>
+        <f t="shared" si="1"/>
+        <v>M7043GVCJDG2707201508690</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -12178,19 +12275,19 @@
         <v>47</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="4">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C45" s="4" t="str">
-        <f>CONCATENATE(G45,H45)</f>
-        <v>M7043GVCJDG2707201508924</v>
+        <f t="shared" si="1"/>
+        <v>M7043GVCJDG2707201508922</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
@@ -12199,19 +12296,19 @@
         <v>47</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="4">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C46" s="4" t="str">
-        <f>CONCATENATE(G46,H46)</f>
-        <v>M7043GVCJDG2707201509161</v>
+        <f t="shared" si="1"/>
+        <v>M7043GVCJDG2707201508924</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
@@ -12220,19 +12317,19 @@
         <v>47</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="4">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C47" s="4" t="str">
-        <f>CONCATENATE(G47,H47)</f>
-        <v>M7043GVCJDG2707201509162</v>
+        <f t="shared" si="1"/>
+        <v>M7043GVCJDG2707201509161</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
@@ -12241,19 +12338,19 @@
         <v>47</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="4">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C48" s="4" t="str">
-        <f>CONCATENATE(G48,H48)</f>
-        <v>M7043GVCJDG2707201509492</v>
+        <f t="shared" si="1"/>
+        <v>M7043GVCJDG2707201509162</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
@@ -12262,19 +12359,19 @@
         <v>47</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="4">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C49" s="4" t="str">
-        <f>CONCATENATE(G49,H49)</f>
-        <v>M7043GVCJDG2707201509783</v>
+        <f t="shared" si="1"/>
+        <v>M7043GVCJDG2707201509492</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
@@ -12283,19 +12380,19 @@
         <v>47</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="4">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C50" s="4" t="str">
-        <f>CONCATENATE(G50,H50)</f>
-        <v>M7043GVCJDG2707201510094</v>
+        <f t="shared" si="1"/>
+        <v>M7043GVCJDG2707201509783</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
@@ -12304,19 +12401,19 @@
         <v>47</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="4">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C51" s="4" t="str">
-        <f>CONCATENATE(G51,H51)</f>
-        <v>M7043GVCJDG2707201510622</v>
+        <f t="shared" si="1"/>
+        <v>M7043GVCJDG2707201510094</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
@@ -12325,19 +12422,19 @@
         <v>47</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="4">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C52" s="4" t="str">
-        <f>CONCATENATE(G52,H52)</f>
-        <v>M7043GVCJDG2707201510663</v>
+        <f t="shared" si="1"/>
+        <v>M7043GVCJDG2707201510622</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
@@ -12346,19 +12443,19 @@
         <v>47</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="4">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C53" s="4" t="str">
-        <f>CONCATENATE(G53,H53)</f>
-        <v>M7043GVCJDG2707201510666</v>
+        <f t="shared" si="1"/>
+        <v>M7043GVCJDG2707201510663</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
@@ -12367,19 +12464,19 @@
         <v>47</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="4">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C54" s="4" t="str">
-        <f>CONCATENATE(G54,H54)</f>
-        <v>M7043GVCJDG2707201510791</v>
+        <f t="shared" si="1"/>
+        <v>M7043GVCJDG2707201510666</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
@@ -12388,19 +12485,19 @@
         <v>47</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>112</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="4">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C55" s="4" t="str">
-        <f>CONCATENATE(G55,H55)</f>
-        <v>M7043GVCJDG2707201510837</v>
+        <f t="shared" si="1"/>
+        <v>M7043GVCJDG2707201510791</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
@@ -12409,19 +12506,19 @@
         <v>47</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="4">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C56" s="4" t="str">
-        <f>CONCATENATE(G56,H56)</f>
-        <v>M7043GVCJDG2707201510838</v>
+        <f t="shared" si="1"/>
+        <v>M7043GVCJDG2707201510837</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
@@ -12430,19 +12527,19 @@
         <v>47</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="4">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C57" s="4" t="str">
-        <f>CONCATENATE(G57,H57)</f>
-        <v>M7043GVCJDG2707201511052</v>
+        <f t="shared" si="1"/>
+        <v>M7043GVCJDG2707201510838</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
@@ -12451,19 +12548,19 @@
         <v>47</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>130</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="4">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C58" s="4" t="str">
-        <f>CONCATENATE(G58,H58)</f>
-        <v>M7043GVCJDG2707201511158</v>
+        <f t="shared" si="1"/>
+        <v>M7043GVCJDG2707201511052</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
@@ -12472,19 +12569,19 @@
         <v>47</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="4">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C59" s="4" t="str">
-        <f>CONCATENATE(G59,H59)</f>
-        <v>M7043GVCJDG2707201511197</v>
+        <f t="shared" si="1"/>
+        <v>M7043GVCJDG2707201511158</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
@@ -12493,19 +12590,19 @@
         <v>47</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="4">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C60" s="4" t="str">
-        <f>CONCATENATE(G60,H60)</f>
-        <v>M7043GVCJDG2707201511199</v>
+        <f t="shared" si="1"/>
+        <v>M7043GVCJDG2707201511197</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
@@ -12514,19 +12611,19 @@
         <v>47</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="4">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C61" s="4" t="str">
-        <f>CONCATENATE(G61,H61)</f>
-        <v>M7043GVCJDG2707201511836</v>
+        <f t="shared" si="1"/>
+        <v>M7043GVCJDG2707201511199</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
@@ -12535,19 +12632,19 @@
         <v>47</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>68</v>
+        <v>110</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="4">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C62" s="4" t="str">
-        <f>CONCATENATE(G62,H62)</f>
-        <v>M7043GVCJDG2707201511882</v>
+        <f t="shared" si="1"/>
+        <v>M7043GVCJDG2707201511836</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
@@ -12556,19 +12653,19 @@
         <v>47</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="4">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C63" s="4" t="str">
-        <f>CONCATENATE(G63,H63)</f>
-        <v>M7043GVCJDG2707201511886</v>
+        <f t="shared" si="1"/>
+        <v>M7043GVCJDG2707201511882</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
@@ -12577,19 +12674,19 @@
         <v>47</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="4">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C64" s="4" t="str">
-        <f>CONCATENATE(G64,H64)</f>
-        <v>M7043GVCJDG2707201512214</v>
+        <f t="shared" si="1"/>
+        <v>M7043GVCJDG2707201511886</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
@@ -12598,19 +12695,19 @@
         <v>47</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="4">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C65" s="4" t="str">
-        <f>CONCATENATE(G65,H65)</f>
-        <v>M7043GVCJDG2707201512250</v>
+        <f t="shared" si="1"/>
+        <v>M7043GVCJDG2707201512214</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
@@ -12619,19 +12716,19 @@
         <v>47</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="4">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C66" s="4" t="str">
-        <f>CONCATENATE(G66,H66)</f>
-        <v>M7043GVCJDG2707201512322</v>
+        <f t="shared" si="1"/>
+        <v>M7043GVCJDG2707201512250</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
@@ -12640,19 +12737,19 @@
         <v>47</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>132</v>
+        <v>69</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="4">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C67" s="4" t="str">
-        <f>CONCATENATE(G67,H67)</f>
-        <v>M7043GVCJDG2707201512914</v>
+        <f t="shared" ref="C67:C90" si="2">CONCATENATE(G67,H67)</f>
+        <v>M7043GVCJDG2707201512322</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
@@ -12661,19 +12758,19 @@
         <v>47</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>56</v>
+        <v>132</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="4">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C68" s="4" t="str">
-        <f>CONCATENATE(G68,H68)</f>
-        <v>M7043GVCJDG2707201512918</v>
+        <f t="shared" si="2"/>
+        <v>M7043GVCJDG2707201512914</v>
       </c>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
@@ -12682,40 +12779,41 @@
         <v>47</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
-      <c r="A69" s="4">
-        <v>68</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C69" s="4" t="str">
-        <f>CONCATENATE(G69,H69)</f>
-        <v>M7043GVCJDG2707201512919</v>
-      </c>
-      <c r="D69" s="4"/>
-      <c r="E69" s="4"/>
-      <c r="F69" s="4"/>
-      <c r="G69" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H69" s="6" t="s">
-        <v>79</v>
-      </c>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="18.75">
+      <c r="A69" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="4">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C70" s="4" t="str">
-        <f>CONCATENATE(G70,H70)</f>
-        <v>M7043GVCJDG2707201513145</v>
+        <f t="shared" si="2"/>
+        <v>M7043GVCJDG2707201512918</v>
       </c>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
@@ -12724,19 +12822,19 @@
         <v>47</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="4">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C71" s="4" t="str">
-        <f>CONCATENATE(G71,H71)</f>
-        <v>M7043GVCJDG2707201513158</v>
+        <f t="shared" si="2"/>
+        <v>M7043GVCJDG2707201512919</v>
       </c>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
@@ -12745,19 +12843,19 @@
         <v>47</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="4">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C72" s="4" t="str">
-        <f>CONCATENATE(G72,H72)</f>
-        <v>M7043GVCJDG2707201513293</v>
+        <f t="shared" si="2"/>
+        <v>M7043GVCJDG2707201513145</v>
       </c>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
@@ -12766,19 +12864,19 @@
         <v>47</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="4">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C73" s="4" t="str">
-        <f>CONCATENATE(G73,H73)</f>
-        <v>M7043GVCJDG2707201513295</v>
+        <f t="shared" si="2"/>
+        <v>M7043GVCJDG2707201513158</v>
       </c>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
@@ -12787,19 +12885,19 @@
         <v>47</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="4">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C74" s="4" t="str">
-        <f>CONCATENATE(G74,H74)</f>
-        <v>M7043GVCJDG2707201513296</v>
+        <f t="shared" si="2"/>
+        <v>M7043GVCJDG2707201513293</v>
       </c>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
@@ -12808,19 +12906,19 @@
         <v>47</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="4">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C75" s="4" t="str">
-        <f>CONCATENATE(G75,H75)</f>
-        <v>M7043GVCJDG2707201513643</v>
+        <f t="shared" si="2"/>
+        <v>M7043GVCJDG2707201513295</v>
       </c>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
@@ -12829,19 +12927,19 @@
         <v>47</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="4">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C76" s="4" t="str">
-        <f>CONCATENATE(G76,H76)</f>
-        <v>M7043GVCJDG2707201514402</v>
+        <f t="shared" si="2"/>
+        <v>M7043GVCJDG2707201513296</v>
       </c>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
@@ -12850,19 +12948,19 @@
         <v>47</v>
       </c>
       <c r="H76" s="6" t="s">
-        <v>127</v>
+        <v>81</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="4">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C77" s="4" t="str">
-        <f>CONCATENATE(G77,H77)</f>
-        <v>M7043GVCJDG2707201514491</v>
+        <f t="shared" si="2"/>
+        <v>M7043GVCJDG2707201513643</v>
       </c>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
@@ -12871,19 +12969,19 @@
         <v>47</v>
       </c>
       <c r="H77" s="6" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="4">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C78" s="4" t="str">
-        <f>CONCATENATE(G78,H78)</f>
-        <v>M7043GVCJDG2707201514496</v>
+        <f t="shared" si="2"/>
+        <v>M7043GVCJDG2707201514402</v>
       </c>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
@@ -12892,19 +12990,19 @@
         <v>47</v>
       </c>
       <c r="H78" s="6" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="4">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C79" s="4" t="str">
-        <f>CONCATENATE(G79,H79)</f>
-        <v>M7043GVCJDG2707201514500</v>
+        <f t="shared" si="2"/>
+        <v>M7043GVCJDG2707201514491</v>
       </c>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
@@ -12913,19 +13011,19 @@
         <v>47</v>
       </c>
       <c r="H79" s="6" t="s">
-        <v>66</v>
+        <v>128</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="4">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C80" s="4" t="str">
-        <f>CONCATENATE(G80,H80)</f>
-        <v>M7043GVCJDG2707201514557</v>
+        <f t="shared" si="2"/>
+        <v>M7043GVCJDG2707201514496</v>
       </c>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
@@ -12934,19 +13032,19 @@
         <v>47</v>
       </c>
       <c r="H80" s="6" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="4">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C81" s="4" t="str">
-        <f>CONCATENATE(G81,H81)</f>
-        <v>M7043GVCJDG2707201514844</v>
+        <f t="shared" si="2"/>
+        <v>M7043GVCJDG2707201514500</v>
       </c>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
@@ -12955,19 +13053,19 @@
         <v>47</v>
       </c>
       <c r="H81" s="6" t="s">
-        <v>122</v>
+        <v>66</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="4">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C82" s="4" t="str">
-        <f>CONCATENATE(G82,H82)</f>
-        <v>M7043GVCJDG2707201514963</v>
+        <f t="shared" si="2"/>
+        <v>M7043GVCJDG2707201514557</v>
       </c>
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
@@ -12976,19 +13074,19 @@
         <v>47</v>
       </c>
       <c r="H82" s="6" t="s">
-        <v>118</v>
+        <v>65</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="4">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C83" s="4" t="str">
-        <f>CONCATENATE(G83,H83)</f>
-        <v>M7043GVCJDG2707201514967</v>
+        <f t="shared" si="2"/>
+        <v>M7043GVCJDG2707201514844</v>
       </c>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
@@ -12997,19 +13095,19 @@
         <v>47</v>
       </c>
       <c r="H83" s="6" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="4">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C84" s="4" t="str">
-        <f>CONCATENATE(G84,H84)</f>
-        <v>M7043GVCJDG2707201514968</v>
+        <f t="shared" si="2"/>
+        <v>M7043GVCJDG2707201514963</v>
       </c>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
@@ -13018,19 +13116,19 @@
         <v>47</v>
       </c>
       <c r="H84" s="6" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="4">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C85" s="4" t="str">
-        <f>CONCATENATE(G85,H85)</f>
-        <v>M7043GVCJDG2707201514969</v>
+        <f t="shared" si="2"/>
+        <v>M7043GVCJDG2707201514967</v>
       </c>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
@@ -13039,19 +13137,19 @@
         <v>47</v>
       </c>
       <c r="H85" s="6" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="4">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C86" s="4" t="str">
-        <f>CONCATENATE(G86,H86)</f>
-        <v>M7043GVCJDG2707201537959</v>
+        <f t="shared" si="2"/>
+        <v>M7043GVCJDG2707201514968</v>
       </c>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
@@ -13060,19 +13158,19 @@
         <v>47</v>
       </c>
       <c r="H86" s="6" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="4">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C87" s="4" t="str">
-        <f>CONCATENATE(G87,H87)</f>
-        <v>M7043GVCJDG2707201547737</v>
+        <f t="shared" si="2"/>
+        <v>M7043GVCJDG2707201514969</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
@@ -13081,19 +13179,19 @@
         <v>47</v>
       </c>
       <c r="H87" s="6" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="4">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C88" s="4" t="str">
-        <f>CONCATENATE(G88,H88)</f>
-        <v>M7043GVCJDG2707201594830</v>
+        <f t="shared" si="2"/>
+        <v>M7043GVCJDG2707201537959</v>
       </c>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
@@ -13102,25 +13200,83 @@
         <v>47</v>
       </c>
       <c r="H88" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="4">
+        <v>86</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>M7043GVCJDG2707201547737</v>
+      </c>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H89" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="4">
+        <v>87</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C90" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>M7043GVCJDG2707201594830</v>
+      </c>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H90" s="6" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
-      <c r="A89" s="8"/>
-      <c r="B89" s="8"/>
-      <c r="C89" s="8"/>
-      <c r="D89" s="8"/>
+    <row r="91" spans="1:8">
+      <c r="A91" s="8"/>
+      <c r="B91" s="8"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:G1">
-    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="HJF0">
+    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="HJF0">
       <formula>NOT(ISERROR(SEARCH("HJF0",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="4" operator="containsText" text="HJH0">
+    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="HJH0">
       <formula>NOT(ISERROR(SEARCH("HJH0",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.375" right="0.47916666666666669" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <conditionalFormatting sqref="F35:G35">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="HJF0">
+      <formula>NOT(ISERROR(SEARCH("HJF0",F35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="HJH0">
+      <formula>NOT(ISERROR(SEARCH("HJH0",F35)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F69:G69">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="HJF0">
+      <formula>NOT(ISERROR(SEARCH("HJF0",F69)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="HJH0">
+      <formula>NOT(ISERROR(SEARCH("HJH0",F69)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.375" right="0.36458333333333331" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;A&amp;CTABLETS ALLOCATION FORM</oddHeader>
@@ -13131,7 +13287,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W85"/>
+  <dimension ref="A1:H85"/>
   <sheetViews>
     <sheetView view="pageLayout" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
@@ -13179,7 +13335,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="4" t="str">
-        <f>CONCATENATE(G2,H2)</f>
+        <f t="shared" ref="C2:C33" si="0">CONCATENATE(G2,H2)</f>
         <v>M7043GVCJDG2707201503409</v>
       </c>
       <c r="D2" s="4"/>
@@ -13200,7 +13356,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="4" t="str">
-        <f>CONCATENATE(G3,H3)</f>
+        <f t="shared" si="0"/>
         <v>M7043GVCJDG2707201505002</v>
       </c>
       <c r="D3" s="4"/>
@@ -13221,7 +13377,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="4" t="str">
-        <f>CONCATENATE(G4,H4)</f>
+        <f t="shared" si="0"/>
         <v>M7043GVCJDG2707201505063</v>
       </c>
       <c r="D4" s="4"/>
@@ -13242,7 +13398,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="4" t="str">
-        <f>CONCATENATE(G5,H5)</f>
+        <f t="shared" si="0"/>
         <v>M7043GVCJDG2707201505127</v>
       </c>
       <c r="D5" s="4"/>
@@ -13263,7 +13419,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="4" t="str">
-        <f>CONCATENATE(G6,H6)</f>
+        <f t="shared" si="0"/>
         <v>M7043GVCJDG2707201505524</v>
       </c>
       <c r="D6" s="4"/>
@@ -13284,7 +13440,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="4" t="str">
-        <f>CONCATENATE(G7,H7)</f>
+        <f t="shared" si="0"/>
         <v>M7043GVCJDG2707201505744</v>
       </c>
       <c r="D7" s="4"/>
@@ -13305,7 +13461,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="4" t="str">
-        <f>CONCATENATE(G8,H8)</f>
+        <f t="shared" si="0"/>
         <v>M7043GVCJDG2707201506127</v>
       </c>
       <c r="D8" s="4"/>
@@ -13326,7 +13482,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4" t="str">
-        <f>CONCATENATE(G9,H9)</f>
+        <f t="shared" si="0"/>
         <v>M7043GVCJDG2707201506227</v>
       </c>
       <c r="D9" s="4"/>
@@ -13347,7 +13503,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="4" t="str">
-        <f>CONCATENATE(G10,H10)</f>
+        <f t="shared" si="0"/>
         <v>M7043GVCJDG2707201506231</v>
       </c>
       <c r="D10" s="4"/>
@@ -13368,7 +13524,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="4" t="str">
-        <f>CONCATENATE(G11,H11)</f>
+        <f t="shared" si="0"/>
         <v>M7043GVCJDG2707201506240</v>
       </c>
       <c r="D11" s="4"/>
@@ -13389,7 +13545,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="4" t="str">
-        <f>CONCATENATE(G12,H12)</f>
+        <f t="shared" si="0"/>
         <v>M7043GVCJDG2707201506302</v>
       </c>
       <c r="D12" s="4"/>
@@ -13410,7 +13566,7 @@
         <v>6</v>
       </c>
       <c r="C13" s="4" t="str">
-        <f>CONCATENATE(G13,H13)</f>
+        <f t="shared" si="0"/>
         <v>M7043GVCJDG2707201506305</v>
       </c>
       <c r="D13" s="4"/>
@@ -13431,7 +13587,7 @@
         <v>6</v>
       </c>
       <c r="C14" s="4" t="str">
-        <f>CONCATENATE(G14,H14)</f>
+        <f t="shared" si="0"/>
         <v>M7043GVCJDG2707201506362</v>
       </c>
       <c r="D14" s="4"/>
@@ -13452,7 +13608,7 @@
         <v>6</v>
       </c>
       <c r="C15" s="4" t="str">
-        <f>CONCATENATE(G15,H15)</f>
+        <f t="shared" si="0"/>
         <v>M7043GVCJDG2707201506467</v>
       </c>
       <c r="D15" s="4"/>
@@ -13473,7 +13629,7 @@
         <v>6</v>
       </c>
       <c r="C16" s="4" t="str">
-        <f>CONCATENATE(G16,H16)</f>
+        <f t="shared" si="0"/>
         <v>M7043GVCJDG2707201506521</v>
       </c>
       <c r="D16" s="4"/>
@@ -13494,7 +13650,7 @@
         <v>6</v>
       </c>
       <c r="C17" s="4" t="str">
-        <f>CONCATENATE(G17,H17)</f>
+        <f t="shared" si="0"/>
         <v>M7043GVCJDG2707201506529</v>
       </c>
       <c r="D17" s="4"/>
@@ -13515,7 +13671,7 @@
         <v>6</v>
       </c>
       <c r="C18" s="4" t="str">
-        <f>CONCATENATE(G18,H18)</f>
+        <f t="shared" si="0"/>
         <v>M7043GVCJDG2707201506583</v>
       </c>
       <c r="D18" s="4"/>
@@ -13536,7 +13692,7 @@
         <v>6</v>
       </c>
       <c r="C19" s="4" t="str">
-        <f>CONCATENATE(G19,H19)</f>
+        <f t="shared" si="0"/>
         <v>M7043GVCJDG2707201506633</v>
       </c>
       <c r="D19" s="4"/>
@@ -13557,7 +13713,7 @@
         <v>6</v>
       </c>
       <c r="C20" s="4" t="str">
-        <f>CONCATENATE(G20,H20)</f>
+        <f t="shared" si="0"/>
         <v>M7043GVCJDG2707201506634</v>
       </c>
       <c r="D20" s="4"/>
@@ -13578,7 +13734,7 @@
         <v>6</v>
       </c>
       <c r="C21" s="4" t="str">
-        <f>CONCATENATE(G21,H21)</f>
+        <f t="shared" si="0"/>
         <v>M7043GVCJDG2707201506635</v>
       </c>
       <c r="D21" s="4"/>
@@ -13599,7 +13755,7 @@
         <v>6</v>
       </c>
       <c r="C22" s="4" t="str">
-        <f>CONCATENATE(G22,H22)</f>
+        <f t="shared" si="0"/>
         <v>M7043GVCJDG2707201506636</v>
       </c>
       <c r="D22" s="4"/>
@@ -13620,7 +13776,7 @@
         <v>6</v>
       </c>
       <c r="C23" s="4" t="str">
-        <f>CONCATENATE(G23,H23)</f>
+        <f t="shared" si="0"/>
         <v>M7043GVCJDG2707201506640</v>
       </c>
       <c r="D23" s="4"/>
@@ -13641,7 +13797,7 @@
         <v>6</v>
       </c>
       <c r="C24" s="4" t="str">
-        <f>CONCATENATE(G24,H24)</f>
+        <f t="shared" si="0"/>
         <v>M7043GVCJDG2707201506994</v>
       </c>
       <c r="D24" s="4"/>
@@ -13662,7 +13818,7 @@
         <v>6</v>
       </c>
       <c r="C25" s="4" t="str">
-        <f>CONCATENATE(G25,H25)</f>
+        <f t="shared" si="0"/>
         <v>M7043GVCJDG2707201507022</v>
       </c>
       <c r="D25" s="4"/>
@@ -13683,7 +13839,7 @@
         <v>6</v>
       </c>
       <c r="C26" s="4" t="str">
-        <f>CONCATENATE(G26,H26)</f>
+        <f t="shared" si="0"/>
         <v>M7043GVCJDG2707201507026</v>
       </c>
       <c r="D26" s="4"/>
@@ -13704,7 +13860,7 @@
         <v>6</v>
       </c>
       <c r="C27" s="4" t="str">
-        <f>CONCATENATE(G27,H27)</f>
+        <f t="shared" si="0"/>
         <v>M7043GVCJDG2707201507028</v>
       </c>
       <c r="D27" s="4"/>
@@ -13725,7 +13881,7 @@
         <v>6</v>
       </c>
       <c r="C28" s="4" t="str">
-        <f>CONCATENATE(G28,H28)</f>
+        <f t="shared" si="0"/>
         <v>M7043GVCJDG2707201507030</v>
       </c>
       <c r="D28" s="4"/>
@@ -13746,7 +13902,7 @@
         <v>6</v>
       </c>
       <c r="C29" s="4" t="str">
-        <f>CONCATENATE(G29,H29)</f>
+        <f t="shared" si="0"/>
         <v>M7043GVCJDG2707201507072</v>
       </c>
       <c r="D29" s="4"/>
@@ -13767,7 +13923,7 @@
         <v>6</v>
       </c>
       <c r="C30" s="4" t="str">
-        <f>CONCATENATE(G30,H30)</f>
+        <f t="shared" si="0"/>
         <v>M7043GVCJDG2707201507351</v>
       </c>
       <c r="D30" s="4"/>
@@ -13788,7 +13944,7 @@
         <v>6</v>
       </c>
       <c r="C31" s="4" t="str">
-        <f>CONCATENATE(G31,H31)</f>
+        <f t="shared" si="0"/>
         <v>M7043GVCJDG2707201507357</v>
       </c>
       <c r="D31" s="4"/>
@@ -13809,7 +13965,7 @@
         <v>6</v>
       </c>
       <c r="C32" s="4" t="str">
-        <f>CONCATENATE(G32,H32)</f>
+        <f t="shared" si="0"/>
         <v>M7043GVCJDG2707201507444</v>
       </c>
       <c r="D32" s="4"/>
@@ -13830,7 +13986,7 @@
         <v>6</v>
       </c>
       <c r="C33" s="4" t="str">
-        <f>CONCATENATE(G33,H33)</f>
+        <f t="shared" si="0"/>
         <v>M7043GVCJDG2707201507682</v>
       </c>
       <c r="D33" s="4"/>
@@ -13851,7 +14007,7 @@
         <v>6</v>
       </c>
       <c r="C34" s="4" t="str">
-        <f>CONCATENATE(G34,H34)</f>
+        <f t="shared" ref="C34:C65" si="1">CONCATENATE(G34,H34)</f>
         <v>M7043GVCJDG2707201507688</v>
       </c>
       <c r="D34" s="4"/>
@@ -13872,7 +14028,7 @@
         <v>6</v>
       </c>
       <c r="C35" s="4" t="str">
-        <f>CONCATENATE(G35,H35)</f>
+        <f t="shared" si="1"/>
         <v>M7043GVCJDG2707201507690</v>
       </c>
       <c r="D35" s="4"/>
@@ -13893,7 +14049,7 @@
         <v>6</v>
       </c>
       <c r="C36" s="4" t="str">
-        <f>CONCATENATE(G36,H36)</f>
+        <f t="shared" si="1"/>
         <v>M7043GVCJDG2707201507693</v>
       </c>
       <c r="D36" s="4"/>
@@ -13914,7 +14070,7 @@
         <v>6</v>
       </c>
       <c r="C37" s="4" t="str">
-        <f>CONCATENATE(G37,H37)</f>
+        <f t="shared" si="1"/>
         <v>M7043GVCJDG2707201507702</v>
       </c>
       <c r="D37" s="4"/>
@@ -13935,7 +14091,7 @@
         <v>6</v>
       </c>
       <c r="C38" s="4" t="str">
-        <f>CONCATENATE(G38,H38)</f>
+        <f t="shared" si="1"/>
         <v>M7043GVCJDG2707201507704</v>
       </c>
       <c r="D38" s="4"/>
@@ -13956,7 +14112,7 @@
         <v>6</v>
       </c>
       <c r="C39" s="4" t="str">
-        <f>CONCATENATE(G39,H39)</f>
+        <f t="shared" si="1"/>
         <v>M7043GVCJDG2707201507705</v>
       </c>
       <c r="D39" s="4"/>
@@ -13977,7 +14133,7 @@
         <v>6</v>
       </c>
       <c r="C40" s="4" t="str">
-        <f>CONCATENATE(G40,H40)</f>
+        <f t="shared" si="1"/>
         <v>M7043GVCJDG2707201507874</v>
       </c>
       <c r="D40" s="4"/>
@@ -13998,7 +14154,7 @@
         <v>6</v>
       </c>
       <c r="C41" s="4" t="str">
-        <f>CONCATENATE(G41,H41)</f>
+        <f t="shared" si="1"/>
         <v>M7043GVCJDG2707201507879</v>
       </c>
       <c r="D41" s="4"/>
@@ -14019,7 +14175,7 @@
         <v>6</v>
       </c>
       <c r="C42" s="4" t="str">
-        <f>CONCATENATE(G42,H42)</f>
+        <f t="shared" si="1"/>
         <v>M7043GVCJDG2707201507880</v>
       </c>
       <c r="D42" s="4"/>
@@ -14040,7 +14196,7 @@
         <v>6</v>
       </c>
       <c r="C43" s="4" t="str">
-        <f>CONCATENATE(G43,H43)</f>
+        <f t="shared" si="1"/>
         <v>M7043GVCJDG2707201508267</v>
       </c>
       <c r="D43" s="4"/>
@@ -14061,7 +14217,7 @@
         <v>6</v>
       </c>
       <c r="C44" s="4" t="str">
-        <f>CONCATENATE(G44,H44)</f>
+        <f t="shared" si="1"/>
         <v>M7043GVCJDG2707201508372</v>
       </c>
       <c r="D44" s="4"/>
@@ -14082,7 +14238,7 @@
         <v>6</v>
       </c>
       <c r="C45" s="4" t="str">
-        <f>CONCATENATE(G45,H45)</f>
+        <f t="shared" si="1"/>
         <v>M7043GVCJDG2707201508378</v>
       </c>
       <c r="D45" s="4"/>
@@ -14103,7 +14259,7 @@
         <v>6</v>
       </c>
       <c r="C46" s="4" t="str">
-        <f>CONCATENATE(G46,H46)</f>
+        <f t="shared" si="1"/>
         <v>M7043GVCJDG2707201508389</v>
       </c>
       <c r="D46" s="4"/>
@@ -14124,7 +14280,7 @@
         <v>6</v>
       </c>
       <c r="C47" s="4" t="str">
-        <f>CONCATENATE(G47,H47)</f>
+        <f t="shared" si="1"/>
         <v>M7043GVCJDG2707201508406</v>
       </c>
       <c r="D47" s="4"/>
@@ -14145,7 +14301,7 @@
         <v>6</v>
       </c>
       <c r="C48" s="4" t="str">
-        <f>CONCATENATE(G48,H48)</f>
+        <f t="shared" si="1"/>
         <v>M7043GVCJDG2707201509193</v>
       </c>
       <c r="D48" s="4"/>
@@ -14166,7 +14322,7 @@
         <v>6</v>
       </c>
       <c r="C49" s="4" t="str">
-        <f>CONCATENATE(G49,H49)</f>
+        <f t="shared" si="1"/>
         <v>M7043GVCJDG2707201509195</v>
       </c>
       <c r="D49" s="4"/>
@@ -14187,7 +14343,7 @@
         <v>6</v>
       </c>
       <c r="C50" s="4" t="str">
-        <f>CONCATENATE(G50,H50)</f>
+        <f t="shared" si="1"/>
         <v>M7043GVCJDG2707201509198</v>
       </c>
       <c r="D50" s="4"/>
@@ -14208,7 +14364,7 @@
         <v>6</v>
       </c>
       <c r="C51" s="4" t="str">
-        <f>CONCATENATE(G51,H51)</f>
+        <f t="shared" si="1"/>
         <v>M7043GVCJDG2707201509200</v>
       </c>
       <c r="D51" s="4"/>
@@ -14229,7 +14385,7 @@
         <v>6</v>
       </c>
       <c r="C52" s="4" t="str">
-        <f>CONCATENATE(G52,H52)</f>
+        <f t="shared" si="1"/>
         <v>M7043GVCJDG2707201509930</v>
       </c>
       <c r="D52" s="4"/>
@@ -14250,7 +14406,7 @@
         <v>6</v>
       </c>
       <c r="C53" s="4" t="str">
-        <f>CONCATENATE(G53,H53)</f>
+        <f t="shared" si="1"/>
         <v>M7043GVCJDG2707201510079</v>
       </c>
       <c r="D53" s="4"/>
@@ -14271,7 +14427,7 @@
         <v>6</v>
       </c>
       <c r="C54" s="4" t="str">
-        <f>CONCATENATE(G54,H54)</f>
+        <f t="shared" si="1"/>
         <v>M7043GVCJDG2707201510096</v>
       </c>
       <c r="D54" s="4"/>
@@ -14292,7 +14448,7 @@
         <v>6</v>
       </c>
       <c r="C55" s="4" t="str">
-        <f>CONCATENATE(G55,H55)</f>
+        <f t="shared" si="1"/>
         <v>M7043GVCJDG2707201510202</v>
       </c>
       <c r="D55" s="4"/>
@@ -14313,7 +14469,7 @@
         <v>6</v>
       </c>
       <c r="C56" s="4" t="str">
-        <f>CONCATENATE(G56,H56)</f>
+        <f t="shared" si="1"/>
         <v>M7043GVCJDG2707201510533</v>
       </c>
       <c r="D56" s="4"/>
@@ -14334,7 +14490,7 @@
         <v>6</v>
       </c>
       <c r="C57" s="4" t="str">
-        <f>CONCATENATE(G57,H57)</f>
+        <f t="shared" si="1"/>
         <v>M7043GVCJDG2707201510568</v>
       </c>
       <c r="D57" s="4"/>
@@ -14355,7 +14511,7 @@
         <v>6</v>
       </c>
       <c r="C58" s="4" t="str">
-        <f>CONCATENATE(G58,H58)</f>
+        <f t="shared" si="1"/>
         <v>M7043GVCJDG2707201510625</v>
       </c>
       <c r="D58" s="4"/>
@@ -14376,7 +14532,7 @@
         <v>6</v>
       </c>
       <c r="C59" s="4" t="str">
-        <f>CONCATENATE(G59,H59)</f>
+        <f t="shared" si="1"/>
         <v>M7043GVCJDG2707201510626</v>
       </c>
       <c r="D59" s="4"/>
@@ -14397,7 +14553,7 @@
         <v>6</v>
       </c>
       <c r="C60" s="4" t="str">
-        <f>CONCATENATE(G60,H60)</f>
+        <f t="shared" si="1"/>
         <v>M7043GVCJDG2707201510632</v>
       </c>
       <c r="D60" s="4"/>
@@ -14418,7 +14574,7 @@
         <v>6</v>
       </c>
       <c r="C61" s="4" t="str">
-        <f>CONCATENATE(G61,H61)</f>
+        <f t="shared" si="1"/>
         <v>M7043GVCJDG2707201510634</v>
       </c>
       <c r="D61" s="4"/>
@@ -14439,7 +14595,7 @@
         <v>6</v>
       </c>
       <c r="C62" s="4" t="str">
-        <f>CONCATENATE(G62,H62)</f>
+        <f t="shared" si="1"/>
         <v>M7043GVCJDG2707201510662</v>
       </c>
       <c r="D62" s="4"/>
@@ -14460,7 +14616,7 @@
         <v>6</v>
       </c>
       <c r="C63" s="4" t="str">
-        <f>CONCATENATE(G63,H63)</f>
+        <f t="shared" si="1"/>
         <v>M7043GVCJDG2707201510668</v>
       </c>
       <c r="D63" s="4"/>
@@ -14481,7 +14637,7 @@
         <v>6</v>
       </c>
       <c r="C64" s="4" t="str">
-        <f>CONCATENATE(G64,H64)</f>
+        <f t="shared" si="1"/>
         <v>M7043GVCJDG2707201510681</v>
       </c>
       <c r="D64" s="4"/>
@@ -14502,7 +14658,7 @@
         <v>6</v>
       </c>
       <c r="C65" s="4" t="str">
-        <f>CONCATENATE(G65,H65)</f>
+        <f t="shared" si="1"/>
         <v>M7043GVCJDG2707201510784</v>
       </c>
       <c r="D65" s="4"/>
@@ -14523,7 +14679,7 @@
         <v>6</v>
       </c>
       <c r="C66" s="4" t="str">
-        <f>CONCATENATE(G66,H66)</f>
+        <f t="shared" ref="C66:C85" si="2">CONCATENATE(G66,H66)</f>
         <v>M7043GVCJDG2707201511055</v>
       </c>
       <c r="D66" s="4"/>
@@ -14544,7 +14700,7 @@
         <v>6</v>
       </c>
       <c r="C67" s="4" t="str">
-        <f>CONCATENATE(G67,H67)</f>
+        <f t="shared" si="2"/>
         <v>M7043GVCJDG2707201511056</v>
       </c>
       <c r="D67" s="4"/>
@@ -14565,7 +14721,7 @@
         <v>6</v>
       </c>
       <c r="C68" s="4" t="str">
-        <f>CONCATENATE(G68,H68)</f>
+        <f t="shared" si="2"/>
         <v>M7043GVCJDG2707201511098</v>
       </c>
       <c r="D68" s="4"/>
@@ -14586,7 +14742,7 @@
         <v>6</v>
       </c>
       <c r="C69" s="4" t="str">
-        <f>CONCATENATE(G69,H69)</f>
+        <f t="shared" si="2"/>
         <v>M7043GVCJDG2707201511357</v>
       </c>
       <c r="D69" s="4"/>
@@ -14607,7 +14763,7 @@
         <v>6</v>
       </c>
       <c r="C70" s="4" t="str">
-        <f>CONCATENATE(G70,H70)</f>
+        <f t="shared" si="2"/>
         <v>M7043GVCJDG2707201512509</v>
       </c>
       <c r="D70" s="4"/>
@@ -14628,7 +14784,7 @@
         <v>6</v>
       </c>
       <c r="C71" s="4" t="str">
-        <f>CONCATENATE(G71,H71)</f>
+        <f t="shared" si="2"/>
         <v>M7043GVCJDG2707201512892</v>
       </c>
       <c r="D71" s="4"/>
@@ -14649,7 +14805,7 @@
         <v>6</v>
       </c>
       <c r="C72" s="4" t="str">
-        <f>CONCATENATE(G72,H72)</f>
+        <f t="shared" si="2"/>
         <v>M7043GVCJDG2707201513024</v>
       </c>
       <c r="D72" s="4"/>
@@ -14670,7 +14826,7 @@
         <v>6</v>
       </c>
       <c r="C73" s="4" t="str">
-        <f>CONCATENATE(G73,H73)</f>
+        <f t="shared" si="2"/>
         <v>M7043GVCJDG2707201513030</v>
       </c>
       <c r="D73" s="4"/>
@@ -14691,7 +14847,7 @@
         <v>6</v>
       </c>
       <c r="C74" s="4" t="str">
-        <f>CONCATENATE(G74,H74)</f>
+        <f t="shared" si="2"/>
         <v>M7043GVCJDG2707201513069</v>
       </c>
       <c r="D74" s="4"/>
@@ -14712,7 +14868,7 @@
         <v>6</v>
       </c>
       <c r="C75" s="4" t="str">
-        <f>CONCATENATE(G75,H75)</f>
+        <f t="shared" si="2"/>
         <v>M7043GVCJDG2707201513112</v>
       </c>
       <c r="D75" s="4"/>
@@ -14733,7 +14889,7 @@
         <v>6</v>
       </c>
       <c r="C76" s="4" t="str">
-        <f>CONCATENATE(G76,H76)</f>
+        <f t="shared" si="2"/>
         <v>M7043GVCJDG2707201513143</v>
       </c>
       <c r="D76" s="4"/>
@@ -14754,7 +14910,7 @@
         <v>6</v>
       </c>
       <c r="C77" s="4" t="str">
-        <f>CONCATENATE(G77,H77)</f>
+        <f t="shared" si="2"/>
         <v>M7043GVCJDG2707201513148</v>
       </c>
       <c r="D77" s="4"/>
@@ -14775,7 +14931,7 @@
         <v>6</v>
       </c>
       <c r="C78" s="4" t="str">
-        <f>CONCATENATE(G78,H78)</f>
+        <f t="shared" si="2"/>
         <v>M7043GVCJDG2707201513645</v>
       </c>
       <c r="D78" s="4"/>
@@ -14796,7 +14952,7 @@
         <v>6</v>
       </c>
       <c r="C79" s="4" t="str">
-        <f>CONCATENATE(G79,H79)</f>
+        <f t="shared" si="2"/>
         <v>M7043GVCJDG2707201513883</v>
       </c>
       <c r="D79" s="4"/>
@@ -14817,7 +14973,7 @@
         <v>6</v>
       </c>
       <c r="C80" s="4" t="str">
-        <f>CONCATENATE(G80,H80)</f>
+        <f t="shared" si="2"/>
         <v>M7043GVCJDG2707201514049</v>
       </c>
       <c r="D80" s="4"/>
@@ -14838,7 +14994,7 @@
         <v>6</v>
       </c>
       <c r="C81" s="4" t="str">
-        <f>CONCATENATE(G81,H81)</f>
+        <f t="shared" si="2"/>
         <v>M7043GVCJDG2707201514388</v>
       </c>
       <c r="D81" s="4"/>
@@ -14859,7 +15015,7 @@
         <v>6</v>
       </c>
       <c r="C82" s="4" t="str">
-        <f>CONCATENATE(G82,H82)</f>
+        <f t="shared" si="2"/>
         <v>M7043GVCJDG2707201514551</v>
       </c>
       <c r="D82" s="4"/>
@@ -14880,7 +15036,7 @@
         <v>6</v>
       </c>
       <c r="C83" s="4" t="str">
-        <f>CONCATENATE(G83,H83)</f>
+        <f t="shared" si="2"/>
         <v>M7043GVCJDG2707201514902</v>
       </c>
       <c r="D83" s="4"/>
@@ -14901,7 +15057,7 @@
         <v>6</v>
       </c>
       <c r="C84" s="4" t="str">
-        <f>CONCATENATE(G84,H84)</f>
+        <f t="shared" si="2"/>
         <v>M7043GVCJDG2707201514904</v>
       </c>
       <c r="D84" s="4"/>
@@ -14922,7 +15078,7 @@
         <v>6</v>
       </c>
       <c r="C85" s="4" t="str">
-        <f>CONCATENATE(G85,H85)</f>
+        <f t="shared" si="2"/>
         <v>M7043GVCJDG2707201593673</v>
       </c>
       <c r="D85" s="4"/>
@@ -14937,10 +15093,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:G1">
-    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="HJF0">
+    <cfRule type="containsText" dxfId="19" priority="3" operator="containsText" text="HJF0">
       <formula>NOT(ISERROR(SEARCH("HJF0",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="HJH0">
+    <cfRule type="containsText" dxfId="18" priority="4" operator="containsText" text="HJH0">
       <formula>NOT(ISERROR(SEARCH("HJH0",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14955,7 +15111,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S60"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView view="pageLayout" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
@@ -14964,8 +15120,8 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
     <col min="4" max="4" width="29.42578125" customWidth="1"/>
     <col min="5" max="5" width="43.140625" customWidth="1"/>
     <col min="6" max="6" width="17.28515625" customWidth="1"/>
@@ -16292,7 +16448,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="4" t="str">
-        <f>CONCATENATE(I2,J2)</f>
+        <f t="shared" ref="C2:C34" si="0">CONCATENATE(I2,J2)</f>
         <v>11V1DP101882</v>
       </c>
       <c r="D2" s="4"/>
@@ -16315,7 +16471,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="4" t="str">
-        <f>CONCATENATE(I3,J3)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP101888</v>
       </c>
       <c r="D3" s="4"/>
@@ -16338,7 +16494,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="4" t="str">
-        <f>CONCATENATE(I4,J4)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP103141</v>
       </c>
       <c r="D4" s="4"/>
@@ -16361,7 +16517,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="4" t="str">
-        <f>CONCATENATE(I5,J5)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP103160</v>
       </c>
       <c r="D5" s="4"/>
@@ -16384,7 +16540,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="4" t="str">
-        <f>CONCATENATE(I6,J6)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP103191</v>
       </c>
       <c r="D6" s="4"/>
@@ -16407,7 +16563,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="4" t="str">
-        <f>CONCATENATE(I7,J7)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP103196</v>
       </c>
       <c r="D7" s="4"/>
@@ -16430,7 +16586,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="4" t="str">
-        <f>CONCATENATE(I8,J8)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP103446</v>
       </c>
       <c r="D8" s="4"/>
@@ -16453,7 +16609,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="4" t="str">
-        <f>CONCATENATE(I9,J9)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP103459</v>
       </c>
       <c r="D9" s="4"/>
@@ -16476,7 +16632,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="4" t="str">
-        <f>CONCATENATE(I10,J10)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP103549</v>
       </c>
       <c r="D10" s="4"/>
@@ -16499,7 +16655,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="4" t="str">
-        <f>CONCATENATE(I11,J11)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP103855</v>
       </c>
       <c r="D11" s="4"/>
@@ -16522,7 +16678,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="4" t="str">
-        <f>CONCATENATE(I12,J12)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP104443</v>
       </c>
       <c r="D12" s="4"/>
@@ -16545,7 +16701,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="4" t="str">
-        <f>CONCATENATE(I13,J13)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP104452</v>
       </c>
       <c r="D13" s="4"/>
@@ -16568,7 +16724,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="4" t="str">
-        <f>CONCATENATE(I14,J14)</f>
+        <f t="shared" si="0"/>
         <v>HJF0TH0K</v>
       </c>
       <c r="D14" s="4"/>
@@ -16591,7 +16747,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="4" t="str">
-        <f>CONCATENATE(I15,J15)</f>
+        <f t="shared" si="0"/>
         <v>HJF0TH1H</v>
       </c>
       <c r="D15" s="4"/>
@@ -16614,7 +16770,7 @@
         <v>7</v>
       </c>
       <c r="C16" s="4" t="str">
-        <f>CONCATENATE(I16,J16)</f>
+        <f t="shared" si="0"/>
         <v>HJF0TH1Z</v>
       </c>
       <c r="D16" s="4"/>
@@ -16637,7 +16793,7 @@
         <v>7</v>
       </c>
       <c r="C17" s="4" t="str">
-        <f>CONCATENATE(I17,J17)</f>
+        <f t="shared" si="0"/>
         <v>HJF0TH24</v>
       </c>
       <c r="D17" s="4"/>
@@ -16660,7 +16816,7 @@
         <v>7</v>
       </c>
       <c r="C18" s="4" t="str">
-        <f>CONCATENATE(I18,J18)</f>
+        <f t="shared" si="0"/>
         <v>HJF0TH27</v>
       </c>
       <c r="D18" s="4"/>
@@ -16683,7 +16839,7 @@
         <v>7</v>
       </c>
       <c r="C19" s="4" t="str">
-        <f>CONCATENATE(I19,J19)</f>
+        <f t="shared" si="0"/>
         <v>HJF0TH2C</v>
       </c>
       <c r="D19" s="4"/>
@@ -16706,7 +16862,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="4" t="str">
-        <f>CONCATENATE(I20,J20)</f>
+        <f t="shared" si="0"/>
         <v>HJF0TH3N</v>
       </c>
       <c r="D20" s="4"/>
@@ -16729,7 +16885,7 @@
         <v>7</v>
       </c>
       <c r="C21" s="4" t="str">
-        <f>CONCATENATE(I21,J21)</f>
+        <f t="shared" si="0"/>
         <v>HJF0TH3S</v>
       </c>
       <c r="D21" s="4"/>
@@ -16752,7 +16908,7 @@
         <v>7</v>
       </c>
       <c r="C22" s="4" t="str">
-        <f>CONCATENATE(I22,J22)</f>
+        <f t="shared" si="0"/>
         <v>HJF0TH40</v>
       </c>
       <c r="D22" s="4"/>
@@ -16775,7 +16931,7 @@
         <v>7</v>
       </c>
       <c r="C23" s="4" t="str">
-        <f>CONCATENATE(I23,J23)</f>
+        <f t="shared" si="0"/>
         <v>HJF0TH48</v>
       </c>
       <c r="D23" s="4"/>
@@ -16798,7 +16954,7 @@
         <v>7</v>
       </c>
       <c r="C24" s="4" t="str">
-        <f>CONCATENATE(I24,J24)</f>
+        <f t="shared" si="0"/>
         <v>HJF0TH56</v>
       </c>
       <c r="D24" s="4"/>
@@ -16821,7 +16977,7 @@
         <v>7</v>
       </c>
       <c r="C25" s="4" t="str">
-        <f>CONCATENATE(I25,J25)</f>
+        <f t="shared" si="0"/>
         <v>HJF0TH5E</v>
       </c>
       <c r="D25" s="4"/>
@@ -16844,7 +17000,7 @@
         <v>7</v>
       </c>
       <c r="C26" s="4" t="str">
-        <f>CONCATENATE(I26,J26)</f>
+        <f t="shared" si="0"/>
         <v>HJF0TH6D</v>
       </c>
       <c r="D26" s="1"/>
@@ -16867,7 +17023,7 @@
         <v>7</v>
       </c>
       <c r="C27" s="4" t="str">
-        <f>CONCATENATE(I27,J27)</f>
+        <f t="shared" si="0"/>
         <v>HJF0TH6U</v>
       </c>
       <c r="D27" s="4"/>
@@ -16890,7 +17046,7 @@
         <v>7</v>
       </c>
       <c r="C28" s="4" t="str">
-        <f>CONCATENATE(I28,J28)</f>
+        <f t="shared" si="0"/>
         <v>HJF0TH6Y</v>
       </c>
       <c r="D28" s="4"/>
@@ -16913,7 +17069,7 @@
         <v>7</v>
       </c>
       <c r="C29" s="4" t="str">
-        <f>CONCATENATE(I29,J29)</f>
+        <f t="shared" si="0"/>
         <v>HJF0TH77</v>
       </c>
       <c r="D29" s="4"/>
@@ -16936,7 +17092,7 @@
         <v>7</v>
       </c>
       <c r="C30" s="4" t="str">
-        <f>CONCATENATE(I30,J30)</f>
+        <f t="shared" si="0"/>
         <v>HJF0TH79</v>
       </c>
       <c r="D30" s="4"/>
@@ -16959,7 +17115,7 @@
         <v>7</v>
       </c>
       <c r="C31" s="4" t="str">
-        <f>CONCATENATE(I31,J31)</f>
+        <f t="shared" si="0"/>
         <v>HJF0TH83</v>
       </c>
       <c r="D31" s="4"/>
@@ -16982,7 +17138,7 @@
         <v>7</v>
       </c>
       <c r="C32" s="4" t="str">
-        <f>CONCATENATE(I32,J32)</f>
+        <f t="shared" si="0"/>
         <v>HJF0TH9J</v>
       </c>
       <c r="D32" s="4"/>
@@ -17005,7 +17161,7 @@
         <v>7</v>
       </c>
       <c r="C33" s="4" t="str">
-        <f>CONCATENATE(I33,J33)</f>
+        <f t="shared" si="0"/>
         <v>HJF0THAR</v>
       </c>
       <c r="D33" s="4"/>
@@ -17028,7 +17184,7 @@
         <v>7</v>
       </c>
       <c r="C34" s="4" t="str">
-        <f>CONCATENATE(I34,J34)</f>
+        <f t="shared" si="0"/>
         <v>HJF0THAT</v>
       </c>
       <c r="D34" s="4"/>
@@ -17073,7 +17229,7 @@
         <v>7</v>
       </c>
       <c r="C36" s="4" t="str">
-        <f>CONCATENATE(I36,J36)</f>
+        <f t="shared" ref="C36:C68" si="1">CONCATENATE(I36,J36)</f>
         <v>HJF0THAX</v>
       </c>
       <c r="D36" s="4"/>
@@ -17096,7 +17252,7 @@
         <v>7</v>
       </c>
       <c r="C37" s="4" t="str">
-        <f>CONCATENATE(I37,J37)</f>
+        <f t="shared" si="1"/>
         <v>HJF0THCG</v>
       </c>
       <c r="D37" s="4"/>
@@ -17119,7 +17275,7 @@
         <v>7</v>
       </c>
       <c r="C38" s="4" t="str">
-        <f>CONCATENATE(I38,J38)</f>
+        <f t="shared" si="1"/>
         <v>HJF0THCM</v>
       </c>
       <c r="D38" s="4"/>
@@ -17142,7 +17298,7 @@
         <v>7</v>
       </c>
       <c r="C39" s="4" t="str">
-        <f>CONCATENATE(I39,J39)</f>
+        <f t="shared" si="1"/>
         <v>HJF0THD0</v>
       </c>
       <c r="D39" s="4"/>
@@ -17165,7 +17321,7 @@
         <v>7</v>
       </c>
       <c r="C40" s="4" t="str">
-        <f>CONCATENATE(I40,J40)</f>
+        <f t="shared" si="1"/>
         <v>HJF0THEP</v>
       </c>
       <c r="D40" s="4"/>
@@ -17188,7 +17344,7 @@
         <v>7</v>
       </c>
       <c r="C41" s="4" t="str">
-        <f>CONCATENATE(I41,J41)</f>
+        <f t="shared" si="1"/>
         <v>HJF0THEQ</v>
       </c>
       <c r="D41" s="4"/>
@@ -17211,7 +17367,7 @@
         <v>7</v>
       </c>
       <c r="C42" s="4" t="str">
-        <f>CONCATENATE(I42,J42)</f>
+        <f t="shared" si="1"/>
         <v>HJF0THFA</v>
       </c>
       <c r="D42" s="4"/>
@@ -17234,7 +17390,7 @@
         <v>7</v>
       </c>
       <c r="C43" s="4" t="str">
-        <f>CONCATENATE(I43,J43)</f>
+        <f t="shared" si="1"/>
         <v>HJF0THFQ</v>
       </c>
       <c r="D43" s="4"/>
@@ -17257,7 +17413,7 @@
         <v>7</v>
       </c>
       <c r="C44" s="4" t="str">
-        <f>CONCATENATE(I44,J44)</f>
+        <f t="shared" si="1"/>
         <v>HJF0THG8</v>
       </c>
       <c r="D44" s="4"/>
@@ -17280,7 +17436,7 @@
         <v>7</v>
       </c>
       <c r="C45" s="4" t="str">
-        <f>CONCATENATE(I45,J45)</f>
+        <f t="shared" si="1"/>
         <v>HJF0THGV</v>
       </c>
       <c r="D45" s="4"/>
@@ -17303,7 +17459,7 @@
         <v>7</v>
       </c>
       <c r="C46" s="4" t="str">
-        <f>CONCATENATE(I46,J46)</f>
+        <f t="shared" si="1"/>
         <v>HJF0THGY</v>
       </c>
       <c r="D46" s="4"/>
@@ -17326,7 +17482,7 @@
         <v>7</v>
       </c>
       <c r="C47" s="4" t="str">
-        <f>CONCATENATE(I47,J47)</f>
+        <f t="shared" si="1"/>
         <v>HJF0THH7</v>
       </c>
       <c r="D47" s="4"/>
@@ -17349,7 +17505,7 @@
         <v>7</v>
       </c>
       <c r="C48" s="4" t="str">
-        <f>CONCATENATE(I48,J48)</f>
+        <f t="shared" si="1"/>
         <v>HJF0THJ8</v>
       </c>
       <c r="D48" s="4"/>
@@ -17372,7 +17528,7 @@
         <v>7</v>
       </c>
       <c r="C49" s="4" t="str">
-        <f>CONCATENATE(I49,J49)</f>
+        <f t="shared" si="1"/>
         <v>HJF0THJB</v>
       </c>
       <c r="D49" s="4"/>
@@ -17395,7 +17551,7 @@
         <v>7</v>
       </c>
       <c r="C50" s="4" t="str">
-        <f>CONCATENATE(I50,J50)</f>
+        <f t="shared" si="1"/>
         <v>HJF0THJH</v>
       </c>
       <c r="D50" s="4"/>
@@ -17418,7 +17574,7 @@
         <v>7</v>
       </c>
       <c r="C51" s="4" t="str">
-        <f>CONCATENATE(I51,J51)</f>
+        <f t="shared" si="1"/>
         <v>HJF0THL9</v>
       </c>
       <c r="D51" s="4"/>
@@ -17441,7 +17597,7 @@
         <v>7</v>
       </c>
       <c r="C52" s="4" t="str">
-        <f>CONCATENATE(I52,J52)</f>
+        <f t="shared" si="1"/>
         <v>HJF0THLE</v>
       </c>
       <c r="D52" s="4"/>
@@ -17464,7 +17620,7 @@
         <v>7</v>
       </c>
       <c r="C53" s="4" t="str">
-        <f>CONCATENATE(I53,J53)</f>
+        <f t="shared" si="1"/>
         <v>HJF0THLT</v>
       </c>
       <c r="D53" s="4"/>
@@ -17487,7 +17643,7 @@
         <v>7</v>
       </c>
       <c r="C54" s="4" t="str">
-        <f>CONCATENATE(I54,J54)</f>
+        <f t="shared" si="1"/>
         <v>HJF0THM3</v>
       </c>
       <c r="D54" s="4"/>
@@ -17510,7 +17666,7 @@
         <v>7</v>
       </c>
       <c r="C55" s="4" t="str">
-        <f>CONCATENATE(I55,J55)</f>
+        <f t="shared" si="1"/>
         <v>HJF0THM7</v>
       </c>
       <c r="D55" s="4"/>
@@ -17533,7 +17689,7 @@
         <v>7</v>
       </c>
       <c r="C56" s="4" t="str">
-        <f>CONCATENATE(I56,J56)</f>
+        <f t="shared" si="1"/>
         <v>HJF0THMD</v>
       </c>
       <c r="D56" s="4"/>
@@ -17556,7 +17712,7 @@
         <v>7</v>
       </c>
       <c r="C57" s="4" t="str">
-        <f>CONCATENATE(I57,J57)</f>
+        <f t="shared" si="1"/>
         <v>HJF0THMT</v>
       </c>
       <c r="D57" s="4"/>
@@ -17579,7 +17735,7 @@
         <v>7</v>
       </c>
       <c r="C58" s="4" t="str">
-        <f>CONCATENATE(I58,J58)</f>
+        <f t="shared" si="1"/>
         <v>HJF0THN8</v>
       </c>
       <c r="D58" s="4"/>
@@ -17602,7 +17758,7 @@
         <v>7</v>
       </c>
       <c r="C59" s="4" t="str">
-        <f>CONCATENATE(I59,J59)</f>
+        <f t="shared" si="1"/>
         <v>HJF0THNN</v>
       </c>
       <c r="D59" s="4"/>
@@ -17625,7 +17781,7 @@
         <v>7</v>
       </c>
       <c r="C60" s="4" t="str">
-        <f>CONCATENATE(I60,J60)</f>
+        <f t="shared" si="1"/>
         <v>HJF0THNP</v>
       </c>
       <c r="D60" s="4"/>
@@ -17648,7 +17804,7 @@
         <v>7</v>
       </c>
       <c r="C61" s="4" t="str">
-        <f>CONCATENATE(I61,J61)</f>
+        <f t="shared" si="1"/>
         <v>HJF0THNQ</v>
       </c>
       <c r="D61" s="4"/>
@@ -17671,7 +17827,7 @@
         <v>7</v>
       </c>
       <c r="C62" s="4" t="str">
-        <f>CONCATENATE(I62,J62)</f>
+        <f t="shared" si="1"/>
         <v>HJF0THNR</v>
       </c>
       <c r="D62" s="4"/>
@@ -17694,7 +17850,7 @@
         <v>7</v>
       </c>
       <c r="C63" s="4" t="str">
-        <f>CONCATENATE(I63,J63)</f>
+        <f t="shared" si="1"/>
         <v>HJF0THNZ</v>
       </c>
       <c r="D63" s="4"/>
@@ -17717,7 +17873,7 @@
         <v>7</v>
       </c>
       <c r="C64" s="4" t="str">
-        <f>CONCATENATE(I64,J64)</f>
+        <f t="shared" si="1"/>
         <v>HJF0THP0</v>
       </c>
       <c r="D64" s="4"/>
@@ -17740,7 +17896,7 @@
         <v>7</v>
       </c>
       <c r="C65" s="4" t="str">
-        <f>CONCATENATE(I65,J65)</f>
+        <f t="shared" si="1"/>
         <v>HJF0THP7</v>
       </c>
       <c r="D65" s="4"/>
@@ -17763,7 +17919,7 @@
         <v>7</v>
       </c>
       <c r="C66" s="4" t="str">
-        <f>CONCATENATE(I66,J66)</f>
+        <f t="shared" si="1"/>
         <v>HJF0THP9</v>
       </c>
       <c r="D66" s="4"/>
@@ -17786,7 +17942,7 @@
         <v>7</v>
       </c>
       <c r="C67" s="4" t="str">
-        <f>CONCATENATE(I67,J67)</f>
+        <f t="shared" si="1"/>
         <v>HJH0D048</v>
       </c>
       <c r="D67" s="4"/>
@@ -17809,7 +17965,7 @@
         <v>7</v>
       </c>
       <c r="C68" s="4" t="str">
-        <f>CONCATENATE(I68,J68)</f>
+        <f t="shared" si="1"/>
         <v>HJH0D04K</v>
       </c>
       <c r="D68" s="4"/>
@@ -17854,7 +18010,7 @@
         <v>7</v>
       </c>
       <c r="C70" s="4" t="str">
-        <f>CONCATENATE(I70,J70)</f>
+        <f t="shared" ref="C70:C102" si="2">CONCATENATE(I70,J70)</f>
         <v>HJH0D04N</v>
       </c>
       <c r="D70" s="4"/>
@@ -17877,7 +18033,7 @@
         <v>7</v>
       </c>
       <c r="C71" s="4" t="str">
-        <f>CONCATENATE(I71,J71)</f>
+        <f t="shared" si="2"/>
         <v>HJH0D06W</v>
       </c>
       <c r="D71" s="4"/>
@@ -17900,7 +18056,7 @@
         <v>7</v>
       </c>
       <c r="C72" s="4" t="str">
-        <f>CONCATENATE(I72,J72)</f>
+        <f t="shared" si="2"/>
         <v>HJH0D096</v>
       </c>
       <c r="D72" s="4"/>
@@ -17923,7 +18079,7 @@
         <v>7</v>
       </c>
       <c r="C73" s="4" t="str">
-        <f>CONCATENATE(I73,J73)</f>
+        <f t="shared" si="2"/>
         <v>HJH0D09T</v>
       </c>
       <c r="D73" s="4"/>
@@ -17946,7 +18102,7 @@
         <v>7</v>
       </c>
       <c r="C74" s="4" t="str">
-        <f>CONCATENATE(I74,J74)</f>
+        <f t="shared" si="2"/>
         <v>HJH0D0C9</v>
       </c>
       <c r="D74" s="4"/>
@@ -17969,7 +18125,7 @@
         <v>7</v>
       </c>
       <c r="C75" s="4" t="str">
-        <f>CONCATENATE(I75,J75)</f>
+        <f t="shared" si="2"/>
         <v>HJH0D0D4</v>
       </c>
       <c r="D75" s="4"/>
@@ -17992,7 +18148,7 @@
         <v>7</v>
       </c>
       <c r="C76" s="4" t="str">
-        <f>CONCATENATE(I76,J76)</f>
+        <f t="shared" si="2"/>
         <v>HJH0D0D7</v>
       </c>
       <c r="D76" s="4"/>
@@ -18015,7 +18171,7 @@
         <v>7</v>
       </c>
       <c r="C77" s="4" t="str">
-        <f>CONCATENATE(I77,J77)</f>
+        <f t="shared" si="2"/>
         <v>HJH0D0FT</v>
       </c>
       <c r="D77" s="4"/>
@@ -18038,7 +18194,7 @@
         <v>7</v>
       </c>
       <c r="C78" s="4" t="str">
-        <f>CONCATENATE(I78,J78)</f>
+        <f t="shared" si="2"/>
         <v>HJH0D0GB</v>
       </c>
       <c r="D78" s="4"/>
@@ -18061,7 +18217,7 @@
         <v>7</v>
       </c>
       <c r="C79" s="4" t="str">
-        <f>CONCATENATE(I79,J79)</f>
+        <f t="shared" si="2"/>
         <v>HJH0D0J9</v>
       </c>
       <c r="D79" s="4"/>
@@ -18084,7 +18240,7 @@
         <v>7</v>
       </c>
       <c r="C80" s="4" t="str">
-        <f>CONCATENATE(I80,J80)</f>
+        <f t="shared" si="2"/>
         <v>HJH0D0JK</v>
       </c>
       <c r="D80" s="4"/>
@@ -18107,7 +18263,7 @@
         <v>7</v>
       </c>
       <c r="C81" s="4" t="str">
-        <f>CONCATENATE(I81,J81)</f>
+        <f t="shared" si="2"/>
         <v>HJH0D0KA</v>
       </c>
       <c r="D81" s="4"/>
@@ -18130,7 +18286,7 @@
         <v>7</v>
       </c>
       <c r="C82" s="4" t="str">
-        <f>CONCATENATE(I82,J82)</f>
+        <f t="shared" si="2"/>
         <v>HJH0D0L1</v>
       </c>
       <c r="D82" s="4"/>
@@ -18153,7 +18309,7 @@
         <v>7</v>
       </c>
       <c r="C83" s="4" t="str">
-        <f>CONCATENATE(I83,J83)</f>
+        <f t="shared" si="2"/>
         <v>HJH0D0MU</v>
       </c>
       <c r="D83" s="4"/>
@@ -18176,7 +18332,7 @@
         <v>7</v>
       </c>
       <c r="C84" s="4" t="str">
-        <f>CONCATENATE(I84,J84)</f>
+        <f t="shared" si="2"/>
         <v>HJH0D0MV</v>
       </c>
       <c r="D84" s="4"/>
@@ -18199,7 +18355,7 @@
         <v>7</v>
       </c>
       <c r="C85" s="4" t="str">
-        <f>CONCATENATE(I85,J85)</f>
+        <f t="shared" si="2"/>
         <v>HJH0D0SQ</v>
       </c>
       <c r="D85" s="4"/>
@@ -18222,7 +18378,7 @@
         <v>7</v>
       </c>
       <c r="C86" s="4" t="str">
-        <f>CONCATENATE(I86,J86)</f>
+        <f t="shared" si="2"/>
         <v>HJH0DADS</v>
       </c>
       <c r="D86" s="4"/>
@@ -18245,7 +18401,7 @@
         <v>7</v>
       </c>
       <c r="C87" s="4" t="str">
-        <f>CONCATENATE(I87,J87)</f>
+        <f t="shared" si="2"/>
         <v>HJH0DAEC</v>
       </c>
       <c r="D87" s="4"/>
@@ -18268,7 +18424,7 @@
         <v>7</v>
       </c>
       <c r="C88" s="4" t="str">
-        <f>CONCATENATE(I88,J88)</f>
+        <f t="shared" si="2"/>
         <v>HJH0DAFP</v>
       </c>
       <c r="D88" s="4"/>
@@ -18291,7 +18447,7 @@
         <v>7</v>
       </c>
       <c r="C89" s="4" t="str">
-        <f>CONCATENATE(I89,J89)</f>
+        <f t="shared" si="2"/>
         <v>HJH0DAGB</v>
       </c>
       <c r="D89" s="1"/>
@@ -18314,7 +18470,7 @@
         <v>7</v>
       </c>
       <c r="C90" s="4" t="str">
-        <f>CONCATENATE(I90,J90)</f>
+        <f t="shared" si="2"/>
         <v>HJH0DAGG</v>
       </c>
       <c r="D90" s="4"/>
@@ -18337,7 +18493,7 @@
         <v>7</v>
       </c>
       <c r="C91" s="4" t="str">
-        <f>CONCATENATE(I91,J91)</f>
+        <f t="shared" si="2"/>
         <v>HJH0DAJQ</v>
       </c>
       <c r="D91" s="4"/>
@@ -18360,7 +18516,7 @@
         <v>7</v>
       </c>
       <c r="C92" s="4" t="str">
-        <f>CONCATENATE(I92,J92)</f>
+        <f t="shared" si="2"/>
         <v>HJH0DAKF</v>
       </c>
       <c r="D92" s="4"/>
@@ -18383,7 +18539,7 @@
         <v>7</v>
       </c>
       <c r="C93" s="4" t="str">
-        <f>CONCATENATE(I93,J93)</f>
+        <f t="shared" si="2"/>
         <v>HJH0DAKM</v>
       </c>
       <c r="D93" s="4"/>
@@ -18406,7 +18562,7 @@
         <v>7</v>
       </c>
       <c r="C94" s="4" t="str">
-        <f>CONCATENATE(I94,J94)</f>
+        <f t="shared" si="2"/>
         <v>HJH0DALJ</v>
       </c>
       <c r="D94" s="4"/>
@@ -18429,7 +18585,7 @@
         <v>7</v>
       </c>
       <c r="C95" s="4" t="str">
-        <f>CONCATENATE(I95,J95)</f>
+        <f t="shared" si="2"/>
         <v>HJH0DAMH</v>
       </c>
       <c r="D95" s="4"/>
@@ -18452,7 +18608,7 @@
         <v>7</v>
       </c>
       <c r="C96" s="4" t="str">
-        <f>CONCATENATE(I96,J96)</f>
+        <f t="shared" si="2"/>
         <v>HJH0DAMM</v>
       </c>
       <c r="D96" s="4"/>
@@ -18475,7 +18631,7 @@
         <v>7</v>
       </c>
       <c r="C97" s="4" t="str">
-        <f>CONCATENATE(I97,J97)</f>
+        <f t="shared" si="2"/>
         <v>HJH0DAMU</v>
       </c>
       <c r="D97" s="4"/>
@@ -18498,7 +18654,7 @@
         <v>7</v>
       </c>
       <c r="C98" s="4" t="str">
-        <f>CONCATENATE(I98,J98)</f>
+        <f t="shared" si="2"/>
         <v>HJH0DAMX</v>
       </c>
       <c r="D98" s="4"/>
@@ -18521,7 +18677,7 @@
         <v>7</v>
       </c>
       <c r="C99" s="4" t="str">
-        <f>CONCATENATE(I99,J99)</f>
+        <f t="shared" si="2"/>
         <v>HJH0DAN8</v>
       </c>
       <c r="D99" s="4"/>
@@ -18544,7 +18700,7 @@
         <v>7</v>
       </c>
       <c r="C100" s="4" t="str">
-        <f>CONCATENATE(I100,J100)</f>
+        <f t="shared" si="2"/>
         <v>HJH0DAUA</v>
       </c>
       <c r="D100" s="4"/>
@@ -18567,7 +18723,7 @@
         <v>7</v>
       </c>
       <c r="C101" s="4" t="str">
-        <f>CONCATENATE(I101,J101)</f>
+        <f t="shared" si="2"/>
         <v>HJH0DB07</v>
       </c>
       <c r="D101" s="4"/>
@@ -18590,7 +18746,7 @@
         <v>7</v>
       </c>
       <c r="C102" s="4" t="str">
-        <f>CONCATENATE(I102,J102)</f>
+        <f t="shared" si="2"/>
         <v>HJH0DB0N</v>
       </c>
       <c r="D102" s="4"/>
@@ -18635,7 +18791,7 @@
         <v>7</v>
       </c>
       <c r="C104" s="4" t="str">
-        <f>CONCATENATE(I104,J104)</f>
+        <f t="shared" ref="C104:C117" si="3">CONCATENATE(I104,J104)</f>
         <v>HJH0DB17</v>
       </c>
       <c r="D104" s="4"/>
@@ -18658,7 +18814,7 @@
         <v>7</v>
       </c>
       <c r="C105" s="4" t="str">
-        <f>CONCATENATE(I105,J105)</f>
+        <f t="shared" si="3"/>
         <v>HJH0DB1A</v>
       </c>
       <c r="D105" s="4"/>
@@ -18681,7 +18837,7 @@
         <v>7</v>
       </c>
       <c r="C106" s="4" t="str">
-        <f>CONCATENATE(I106,J106)</f>
+        <f t="shared" si="3"/>
         <v>HJH0DB1T</v>
       </c>
       <c r="D106" s="4"/>
@@ -18704,7 +18860,7 @@
         <v>7</v>
       </c>
       <c r="C107" s="4" t="str">
-        <f>CONCATENATE(I107,J107)</f>
+        <f t="shared" si="3"/>
         <v>HJH0DB23</v>
       </c>
       <c r="D107" s="4"/>
@@ -18727,7 +18883,7 @@
         <v>7</v>
       </c>
       <c r="C108" s="4" t="str">
-        <f>CONCATENATE(I108,J108)</f>
+        <f t="shared" si="3"/>
         <v>HJH0DB25</v>
       </c>
       <c r="D108" s="4"/>
@@ -18750,7 +18906,7 @@
         <v>7</v>
       </c>
       <c r="C109" s="4" t="str">
-        <f>CONCATENATE(I109,J109)</f>
+        <f t="shared" si="3"/>
         <v>HJH0DB2Y</v>
       </c>
       <c r="D109" s="4"/>
@@ -18773,7 +18929,7 @@
         <v>7</v>
       </c>
       <c r="C110" s="4" t="str">
-        <f>CONCATENATE(I110,J110)</f>
+        <f t="shared" si="3"/>
         <v>HJH0DB32</v>
       </c>
       <c r="D110" s="4"/>
@@ -18796,7 +18952,7 @@
         <v>7</v>
       </c>
       <c r="C111" s="4" t="str">
-        <f>CONCATENATE(I111,J111)</f>
+        <f t="shared" si="3"/>
         <v>HJH0DB3U</v>
       </c>
       <c r="D111" s="4"/>
@@ -18819,7 +18975,7 @@
         <v>7</v>
       </c>
       <c r="C112" s="4" t="str">
-        <f>CONCATENATE(I112,J112)</f>
+        <f t="shared" si="3"/>
         <v>HJH0DB48</v>
       </c>
       <c r="D112" s="4"/>
@@ -18842,7 +18998,7 @@
         <v>7</v>
       </c>
       <c r="C113" s="4" t="str">
-        <f>CONCATENATE(I113,J113)</f>
+        <f t="shared" si="3"/>
         <v>HJH0DB4D</v>
       </c>
       <c r="D113" s="4"/>
@@ -18865,7 +19021,7 @@
         <v>7</v>
       </c>
       <c r="C114" s="4" t="str">
-        <f>CONCATENATE(I114,J114)</f>
+        <f t="shared" si="3"/>
         <v>HJH0DB4W</v>
       </c>
       <c r="D114" s="4"/>
@@ -18888,7 +19044,7 @@
         <v>7</v>
       </c>
       <c r="C115" s="4" t="str">
-        <f>CONCATENATE(I115,J115)</f>
+        <f t="shared" si="3"/>
         <v>HJH0DB50</v>
       </c>
       <c r="D115" s="4"/>
@@ -18911,7 +19067,7 @@
         <v>7</v>
       </c>
       <c r="C116" s="4" t="str">
-        <f>CONCATENATE(I116,J116)</f>
+        <f t="shared" si="3"/>
         <v>HJH0DB5P</v>
       </c>
       <c r="D116" s="4"/>
@@ -18934,7 +19090,7 @@
         <v>7</v>
       </c>
       <c r="C117" s="4" t="str">
-        <f>CONCATENATE(I117,J117)</f>
+        <f t="shared" si="3"/>
         <v>HJH0DB5Y</v>
       </c>
       <c r="D117" s="4"/>
@@ -18951,34 +19107,34 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1 F36">
-    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="HJF0">
+    <cfRule type="containsText" dxfId="17" priority="7" operator="containsText" text="HJF0">
       <formula>NOT(ISERROR(SEARCH("HJF0",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="HJH0">
+    <cfRule type="containsText" dxfId="16" priority="8" operator="containsText" text="HJH0">
       <formula>NOT(ISERROR(SEARCH("HJH0",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="HJF0">
+    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="HJF0">
       <formula>NOT(ISERROR(SEARCH("HJF0",F35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="HJH0">
+    <cfRule type="containsText" dxfId="14" priority="6" operator="containsText" text="HJH0">
       <formula>NOT(ISERROR(SEARCH("HJH0",F35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F69">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="HJF0">
+    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="HJF0">
       <formula>NOT(ISERROR(SEARCH("HJF0",F69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="HJH0">
+    <cfRule type="containsText" dxfId="12" priority="4" operator="containsText" text="HJH0">
       <formula>NOT(ISERROR(SEARCH("HJH0",F69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F103">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="HJF0">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="HJF0">
       <formula>NOT(ISERROR(SEARCH("HJF0",F103)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="HJH0">
+    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="HJH0">
       <formula>NOT(ISERROR(SEARCH("HJH0",F103)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Tablets Distribution - Berea.xlsx
+++ b/Tablets Distribution - Berea.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" tabRatio="833" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" tabRatio="833" firstSheet="1" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="All Tablets" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2113" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2122" uniqueCount="547">
   <si>
     <t>No.</t>
   </si>
@@ -1673,6 +1673,12 @@
   </si>
   <si>
     <t>2864</t>
+  </si>
+  <si>
+    <t>11V1DP102319</t>
+  </si>
+  <si>
+    <t>KHAUHELO HLABATHE</t>
   </si>
 </sst>
 </file>
@@ -1761,55 +1767,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="16">
     <dxf>
       <font>
         <condense val="0"/>
@@ -6104,16 +6062,525 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>
+  <cols>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" customWidth="1"/>
+    <col min="5" max="5" width="39.85546875" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="4"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="4"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="4"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="4"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="4"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="4"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="4"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="4"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="4"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="4"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="4"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="4"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="4"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="4"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="4"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="4"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="4"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="4"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="4"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="4"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="4"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="4"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="4"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="4"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="4"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="4"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="4"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="4"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="4"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="4"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="4"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="4"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" spans="1:6" ht="18.75">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="4"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="4"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="4"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="4"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="4"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="4"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="4"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="4"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="4"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="4"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="4"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="4"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="4"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="4"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="4"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="4"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="4"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="4"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="4"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="4"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="4"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="4"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="4"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="4"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="4"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.36458333333333331" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;A&amp;CTABLETS ALLOCATION FORM</oddHeader>
     <oddFooter>&amp;RPage &amp;P of &amp;N</oddFooter>
@@ -6125,7 +6592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+    <sheetView view="pageLayout" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -13253,26 +13720,26 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:G1">
-    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="HJF0">
+    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="HJF0">
       <formula>NOT(ISERROR(SEARCH("HJF0",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="HJH0">
+    <cfRule type="containsText" dxfId="14" priority="8" operator="containsText" text="HJH0">
       <formula>NOT(ISERROR(SEARCH("HJH0",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35:G35">
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="HJF0">
+    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="HJF0">
       <formula>NOT(ISERROR(SEARCH("HJF0",F35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="HJH0">
+    <cfRule type="containsText" dxfId="12" priority="4" operator="containsText" text="HJH0">
       <formula>NOT(ISERROR(SEARCH("HJH0",F35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F69:G69">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="HJF0">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="HJF0">
       <formula>NOT(ISERROR(SEARCH("HJF0",F69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="HJH0">
+    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="HJH0">
       <formula>NOT(ISERROR(SEARCH("HJH0",F69)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15093,10 +15560,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:G1">
-    <cfRule type="containsText" dxfId="19" priority="3" operator="containsText" text="HJF0">
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="HJF0">
       <formula>NOT(ISERROR(SEARCH("HJF0",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="4" operator="containsText" text="HJH0">
+    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="HJH0">
       <formula>NOT(ISERROR(SEARCH("HJH0",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19107,34 +19574,34 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1 F36">
-    <cfRule type="containsText" dxfId="17" priority="7" operator="containsText" text="HJF0">
+    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="HJF0">
       <formula>NOT(ISERROR(SEARCH("HJF0",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="8" operator="containsText" text="HJH0">
+    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="HJH0">
       <formula>NOT(ISERROR(SEARCH("HJH0",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="HJF0">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="HJF0">
       <formula>NOT(ISERROR(SEARCH("HJF0",F35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="6" operator="containsText" text="HJH0">
+    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="HJH0">
       <formula>NOT(ISERROR(SEARCH("HJH0",F35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F69">
-    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="HJF0">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="HJF0">
       <formula>NOT(ISERROR(SEARCH("HJF0",F69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="4" operator="containsText" text="HJH0">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="HJH0">
       <formula>NOT(ISERROR(SEARCH("HJH0",F69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F103">
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="HJF0">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="HJF0">
       <formula>NOT(ISERROR(SEARCH("HJF0",F103)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="HJH0">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="HJH0">
       <formula>NOT(ISERROR(SEARCH("HJH0",F103)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Tablets Distribution - Berea.xlsx
+++ b/Tablets Distribution - Berea.xlsx
@@ -1742,7 +1742,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1762,6 +1762,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6062,20 +6068,20 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="29.42578125" customWidth="1"/>
-    <col min="5" max="5" width="39.85546875" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" customWidth="1"/>
+    <col min="5" max="5" width="41.140625" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75">
@@ -6131,455 +6137,471 @@
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="4"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="4"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="4"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="4"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="4"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="4"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="4"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="4"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="4"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="4"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="4"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="4"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="4"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="4"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="4"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="4"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="4"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="4"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="4"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="4"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="4"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="4"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="4"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="4"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="4"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="4"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="4"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="4"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="4"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
+      <c r="A33" s="8"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="4"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
     </row>
     <row r="35" spans="1:6" ht="18.75">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="4"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
+      <c r="A36" s="8"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="4"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
+      <c r="A37" s="8"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="4"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
+      <c r="A38" s="8"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="4"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
+      <c r="A39" s="8"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="4"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
+      <c r="A40" s="8"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="4"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
+      <c r="A41" s="8"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="4"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
+      <c r="A42" s="8"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="4"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
+      <c r="A43" s="8"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="4"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
+      <c r="A44" s="8"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="4"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
+      <c r="A45" s="8"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="4"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
+      <c r="A46" s="8"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="4"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
+      <c r="A47" s="8"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="4"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
+      <c r="A48" s="8"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="4"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
+      <c r="A49" s="8"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="4"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
+      <c r="A50" s="8"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="4"/>
-      <c r="B51" s="9"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
+      <c r="A51" s="8"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="4"/>
-      <c r="B52" s="9"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
+      <c r="A52" s="8"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="4"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
+      <c r="A53" s="8"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="4"/>
-      <c r="B54" s="9"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
+      <c r="A54" s="8"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="4"/>
-      <c r="B55" s="9"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
+      <c r="A55" s="8"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="4"/>
-      <c r="B56" s="9"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
+      <c r="A56" s="8"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="4"/>
-      <c r="B57" s="9"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
+      <c r="A57" s="8"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="4"/>
-      <c r="B58" s="9"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
+      <c r="A58" s="8"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="4"/>
-      <c r="B59" s="9"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
+      <c r="A59" s="8"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="4"/>
-      <c r="B60" s="9"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
+      <c r="A60" s="8"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="8"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="8"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
     </row>
   </sheetData>
-  <pageMargins left="0.36458333333333331" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.36458333333333331" right="0.35416666666666669" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;A&amp;CTABLETS ALLOCATION FORM</oddHeader>
